--- a/migforecasting/cities17-18/1/d11.xlsx
+++ b/migforecasting/cities17-18/1/d11.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Albert\.spyder-py3\ITMO-2\migforecasting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Albert\.spyder-py3\ITMO-2\migforecasting\cities17-18\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="795">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="794">
   <si>
     <t>Балашиха</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>Ногинск</t>
-  </si>
-  <si>
-    <t>2018 г.</t>
   </si>
   <si>
     <t>НАСЕЛЕНИЕ</t>
@@ -2927,7 +2924,7 @@
   <dimension ref="A1:W87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA6" sqref="AA6"/>
+      <selection activeCell="Y12" sqref="Y12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3009,108 +3006,108 @@
         <v>9</v>
       </c>
       <c r="M2" t="s">
+        <v>219</v>
+      </c>
+      <c r="N2" t="s">
         <v>220</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>221</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>222</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>223</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>224</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>225</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>226</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>227</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>228</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>229</v>
-      </c>
-      <c r="W2" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" t="s">
-        <v>10</v>
-      </c>
-      <c r="P3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>10</v>
-      </c>
-      <c r="R3" t="s">
-        <v>10</v>
-      </c>
-      <c r="S3" t="s">
-        <v>10</v>
-      </c>
-      <c r="T3" t="s">
-        <v>10</v>
-      </c>
-      <c r="U3" t="s">
-        <v>10</v>
-      </c>
-      <c r="V3" t="s">
-        <v>10</v>
-      </c>
-      <c r="W3" t="s">
-        <v>10</v>
+      <c r="B3">
+        <v>2018</v>
+      </c>
+      <c r="C3">
+        <v>2018</v>
+      </c>
+      <c r="D3">
+        <v>2018</v>
+      </c>
+      <c r="E3">
+        <v>2018</v>
+      </c>
+      <c r="F3">
+        <v>2018</v>
+      </c>
+      <c r="G3">
+        <v>2018</v>
+      </c>
+      <c r="H3">
+        <v>2018</v>
+      </c>
+      <c r="I3">
+        <v>2018</v>
+      </c>
+      <c r="J3">
+        <v>2018</v>
+      </c>
+      <c r="K3">
+        <v>2018</v>
+      </c>
+      <c r="L3">
+        <v>2018</v>
+      </c>
+      <c r="M3">
+        <v>2018</v>
+      </c>
+      <c r="N3">
+        <v>2018</v>
+      </c>
+      <c r="O3">
+        <v>2018</v>
+      </c>
+      <c r="P3">
+        <v>2018</v>
+      </c>
+      <c r="Q3">
+        <v>2018</v>
+      </c>
+      <c r="R3">
+        <v>2018</v>
+      </c>
+      <c r="S3">
+        <v>2018</v>
+      </c>
+      <c r="T3">
+        <v>2018</v>
+      </c>
+      <c r="U3">
+        <v>2018</v>
+      </c>
+      <c r="V3">
+        <v>2018</v>
+      </c>
+      <c r="W3">
+        <v>2018</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
@@ -3118,37 +3115,37 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
@@ -3156,70 +3153,70 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>14</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>15</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>16</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>17</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>18</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>19</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>20</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>21</v>
       </c>
-      <c r="L5" t="s">
-        <v>22</v>
-      </c>
       <c r="M5" t="s">
+        <v>230</v>
+      </c>
+      <c r="N5" t="s">
         <v>231</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>232</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>233</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>234</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>235</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>236</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>237</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>238</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>239</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>240</v>
-      </c>
-      <c r="W5" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
@@ -3227,7 +3224,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
@@ -3235,70 +3232,70 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>26</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>27</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>28</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>29</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>30</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>31</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>32</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>33</v>
       </c>
-      <c r="L7" t="s">
-        <v>34</v>
-      </c>
       <c r="M7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O7" t="s">
+        <v>241</v>
+      </c>
+      <c r="P7" t="s">
         <v>242</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>243</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>244</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>245</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>246</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>247</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>248</v>
       </c>
-      <c r="V7" t="s">
-        <v>249</v>
-      </c>
       <c r="W7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
@@ -3306,70 +3303,70 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
         <v>35</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>36</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>37</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>38</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>39</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>40</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>41</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" t="s">
         <v>42</v>
       </c>
-      <c r="J8" t="s">
-        <v>26</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>43</v>
       </c>
-      <c r="L8" t="s">
-        <v>44</v>
-      </c>
       <c r="M8" t="s">
+        <v>249</v>
+      </c>
+      <c r="N8" t="s">
+        <v>77</v>
+      </c>
+      <c r="O8" t="s">
         <v>250</v>
       </c>
-      <c r="N8" t="s">
-        <v>78</v>
-      </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>70</v>
+      </c>
+      <c r="R8" t="s">
         <v>251</v>
       </c>
-      <c r="P8" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>71</v>
-      </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>252</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>253</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
+        <v>245</v>
+      </c>
+      <c r="V8" t="s">
         <v>254</v>
       </c>
-      <c r="U8" t="s">
-        <v>246</v>
-      </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>255</v>
-      </c>
-      <c r="W8" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
@@ -3377,70 +3374,70 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" t="s">
         <v>45</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>46</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>47</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>48</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>49</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>50</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>51</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>52</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>53</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>54</v>
       </c>
-      <c r="L9" t="s">
-        <v>55</v>
-      </c>
       <c r="M9" t="s">
+        <v>256</v>
+      </c>
+      <c r="N9" t="s">
         <v>257</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>258</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>259</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>260</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>261</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>262</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
+        <v>260</v>
+      </c>
+      <c r="U9" t="s">
         <v>263</v>
       </c>
-      <c r="T9" t="s">
-        <v>261</v>
-      </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>264</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>265</v>
-      </c>
-      <c r="W9" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
@@ -3448,70 +3445,70 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" t="s">
         <v>56</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>57</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>58</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>59</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>60</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>61</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>62</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>63</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>64</v>
       </c>
-      <c r="K10" t="s">
-        <v>65</v>
-      </c>
       <c r="L10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M10" t="s">
+        <v>266</v>
+      </c>
+      <c r="N10" t="s">
         <v>267</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>268</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>269</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>270</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>271</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>272</v>
       </c>
-      <c r="S10" t="s">
+      <c r="T10" t="s">
         <v>273</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
         <v>274</v>
       </c>
-      <c r="U10" t="s">
+      <c r="V10" t="s">
         <v>275</v>
       </c>
-      <c r="V10" t="s">
-        <v>276</v>
-      </c>
       <c r="W10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
@@ -3519,70 +3516,70 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" t="s">
         <v>66</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>67</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>68</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" t="s">
         <v>69</v>
       </c>
-      <c r="F11" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>70</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>71</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>72</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>73</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>74</v>
       </c>
-      <c r="L11" t="s">
-        <v>75</v>
-      </c>
       <c r="M11" t="s">
+        <v>276</v>
+      </c>
+      <c r="N11" t="s">
         <v>277</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>278</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>279</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
+        <v>276</v>
+      </c>
+      <c r="R11" t="s">
+        <v>38</v>
+      </c>
+      <c r="S11" t="s">
         <v>280</v>
       </c>
-      <c r="Q11" t="s">
-        <v>277</v>
-      </c>
-      <c r="R11" t="s">
-        <v>39</v>
-      </c>
-      <c r="S11" t="s">
+      <c r="T11" t="s">
         <v>281</v>
       </c>
-      <c r="T11" t="s">
+      <c r="U11" t="s">
         <v>282</v>
       </c>
-      <c r="U11" t="s">
+      <c r="V11" t="s">
+        <v>27</v>
+      </c>
+      <c r="W11" t="s">
         <v>283</v>
-      </c>
-      <c r="V11" t="s">
-        <v>28</v>
-      </c>
-      <c r="W11" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
@@ -3590,70 +3587,70 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" t="s">
         <v>76</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>77</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>78</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>79</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>80</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
+        <v>71</v>
+      </c>
+      <c r="I12" t="s">
+        <v>67</v>
+      </c>
+      <c r="J12" t="s">
+        <v>78</v>
+      </c>
+      <c r="K12" t="s">
         <v>81</v>
       </c>
-      <c r="H12" t="s">
-        <v>72</v>
-      </c>
-      <c r="I12" t="s">
-        <v>68</v>
-      </c>
-      <c r="J12" t="s">
-        <v>79</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>82</v>
       </c>
-      <c r="L12" t="s">
-        <v>83</v>
-      </c>
       <c r="M12" t="s">
+        <v>284</v>
+      </c>
+      <c r="N12" t="s">
         <v>285</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
+        <v>249</v>
+      </c>
+      <c r="P12" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q12" t="s">
         <v>286</v>
       </c>
-      <c r="O12" t="s">
-        <v>250</v>
-      </c>
-      <c r="P12" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
+        <v>251</v>
+      </c>
+      <c r="S12" t="s">
         <v>287</v>
       </c>
-      <c r="R12" t="s">
-        <v>252</v>
-      </c>
-      <c r="S12" t="s">
+      <c r="T12" t="s">
+        <v>82</v>
+      </c>
+      <c r="U12" t="s">
+        <v>43</v>
+      </c>
+      <c r="V12" t="s">
         <v>288</v>
       </c>
-      <c r="T12" t="s">
-        <v>83</v>
-      </c>
-      <c r="U12" t="s">
-        <v>44</v>
-      </c>
-      <c r="V12" t="s">
+      <c r="W12" t="s">
         <v>289</v>
-      </c>
-      <c r="W12" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
@@ -3661,70 +3658,70 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" t="s">
         <v>84</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>85</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>86</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>87</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>88</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>89</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>90</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>91</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>92</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>93</v>
       </c>
-      <c r="L13" t="s">
-        <v>94</v>
-      </c>
       <c r="M13" t="s">
+        <v>290</v>
+      </c>
+      <c r="N13" t="s">
         <v>291</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>292</v>
       </c>
-      <c r="O13" t="s">
-        <v>293</v>
-      </c>
       <c r="P13" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q13" t="s">
         <v>294</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>295</v>
       </c>
-      <c r="R13" t="s">
-        <v>296</v>
-      </c>
       <c r="S13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="U13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="V13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="W13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
@@ -3732,70 +3729,70 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" t="s">
         <v>95</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>96</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>97</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>98</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>99</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>100</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>101</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>102</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>103</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>104</v>
       </c>
-      <c r="L14" t="s">
-        <v>105</v>
-      </c>
       <c r="M14" t="s">
+        <v>296</v>
+      </c>
+      <c r="N14" t="s">
         <v>297</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>298</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>299</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>300</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>301</v>
       </c>
-      <c r="R14" t="s">
+      <c r="S14" t="s">
         <v>302</v>
       </c>
-      <c r="S14" t="s">
+      <c r="T14" t="s">
         <v>303</v>
       </c>
-      <c r="T14" t="s">
+      <c r="U14" t="s">
         <v>304</v>
       </c>
-      <c r="U14" t="s">
+      <c r="V14" t="s">
         <v>305</v>
       </c>
-      <c r="V14" t="s">
+      <c r="W14" t="s">
         <v>306</v>
-      </c>
-      <c r="W14" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
@@ -3803,37 +3800,37 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
@@ -3841,70 +3838,70 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" t="s">
         <v>107</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>108</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>109</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>110</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>111</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>112</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>113</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>114</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>115</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>116</v>
       </c>
-      <c r="L16" t="s">
-        <v>117</v>
-      </c>
       <c r="M16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N16" t="s">
+        <v>307</v>
+      </c>
+      <c r="O16" t="s">
         <v>308</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q16" t="s">
         <v>309</v>
       </c>
-      <c r="P16" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
+        <v>287</v>
+      </c>
+      <c r="S16" t="s">
         <v>310</v>
       </c>
-      <c r="R16" t="s">
-        <v>288</v>
-      </c>
-      <c r="S16" t="s">
+      <c r="T16" t="s">
         <v>311</v>
       </c>
-      <c r="T16" t="s">
+      <c r="U16" t="s">
         <v>312</v>
       </c>
-      <c r="U16" t="s">
+      <c r="V16" t="s">
+        <v>174</v>
+      </c>
+      <c r="W16" t="s">
         <v>313</v>
-      </c>
-      <c r="V16" t="s">
-        <v>175</v>
-      </c>
-      <c r="W16" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
@@ -3912,70 +3909,70 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C17" t="s">
         <v>118</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>119</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>120</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>121</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>122</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>123</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>124</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
+        <v>121</v>
+      </c>
+      <c r="K17" t="s">
         <v>125</v>
       </c>
-      <c r="J17" t="s">
-        <v>122</v>
-      </c>
-      <c r="K17" t="s">
-        <v>126</v>
-      </c>
       <c r="L17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N17" t="s">
+        <v>314</v>
+      </c>
+      <c r="O17" t="s">
         <v>315</v>
       </c>
-      <c r="O17" t="s">
+      <c r="P17" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>121</v>
+      </c>
+      <c r="R17" t="s">
+        <v>121</v>
+      </c>
+      <c r="S17" t="s">
         <v>316</v>
       </c>
-      <c r="P17" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>122</v>
-      </c>
-      <c r="R17" t="s">
-        <v>122</v>
-      </c>
-      <c r="S17" t="s">
+      <c r="T17" t="s">
+        <v>121</v>
+      </c>
+      <c r="U17" t="s">
         <v>317</v>
       </c>
-      <c r="T17" t="s">
-        <v>122</v>
-      </c>
-      <c r="U17" t="s">
+      <c r="V17" t="s">
+        <v>121</v>
+      </c>
+      <c r="W17" t="s">
         <v>318</v>
-      </c>
-      <c r="V17" t="s">
-        <v>122</v>
-      </c>
-      <c r="W17" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
@@ -3983,34 +3980,34 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="F18" s="2">
         <v>377</v>
       </c>
       <c r="G18" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H18" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="I18" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="J18" s="2">
         <v>725</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L18" s="2">
         <v>358</v>
@@ -4019,10 +4016,10 @@
         <v>481</v>
       </c>
       <c r="N18" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="O18" s="2" t="s">
         <v>320</v>
-      </c>
-      <c r="O18" s="2" t="s">
-        <v>321</v>
       </c>
       <c r="P18" s="2">
         <v>365</v>
@@ -4034,19 +4031,19 @@
         <v>370</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="T18" s="2">
         <v>437</v>
       </c>
       <c r="U18" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="V18" s="2">
         <v>437</v>
       </c>
       <c r="W18" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
@@ -4054,70 +4051,70 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="N19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="O19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="P19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="Q19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="R19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="S19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="T19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="U19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="V19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="W19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
@@ -4125,70 +4122,70 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
+        <v>136</v>
+      </c>
+      <c r="C20" t="s">
         <v>137</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>138</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>139</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>140</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>141</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>142</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>143</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>144</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>145</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>146</v>
       </c>
-      <c r="L20" t="s">
-        <v>147</v>
-      </c>
       <c r="M20" t="s">
+        <v>325</v>
+      </c>
+      <c r="N20" t="s">
         <v>326</v>
       </c>
-      <c r="N20" t="s">
+      <c r="O20" t="s">
         <v>327</v>
       </c>
-      <c r="O20" t="s">
+      <c r="P20" t="s">
         <v>328</v>
       </c>
-      <c r="P20" t="s">
+      <c r="Q20" t="s">
         <v>329</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="R20" t="s">
         <v>330</v>
       </c>
-      <c r="R20" t="s">
+      <c r="S20" t="s">
         <v>331</v>
       </c>
-      <c r="S20" t="s">
+      <c r="T20" t="s">
         <v>332</v>
       </c>
-      <c r="T20" t="s">
+      <c r="U20" t="s">
         <v>333</v>
       </c>
-      <c r="U20" t="s">
+      <c r="V20" t="s">
         <v>334</v>
       </c>
-      <c r="V20" t="s">
+      <c r="W20" t="s">
         <v>335</v>
-      </c>
-      <c r="W20" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
@@ -4196,70 +4193,70 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
+        <v>147</v>
+      </c>
+      <c r="C21" t="s">
         <v>148</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
+        <v>121</v>
+      </c>
+      <c r="E21" t="s">
+        <v>121</v>
+      </c>
+      <c r="F21" t="s">
         <v>149</v>
       </c>
-      <c r="D21" t="s">
-        <v>122</v>
-      </c>
-      <c r="E21" t="s">
-        <v>122</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>150</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>151</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>152</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
+        <v>121</v>
+      </c>
+      <c r="K21" t="s">
         <v>153</v>
       </c>
-      <c r="J21" t="s">
-        <v>122</v>
-      </c>
-      <c r="K21" t="s">
-        <v>154</v>
-      </c>
       <c r="L21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M21" t="s">
+        <v>336</v>
+      </c>
+      <c r="N21" t="s">
         <v>337</v>
       </c>
-      <c r="N21" t="s">
+      <c r="O21" t="s">
+        <v>121</v>
+      </c>
+      <c r="P21" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>121</v>
+      </c>
+      <c r="R21" t="s">
+        <v>121</v>
+      </c>
+      <c r="S21" t="s">
         <v>338</v>
       </c>
-      <c r="O21" t="s">
-        <v>122</v>
-      </c>
-      <c r="P21" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>122</v>
-      </c>
-      <c r="R21" t="s">
-        <v>122</v>
-      </c>
-      <c r="S21" t="s">
+      <c r="T21" t="s">
+        <v>121</v>
+      </c>
+      <c r="U21" t="s">
+        <v>121</v>
+      </c>
+      <c r="V21" t="s">
+        <v>121</v>
+      </c>
+      <c r="W21" t="s">
         <v>339</v>
-      </c>
-      <c r="T21" t="s">
-        <v>122</v>
-      </c>
-      <c r="U21" t="s">
-        <v>122</v>
-      </c>
-      <c r="V21" t="s">
-        <v>122</v>
-      </c>
-      <c r="W21" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
@@ -4267,70 +4264,70 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
+        <v>154</v>
+      </c>
+      <c r="C22" t="s">
         <v>155</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
+        <v>130</v>
+      </c>
+      <c r="E22" t="s">
+        <v>130</v>
+      </c>
+      <c r="F22" t="s">
         <v>156</v>
       </c>
-      <c r="D22" t="s">
-        <v>131</v>
-      </c>
-      <c r="E22" t="s">
-        <v>131</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>157</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>158</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>159</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
+        <v>130</v>
+      </c>
+      <c r="K22" t="s">
         <v>160</v>
       </c>
-      <c r="J22" t="s">
-        <v>131</v>
-      </c>
-      <c r="K22" t="s">
-        <v>161</v>
-      </c>
       <c r="L22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N22" t="s">
+        <v>340</v>
+      </c>
+      <c r="O22" t="s">
+        <v>130</v>
+      </c>
+      <c r="P22" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>130</v>
+      </c>
+      <c r="R22" t="s">
+        <v>130</v>
+      </c>
+      <c r="S22" t="s">
         <v>341</v>
       </c>
-      <c r="O22" t="s">
-        <v>131</v>
-      </c>
-      <c r="P22" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>131</v>
-      </c>
-      <c r="R22" t="s">
-        <v>131</v>
-      </c>
-      <c r="S22" t="s">
+      <c r="T22" t="s">
+        <v>130</v>
+      </c>
+      <c r="U22" t="s">
+        <v>130</v>
+      </c>
+      <c r="V22" t="s">
+        <v>130</v>
+      </c>
+      <c r="W22" t="s">
         <v>342</v>
-      </c>
-      <c r="T22" t="s">
-        <v>131</v>
-      </c>
-      <c r="U22" t="s">
-        <v>131</v>
-      </c>
-      <c r="V22" t="s">
-        <v>131</v>
-      </c>
-      <c r="W22" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
@@ -4338,70 +4335,70 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
+        <v>161</v>
+      </c>
+      <c r="C23" t="s">
         <v>162</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>163</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>164</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>165</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>166</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>167</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>168</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>169</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>170</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>171</v>
       </c>
-      <c r="L23" t="s">
-        <v>172</v>
-      </c>
       <c r="M23" t="s">
+        <v>343</v>
+      </c>
+      <c r="N23" t="s">
         <v>344</v>
       </c>
-      <c r="N23" t="s">
+      <c r="O23" t="s">
         <v>345</v>
       </c>
-      <c r="O23" t="s">
+      <c r="P23" t="s">
         <v>346</v>
       </c>
-      <c r="P23" t="s">
+      <c r="Q23" t="s">
         <v>347</v>
       </c>
-      <c r="Q23" t="s">
+      <c r="R23" t="s">
         <v>348</v>
       </c>
-      <c r="R23" t="s">
+      <c r="S23" t="s">
         <v>349</v>
       </c>
-      <c r="S23" t="s">
+      <c r="T23" t="s">
+        <v>110</v>
+      </c>
+      <c r="U23" t="s">
         <v>350</v>
       </c>
-      <c r="T23" t="s">
-        <v>111</v>
-      </c>
-      <c r="U23" t="s">
+      <c r="V23" t="s">
         <v>351</v>
       </c>
-      <c r="V23" t="s">
+      <c r="W23" t="s">
         <v>352</v>
-      </c>
-      <c r="W23" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
@@ -4409,70 +4406,70 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
+        <v>183</v>
+      </c>
+      <c r="C24" t="s">
         <v>184</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
+        <v>177</v>
+      </c>
+      <c r="E24" t="s">
+        <v>176</v>
+      </c>
+      <c r="F24" t="s">
+        <v>84</v>
+      </c>
+      <c r="G24" t="s">
         <v>185</v>
       </c>
-      <c r="D24" t="s">
-        <v>178</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="H24" t="s">
+        <v>67</v>
+      </c>
+      <c r="I24" t="s">
+        <v>186</v>
+      </c>
+      <c r="J24" t="s">
+        <v>180</v>
+      </c>
+      <c r="K24" t="s">
+        <v>81</v>
+      </c>
+      <c r="L24" t="s">
+        <v>187</v>
+      </c>
+      <c r="M24" t="s">
+        <v>360</v>
+      </c>
+      <c r="N24" t="s">
+        <v>361</v>
+      </c>
+      <c r="O24" t="s">
+        <v>362</v>
+      </c>
+      <c r="P24" t="s">
+        <v>363</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>354</v>
+      </c>
+      <c r="R24" t="s">
+        <v>364</v>
+      </c>
+      <c r="S24" t="s">
+        <v>365</v>
+      </c>
+      <c r="T24" t="s">
+        <v>358</v>
+      </c>
+      <c r="U24" t="s">
+        <v>366</v>
+      </c>
+      <c r="V24" t="s">
+        <v>358</v>
+      </c>
+      <c r="W24" t="s">
         <v>177</v>
-      </c>
-      <c r="F24" t="s">
-        <v>85</v>
-      </c>
-      <c r="G24" t="s">
-        <v>186</v>
-      </c>
-      <c r="H24" t="s">
-        <v>68</v>
-      </c>
-      <c r="I24" t="s">
-        <v>187</v>
-      </c>
-      <c r="J24" t="s">
-        <v>181</v>
-      </c>
-      <c r="K24" t="s">
-        <v>82</v>
-      </c>
-      <c r="L24" t="s">
-        <v>188</v>
-      </c>
-      <c r="M24" t="s">
-        <v>361</v>
-      </c>
-      <c r="N24" t="s">
-        <v>362</v>
-      </c>
-      <c r="O24" t="s">
-        <v>363</v>
-      </c>
-      <c r="P24" t="s">
-        <v>364</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>355</v>
-      </c>
-      <c r="R24" t="s">
-        <v>365</v>
-      </c>
-      <c r="S24" t="s">
-        <v>366</v>
-      </c>
-      <c r="T24" t="s">
-        <v>359</v>
-      </c>
-      <c r="U24" t="s">
-        <v>367</v>
-      </c>
-      <c r="V24" t="s">
-        <v>359</v>
-      </c>
-      <c r="W24" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
@@ -4480,70 +4477,70 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>173</v>
+      </c>
+      <c r="C25" t="s">
         <v>174</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>175</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>176</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
+        <v>84</v>
+      </c>
+      <c r="G25" t="s">
         <v>177</v>
       </c>
-      <c r="F25" t="s">
-        <v>85</v>
-      </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>178</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>179</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>180</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>181</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>182</v>
       </c>
-      <c r="L25" t="s">
-        <v>183</v>
-      </c>
       <c r="M25" t="s">
+        <v>353</v>
+      </c>
+      <c r="N25" t="s">
         <v>354</v>
       </c>
-      <c r="N25" t="s">
+      <c r="O25" t="s">
         <v>355</v>
       </c>
-      <c r="O25" t="s">
+      <c r="P25" t="s">
         <v>356</v>
       </c>
-      <c r="P25" t="s">
+      <c r="Q25" t="s">
         <v>357</v>
       </c>
-      <c r="Q25" t="s">
+      <c r="R25" t="s">
+        <v>187</v>
+      </c>
+      <c r="S25" t="s">
         <v>358</v>
       </c>
-      <c r="R25" t="s">
-        <v>188</v>
-      </c>
-      <c r="S25" t="s">
+      <c r="T25" t="s">
         <v>359</v>
       </c>
-      <c r="T25" t="s">
-        <v>360</v>
-      </c>
       <c r="U25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="V25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W25" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
@@ -4551,7 +4548,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
@@ -4559,70 +4556,70 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
+        <v>189</v>
+      </c>
+      <c r="C27" t="s">
         <v>190</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>191</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>192</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>193</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>194</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>195</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
+        <v>121</v>
+      </c>
+      <c r="J27" t="s">
+        <v>121</v>
+      </c>
+      <c r="K27" t="s">
         <v>196</v>
       </c>
-      <c r="I27" t="s">
-        <v>122</v>
-      </c>
-      <c r="J27" t="s">
-        <v>122</v>
-      </c>
-      <c r="K27" t="s">
-        <v>197</v>
-      </c>
       <c r="L27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N27" t="s">
+        <v>367</v>
+      </c>
+      <c r="O27" t="s">
         <v>368</v>
       </c>
-      <c r="O27" t="s">
+      <c r="P27" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>121</v>
+      </c>
+      <c r="R27" t="s">
         <v>369</v>
       </c>
-      <c r="P27" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>122</v>
-      </c>
-      <c r="R27" t="s">
+      <c r="S27" t="s">
+        <v>121</v>
+      </c>
+      <c r="T27" t="s">
         <v>370</v>
       </c>
-      <c r="S27" t="s">
-        <v>122</v>
-      </c>
-      <c r="T27" t="s">
+      <c r="U27" t="s">
         <v>371</v>
       </c>
-      <c r="U27" t="s">
+      <c r="V27" t="s">
+        <v>121</v>
+      </c>
+      <c r="W27" t="s">
         <v>372</v>
-      </c>
-      <c r="V27" t="s">
-        <v>122</v>
-      </c>
-      <c r="W27" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
@@ -4630,70 +4627,70 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
+        <v>197</v>
+      </c>
+      <c r="C28" t="s">
         <v>198</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>199</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
+        <v>156</v>
+      </c>
+      <c r="F28" t="s">
         <v>200</v>
       </c>
-      <c r="E28" t="s">
-        <v>157</v>
-      </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>201</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>202</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
+        <v>130</v>
+      </c>
+      <c r="J28" t="s">
+        <v>130</v>
+      </c>
+      <c r="K28" t="s">
         <v>203</v>
       </c>
-      <c r="I28" t="s">
-        <v>131</v>
-      </c>
-      <c r="J28" t="s">
-        <v>131</v>
-      </c>
-      <c r="K28" t="s">
-        <v>204</v>
-      </c>
       <c r="L28" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M28" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N28" t="s">
+        <v>373</v>
+      </c>
+      <c r="O28" t="s">
         <v>374</v>
       </c>
-      <c r="O28" t="s">
+      <c r="P28" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>130</v>
+      </c>
+      <c r="R28" t="s">
         <v>375</v>
       </c>
-      <c r="P28" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>131</v>
-      </c>
-      <c r="R28" t="s">
+      <c r="S28" t="s">
+        <v>130</v>
+      </c>
+      <c r="T28" t="s">
+        <v>202</v>
+      </c>
+      <c r="U28" t="s">
         <v>376</v>
       </c>
-      <c r="S28" t="s">
-        <v>131</v>
-      </c>
-      <c r="T28" t="s">
-        <v>203</v>
-      </c>
-      <c r="U28" t="s">
+      <c r="V28" t="s">
+        <v>130</v>
+      </c>
+      <c r="W28" t="s">
         <v>377</v>
-      </c>
-      <c r="V28" t="s">
-        <v>131</v>
-      </c>
-      <c r="W28" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
@@ -4701,7 +4698,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
@@ -4709,70 +4706,70 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C30" t="s">
+        <v>205</v>
+      </c>
+      <c r="D30" t="s">
         <v>206</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>207</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>208</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>209</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>210</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
+        <v>121</v>
+      </c>
+      <c r="J30" t="s">
+        <v>121</v>
+      </c>
+      <c r="K30" t="s">
         <v>211</v>
       </c>
-      <c r="I30" t="s">
-        <v>122</v>
-      </c>
-      <c r="J30" t="s">
-        <v>122</v>
-      </c>
-      <c r="K30" t="s">
-        <v>212</v>
-      </c>
       <c r="L30" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M30" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N30" t="s">
+        <v>378</v>
+      </c>
+      <c r="O30" t="s">
         <v>379</v>
       </c>
-      <c r="O30" t="s">
+      <c r="P30" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>121</v>
+      </c>
+      <c r="R30" t="s">
         <v>380</v>
       </c>
-      <c r="P30" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>122</v>
-      </c>
-      <c r="R30" t="s">
+      <c r="S30" t="s">
+        <v>121</v>
+      </c>
+      <c r="T30" t="s">
         <v>381</v>
       </c>
-      <c r="S30" t="s">
-        <v>122</v>
-      </c>
-      <c r="T30" t="s">
+      <c r="U30" t="s">
         <v>382</v>
       </c>
-      <c r="U30" t="s">
+      <c r="V30" t="s">
+        <v>121</v>
+      </c>
+      <c r="W30" t="s">
         <v>383</v>
-      </c>
-      <c r="V30" t="s">
-        <v>122</v>
-      </c>
-      <c r="W30" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
@@ -4780,70 +4777,70 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C31" t="s">
+        <v>212</v>
+      </c>
+      <c r="D31" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" t="s">
         <v>213</v>
       </c>
-      <c r="D31" t="s">
-        <v>32</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>214</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>215</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>216</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
+        <v>130</v>
+      </c>
+      <c r="J31" t="s">
+        <v>130</v>
+      </c>
+      <c r="K31" t="s">
         <v>217</v>
       </c>
-      <c r="I31" t="s">
-        <v>131</v>
-      </c>
-      <c r="J31" t="s">
-        <v>131</v>
-      </c>
-      <c r="K31" t="s">
-        <v>218</v>
-      </c>
       <c r="L31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N31" t="s">
+        <v>384</v>
+      </c>
+      <c r="O31" t="s">
         <v>385</v>
       </c>
-      <c r="O31" t="s">
+      <c r="P31" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>130</v>
+      </c>
+      <c r="R31" t="s">
+        <v>203</v>
+      </c>
+      <c r="S31" t="s">
+        <v>130</v>
+      </c>
+      <c r="T31" t="s">
         <v>386</v>
       </c>
-      <c r="P31" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>131</v>
-      </c>
-      <c r="R31" t="s">
-        <v>204</v>
-      </c>
-      <c r="S31" t="s">
-        <v>131</v>
-      </c>
-      <c r="T31" t="s">
+      <c r="U31" t="s">
         <v>387</v>
       </c>
-      <c r="U31" t="s">
-        <v>388</v>
-      </c>
       <c r="V31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="W31" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
@@ -4851,70 +4848,70 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="S32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="T32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="U32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="V32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="W32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
@@ -4922,7 +4919,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
@@ -4930,70 +4927,70 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
+        <v>389</v>
+      </c>
+      <c r="C34" t="s">
         <v>390</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>391</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>392</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>393</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>394</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>395</v>
       </c>
-      <c r="H34" t="s">
-        <v>396</v>
-      </c>
       <c r="I34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K34" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="L34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N34" t="s">
+        <v>548</v>
+      </c>
+      <c r="O34" t="s">
         <v>549</v>
       </c>
-      <c r="O34" t="s">
+      <c r="P34" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>121</v>
+      </c>
+      <c r="R34" t="s">
+        <v>471</v>
+      </c>
+      <c r="S34" t="s">
         <v>550</v>
       </c>
-      <c r="P34" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>122</v>
-      </c>
-      <c r="R34" t="s">
-        <v>472</v>
-      </c>
-      <c r="S34" t="s">
+      <c r="T34" t="s">
         <v>551</v>
       </c>
-      <c r="T34" t="s">
+      <c r="U34" t="s">
         <v>552</v>
       </c>
-      <c r="U34" t="s">
+      <c r="V34" t="s">
+        <v>121</v>
+      </c>
+      <c r="W34" t="s">
         <v>553</v>
-      </c>
-      <c r="V34" t="s">
-        <v>122</v>
-      </c>
-      <c r="W34" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
@@ -5002,70 +4999,70 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
+        <v>396</v>
+      </c>
+      <c r="C35" t="s">
         <v>397</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>398</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>399</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>400</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>401</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>402</v>
       </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
+        <v>130</v>
+      </c>
+      <c r="J35" t="s">
+        <v>130</v>
+      </c>
+      <c r="K35" t="s">
         <v>403</v>
       </c>
-      <c r="I35" t="s">
-        <v>131</v>
-      </c>
-      <c r="J35" t="s">
-        <v>131</v>
-      </c>
-      <c r="K35" t="s">
-        <v>404</v>
-      </c>
       <c r="L35" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M35" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N35" t="s">
+        <v>554</v>
+      </c>
+      <c r="O35" t="s">
         <v>555</v>
       </c>
-      <c r="O35" t="s">
+      <c r="P35" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>130</v>
+      </c>
+      <c r="R35" t="s">
         <v>556</v>
       </c>
-      <c r="P35" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>131</v>
-      </c>
-      <c r="R35" t="s">
+      <c r="S35" t="s">
+        <v>130</v>
+      </c>
+      <c r="T35" t="s">
         <v>557</v>
       </c>
-      <c r="S35" t="s">
-        <v>131</v>
-      </c>
-      <c r="T35" t="s">
+      <c r="U35" t="s">
         <v>558</v>
       </c>
-      <c r="U35" t="s">
+      <c r="V35" t="s">
+        <v>130</v>
+      </c>
+      <c r="W35" t="s">
         <v>559</v>
-      </c>
-      <c r="V35" t="s">
-        <v>131</v>
-      </c>
-      <c r="W35" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
@@ -5074,70 +5071,70 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C36" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D36" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E36" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F36" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G36" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H36" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I36" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J36" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K36" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L36" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M36" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N36" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O36" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P36" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q36" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R36" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="S36" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="T36" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="U36" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="V36" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="W36" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.25">
@@ -5146,7 +5143,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.25">
@@ -5155,70 +5152,70 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C38" t="s">
+        <v>406</v>
+      </c>
+      <c r="D38" t="s">
         <v>407</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>408</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
+        <v>395</v>
+      </c>
+      <c r="G38" t="s">
         <v>409</v>
       </c>
-      <c r="F38" t="s">
-        <v>396</v>
-      </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>410</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
+        <v>121</v>
+      </c>
+      <c r="J38" t="s">
+        <v>121</v>
+      </c>
+      <c r="K38" t="s">
         <v>411</v>
       </c>
-      <c r="I38" t="s">
-        <v>122</v>
-      </c>
-      <c r="J38" t="s">
-        <v>122</v>
-      </c>
-      <c r="K38" t="s">
-        <v>412</v>
-      </c>
       <c r="L38" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M38" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N38" t="s">
+        <v>560</v>
+      </c>
+      <c r="O38" t="s">
         <v>561</v>
       </c>
-      <c r="O38" t="s">
+      <c r="P38" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>121</v>
+      </c>
+      <c r="R38" t="s">
         <v>562</v>
       </c>
-      <c r="P38" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>122</v>
-      </c>
-      <c r="R38" t="s">
+      <c r="S38" t="s">
+        <v>121</v>
+      </c>
+      <c r="T38" t="s">
         <v>563</v>
       </c>
-      <c r="S38" t="s">
-        <v>122</v>
-      </c>
-      <c r="T38" t="s">
+      <c r="U38" t="s">
         <v>564</v>
       </c>
-      <c r="U38" t="s">
-        <v>565</v>
-      </c>
       <c r="V38" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="W38" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.25">
@@ -5227,70 +5224,70 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C39" t="s">
+        <v>412</v>
+      </c>
+      <c r="D39" t="s">
         <v>413</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>414</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>415</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>416</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>417</v>
       </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
+        <v>130</v>
+      </c>
+      <c r="J39" t="s">
+        <v>130</v>
+      </c>
+      <c r="K39" t="s">
         <v>418</v>
       </c>
-      <c r="I39" t="s">
-        <v>131</v>
-      </c>
-      <c r="J39" t="s">
-        <v>131</v>
-      </c>
-      <c r="K39" t="s">
-        <v>419</v>
-      </c>
       <c r="L39" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M39" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N39" t="s">
+        <v>565</v>
+      </c>
+      <c r="O39" t="s">
         <v>566</v>
       </c>
-      <c r="O39" t="s">
+      <c r="P39" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>130</v>
+      </c>
+      <c r="R39" t="s">
         <v>567</v>
       </c>
-      <c r="P39" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>131</v>
-      </c>
-      <c r="R39" t="s">
+      <c r="S39" t="s">
+        <v>130</v>
+      </c>
+      <c r="T39" t="s">
         <v>568</v>
       </c>
-      <c r="S39" t="s">
-        <v>131</v>
-      </c>
-      <c r="T39" t="s">
+      <c r="U39" t="s">
         <v>569</v>
       </c>
-      <c r="U39" t="s">
+      <c r="V39" t="s">
+        <v>130</v>
+      </c>
+      <c r="W39" t="s">
         <v>570</v>
-      </c>
-      <c r="V39" t="s">
-        <v>131</v>
-      </c>
-      <c r="W39" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.25">
@@ -5299,70 +5296,70 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
+        <v>419</v>
+      </c>
+      <c r="C40" t="s">
         <v>420</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
+        <v>293</v>
+      </c>
+      <c r="E40" t="s">
         <v>421</v>
       </c>
-      <c r="D40" t="s">
-        <v>294</v>
-      </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>422</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>423</v>
       </c>
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>424</v>
       </c>
-      <c r="H40" t="s">
+      <c r="I40" t="s">
         <v>425</v>
       </c>
-      <c r="I40" t="s">
+      <c r="J40" t="s">
         <v>426</v>
       </c>
-      <c r="J40" t="s">
+      <c r="K40" t="s">
         <v>427</v>
       </c>
-      <c r="K40" t="s">
+      <c r="L40" t="s">
         <v>428</v>
       </c>
-      <c r="L40" t="s">
-        <v>429</v>
-      </c>
       <c r="M40" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="N40" t="s">
+        <v>571</v>
+      </c>
+      <c r="O40" t="s">
         <v>572</v>
       </c>
-      <c r="O40" t="s">
+      <c r="P40" t="s">
         <v>573</v>
       </c>
-      <c r="P40" t="s">
+      <c r="Q40" t="s">
         <v>574</v>
       </c>
-      <c r="Q40" t="s">
+      <c r="R40" t="s">
+        <v>426</v>
+      </c>
+      <c r="S40" t="s">
         <v>575</v>
       </c>
-      <c r="R40" t="s">
-        <v>427</v>
-      </c>
-      <c r="S40" t="s">
+      <c r="T40" t="s">
         <v>576</v>
       </c>
-      <c r="T40" t="s">
+      <c r="U40" t="s">
         <v>577</v>
       </c>
-      <c r="U40" t="s">
+      <c r="V40" t="s">
         <v>578</v>
       </c>
-      <c r="V40" t="s">
+      <c r="W40" t="s">
         <v>579</v>
-      </c>
-      <c r="W40" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.25">
@@ -5371,7 +5368,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.25">
@@ -5380,70 +5377,70 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
+        <v>430</v>
+      </c>
+      <c r="C42" t="s">
         <v>431</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
+        <v>293</v>
+      </c>
+      <c r="E42" t="s">
         <v>432</v>
       </c>
-      <c r="D42" t="s">
-        <v>294</v>
-      </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>433</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>434</v>
       </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>435</v>
       </c>
-      <c r="H42" t="s">
+      <c r="I42" t="s">
         <v>436</v>
       </c>
-      <c r="I42" t="s">
+      <c r="J42" t="s">
+        <v>130</v>
+      </c>
+      <c r="K42" t="s">
         <v>437</v>
       </c>
-      <c r="J42" t="s">
-        <v>131</v>
-      </c>
-      <c r="K42" t="s">
+      <c r="L42" t="s">
         <v>438</v>
       </c>
-      <c r="L42" t="s">
-        <v>439</v>
-      </c>
       <c r="M42" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N42" t="s">
+        <v>580</v>
+      </c>
+      <c r="O42" t="s">
         <v>581</v>
       </c>
-      <c r="O42" t="s">
+      <c r="P42" t="s">
         <v>582</v>
       </c>
-      <c r="P42" t="s">
+      <c r="Q42" t="s">
         <v>583</v>
       </c>
-      <c r="Q42" t="s">
+      <c r="R42" t="s">
+        <v>130</v>
+      </c>
+      <c r="S42" t="s">
         <v>584</v>
       </c>
-      <c r="R42" t="s">
-        <v>131</v>
-      </c>
-      <c r="S42" t="s">
+      <c r="T42" t="s">
         <v>585</v>
       </c>
-      <c r="T42" t="s">
+      <c r="U42" t="s">
         <v>586</v>
       </c>
-      <c r="U42" t="s">
+      <c r="V42" t="s">
         <v>587</v>
       </c>
-      <c r="V42" t="s">
+      <c r="W42" t="s">
         <v>588</v>
-      </c>
-      <c r="W42" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.25">
@@ -5452,70 +5449,70 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
+        <v>439</v>
+      </c>
+      <c r="C43" t="s">
         <v>440</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
+        <v>293</v>
+      </c>
+      <c r="E43" t="s">
         <v>441</v>
       </c>
-      <c r="D43" t="s">
-        <v>294</v>
-      </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>442</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>443</v>
       </c>
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>444</v>
       </c>
-      <c r="H43" t="s">
+      <c r="I43" t="s">
         <v>445</v>
       </c>
-      <c r="I43" t="s">
+      <c r="J43" t="s">
+        <v>130</v>
+      </c>
+      <c r="K43" t="s">
         <v>446</v>
       </c>
-      <c r="J43" t="s">
-        <v>131</v>
-      </c>
-      <c r="K43" t="s">
+      <c r="L43" t="s">
         <v>447</v>
       </c>
-      <c r="L43" t="s">
-        <v>448</v>
-      </c>
       <c r="M43" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N43" t="s">
+        <v>589</v>
+      </c>
+      <c r="O43" t="s">
         <v>590</v>
       </c>
-      <c r="O43" t="s">
+      <c r="P43" t="s">
+        <v>426</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>426</v>
+      </c>
+      <c r="R43" t="s">
+        <v>130</v>
+      </c>
+      <c r="S43" t="s">
         <v>591</v>
       </c>
-      <c r="P43" t="s">
-        <v>427</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>427</v>
-      </c>
-      <c r="R43" t="s">
-        <v>131</v>
-      </c>
-      <c r="S43" t="s">
+      <c r="T43" t="s">
         <v>592</v>
       </c>
-      <c r="T43" t="s">
+      <c r="U43" t="s">
         <v>593</v>
       </c>
-      <c r="U43" t="s">
+      <c r="V43" t="s">
+        <v>426</v>
+      </c>
+      <c r="W43" t="s">
         <v>594</v>
-      </c>
-      <c r="V43" t="s">
-        <v>427</v>
-      </c>
-      <c r="W43" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
@@ -5524,37 +5521,37 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C44" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D44" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E44" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F44" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="G44" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H44" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I44" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="J44" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="K44" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="L44" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.25">
@@ -5563,70 +5560,70 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
+        <v>449</v>
+      </c>
+      <c r="C45" t="s">
         <v>450</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>451</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>452</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>453</v>
       </c>
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>454</v>
       </c>
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>455</v>
       </c>
-      <c r="H45" t="s">
+      <c r="I45" t="s">
         <v>456</v>
       </c>
-      <c r="I45" t="s">
+      <c r="J45" t="s">
         <v>457</v>
       </c>
-      <c r="J45" t="s">
+      <c r="K45" t="s">
         <v>458</v>
       </c>
-      <c r="K45" t="s">
+      <c r="L45" t="s">
         <v>459</v>
       </c>
-      <c r="L45" t="s">
-        <v>460</v>
-      </c>
       <c r="M45" t="s">
+        <v>595</v>
+      </c>
+      <c r="N45" t="s">
         <v>596</v>
       </c>
-      <c r="N45" t="s">
+      <c r="O45" t="s">
         <v>597</v>
       </c>
-      <c r="O45" t="s">
+      <c r="P45" t="s">
         <v>598</v>
       </c>
-      <c r="P45" t="s">
+      <c r="Q45" t="s">
         <v>599</v>
       </c>
-      <c r="Q45" t="s">
+      <c r="R45" t="s">
         <v>600</v>
       </c>
-      <c r="R45" t="s">
+      <c r="S45" t="s">
         <v>601</v>
       </c>
-      <c r="S45" t="s">
+      <c r="T45" t="s">
         <v>602</v>
       </c>
-      <c r="T45" t="s">
+      <c r="U45" t="s">
         <v>603</v>
       </c>
-      <c r="U45" t="s">
+      <c r="V45" t="s">
         <v>604</v>
       </c>
-      <c r="V45" t="s">
+      <c r="W45" t="s">
         <v>605</v>
-      </c>
-      <c r="W45" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.25">
@@ -5635,70 +5632,70 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
+        <v>460</v>
+      </c>
+      <c r="C46" t="s">
         <v>461</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>462</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
+        <v>358</v>
+      </c>
+      <c r="F46" t="s">
         <v>463</v>
       </c>
-      <c r="E46" t="s">
+      <c r="G46" t="s">
+        <v>464</v>
+      </c>
+      <c r="H46" t="s">
+        <v>361</v>
+      </c>
+      <c r="I46" t="s">
+        <v>26</v>
+      </c>
+      <c r="J46" t="s">
+        <v>395</v>
+      </c>
+      <c r="K46" t="s">
+        <v>252</v>
+      </c>
+      <c r="L46" t="s">
+        <v>465</v>
+      </c>
+      <c r="M46" t="s">
+        <v>276</v>
+      </c>
+      <c r="N46" t="s">
+        <v>606</v>
+      </c>
+      <c r="O46" t="s">
+        <v>79</v>
+      </c>
+      <c r="P46" t="s">
+        <v>607</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>608</v>
+      </c>
+      <c r="R46" t="s">
         <v>359</v>
       </c>
-      <c r="F46" t="s">
-        <v>464</v>
-      </c>
-      <c r="G46" t="s">
-        <v>465</v>
-      </c>
-      <c r="H46" t="s">
-        <v>362</v>
-      </c>
-      <c r="I46" t="s">
-        <v>27</v>
-      </c>
-      <c r="J46" t="s">
-        <v>396</v>
-      </c>
-      <c r="K46" t="s">
-        <v>253</v>
-      </c>
-      <c r="L46" t="s">
-        <v>466</v>
-      </c>
-      <c r="M46" t="s">
-        <v>277</v>
-      </c>
-      <c r="N46" t="s">
-        <v>607</v>
-      </c>
-      <c r="O46" t="s">
-        <v>80</v>
-      </c>
-      <c r="P46" t="s">
-        <v>608</v>
-      </c>
-      <c r="Q46" t="s">
+      <c r="S46" t="s">
         <v>609</v>
       </c>
-      <c r="R46" t="s">
-        <v>360</v>
-      </c>
-      <c r="S46" t="s">
+      <c r="T46" t="s">
+        <v>64</v>
+      </c>
+      <c r="U46" t="s">
+        <v>282</v>
+      </c>
+      <c r="V46" t="s">
         <v>610</v>
       </c>
-      <c r="T46" t="s">
-        <v>65</v>
-      </c>
-      <c r="U46" t="s">
-        <v>283</v>
-      </c>
-      <c r="V46" t="s">
+      <c r="W46" t="s">
         <v>611</v>
-      </c>
-      <c r="W46" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.25">
@@ -5707,7 +5704,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.25">
@@ -5716,70 +5713,70 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
+        <v>467</v>
+      </c>
+      <c r="C48" t="s">
+        <v>410</v>
+      </c>
+      <c r="D48" t="s">
         <v>468</v>
       </c>
-      <c r="C48" t="s">
-        <v>411</v>
-      </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
+        <v>365</v>
+      </c>
+      <c r="F48" t="s">
         <v>469</v>
       </c>
-      <c r="E48" t="s">
-        <v>366</v>
-      </c>
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>470</v>
       </c>
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>471</v>
       </c>
-      <c r="H48" t="s">
+      <c r="I48" t="s">
+        <v>395</v>
+      </c>
+      <c r="J48" t="s">
         <v>472</v>
       </c>
-      <c r="I48" t="s">
-        <v>396</v>
-      </c>
-      <c r="J48" t="s">
+      <c r="K48" t="s">
         <v>473</v>
       </c>
-      <c r="K48" t="s">
-        <v>474</v>
-      </c>
       <c r="L48" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M48" t="s">
+        <v>612</v>
+      </c>
+      <c r="N48" t="s">
         <v>613</v>
       </c>
-      <c r="N48" t="s">
+      <c r="O48" t="s">
+        <v>517</v>
+      </c>
+      <c r="P48" t="s">
         <v>614</v>
       </c>
-      <c r="O48" t="s">
-        <v>518</v>
-      </c>
-      <c r="P48" t="s">
+      <c r="Q48" t="s">
+        <v>293</v>
+      </c>
+      <c r="R48" t="s">
+        <v>477</v>
+      </c>
+      <c r="S48" t="s">
+        <v>464</v>
+      </c>
+      <c r="T48" t="s">
         <v>615</v>
       </c>
-      <c r="Q48" t="s">
-        <v>294</v>
-      </c>
-      <c r="R48" t="s">
-        <v>478</v>
-      </c>
-      <c r="S48" t="s">
-        <v>465</v>
-      </c>
-      <c r="T48" t="s">
+      <c r="U48" t="s">
         <v>616</v>
       </c>
-      <c r="U48" t="s">
-        <v>617</v>
-      </c>
       <c r="V48" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="W48" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.25">
@@ -5788,70 +5785,70 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
+        <v>474</v>
+      </c>
+      <c r="C49" t="s">
         <v>475</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>476</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>477</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
+        <v>277</v>
+      </c>
+      <c r="G49" t="s">
         <v>478</v>
       </c>
-      <c r="F49" t="s">
-        <v>278</v>
-      </c>
-      <c r="G49" t="s">
+      <c r="H49" t="s">
+        <v>395</v>
+      </c>
+      <c r="I49" t="s">
         <v>479</v>
       </c>
-      <c r="H49" t="s">
-        <v>396</v>
-      </c>
-      <c r="I49" t="s">
+      <c r="J49" t="s">
         <v>480</v>
       </c>
-      <c r="J49" t="s">
-        <v>481</v>
-      </c>
       <c r="K49" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="L49" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="M49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N49" t="s">
+        <v>617</v>
+      </c>
+      <c r="O49" t="s">
         <v>618</v>
       </c>
-      <c r="O49" t="s">
+      <c r="P49" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q49" t="s">
         <v>619</v>
       </c>
-      <c r="P49" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q49" t="s">
+      <c r="R49" t="s">
+        <v>91</v>
+      </c>
+      <c r="S49" t="s">
         <v>620</v>
       </c>
-      <c r="R49" t="s">
-        <v>92</v>
-      </c>
-      <c r="S49" t="s">
+      <c r="T49" t="s">
         <v>621</v>
       </c>
-      <c r="T49" t="s">
-        <v>622</v>
-      </c>
       <c r="U49" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="V49" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W49" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.25">
@@ -5860,70 +5857,70 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C50" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D50" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E50" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F50" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G50" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H50" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="I50" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="J50" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="K50" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="L50" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="M50" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="N50" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="O50" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="P50" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="Q50" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="R50" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="S50" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="T50" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="U50" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="V50" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="W50" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.25">
@@ -5932,70 +5929,70 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
+        <v>482</v>
+      </c>
+      <c r="C51" t="s">
         <v>483</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>484</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>485</v>
       </c>
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>486</v>
       </c>
-      <c r="F51" t="s">
+      <c r="G51" t="s">
         <v>487</v>
       </c>
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>488</v>
       </c>
-      <c r="H51" t="s">
+      <c r="I51" t="s">
         <v>489</v>
       </c>
-      <c r="I51" t="s">
+      <c r="J51" t="s">
         <v>490</v>
       </c>
-      <c r="J51" t="s">
+      <c r="K51" t="s">
         <v>491</v>
       </c>
-      <c r="K51" t="s">
+      <c r="L51" t="s">
         <v>492</v>
       </c>
-      <c r="L51" t="s">
-        <v>493</v>
-      </c>
       <c r="M51" t="s">
+        <v>623</v>
+      </c>
+      <c r="N51" t="s">
         <v>624</v>
       </c>
-      <c r="N51" t="s">
+      <c r="O51" t="s">
         <v>625</v>
       </c>
-      <c r="O51" t="s">
+      <c r="P51" t="s">
         <v>626</v>
       </c>
-      <c r="P51" t="s">
+      <c r="Q51" t="s">
         <v>627</v>
       </c>
-      <c r="Q51" t="s">
+      <c r="R51" t="s">
         <v>628</v>
       </c>
-      <c r="R51" t="s">
+      <c r="S51" t="s">
         <v>629</v>
       </c>
-      <c r="S51" t="s">
+      <c r="T51" t="s">
         <v>630</v>
       </c>
-      <c r="T51" t="s">
+      <c r="U51" t="s">
         <v>631</v>
       </c>
-      <c r="U51" t="s">
+      <c r="V51" t="s">
         <v>632</v>
       </c>
-      <c r="V51" t="s">
+      <c r="W51" t="s">
         <v>633</v>
-      </c>
-      <c r="W51" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.25">
@@ -6004,70 +6001,70 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
+        <v>493</v>
+      </c>
+      <c r="C52" t="s">
         <v>494</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>495</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
         <v>496</v>
       </c>
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>497</v>
       </c>
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>498</v>
       </c>
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>499</v>
       </c>
-      <c r="H52" t="s">
+      <c r="I52" t="s">
         <v>500</v>
       </c>
-      <c r="I52" t="s">
+      <c r="J52" t="s">
         <v>501</v>
       </c>
-      <c r="J52" t="s">
+      <c r="K52" t="s">
         <v>502</v>
       </c>
-      <c r="K52" t="s">
+      <c r="L52" t="s">
         <v>503</v>
       </c>
-      <c r="L52" t="s">
-        <v>504</v>
-      </c>
       <c r="M52" t="s">
+        <v>634</v>
+      </c>
+      <c r="N52" t="s">
         <v>635</v>
       </c>
-      <c r="N52" t="s">
+      <c r="O52" t="s">
         <v>636</v>
       </c>
-      <c r="O52" t="s">
+      <c r="P52" t="s">
         <v>637</v>
       </c>
-      <c r="P52" t="s">
+      <c r="Q52" t="s">
         <v>638</v>
       </c>
-      <c r="Q52" t="s">
+      <c r="R52" t="s">
         <v>639</v>
       </c>
-      <c r="R52" t="s">
+      <c r="S52" t="s">
         <v>640</v>
       </c>
-      <c r="S52" t="s">
+      <c r="T52" t="s">
         <v>641</v>
       </c>
-      <c r="T52" t="s">
+      <c r="U52" t="s">
         <v>642</v>
       </c>
-      <c r="U52" t="s">
+      <c r="V52" t="s">
         <v>643</v>
       </c>
-      <c r="V52" t="s">
+      <c r="W52" t="s">
         <v>644</v>
-      </c>
-      <c r="W52" t="s">
-        <v>645</v>
       </c>
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.25">
@@ -6076,70 +6073,70 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
+        <v>504</v>
+      </c>
+      <c r="C53" t="s">
         <v>505</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>506</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
         <v>507</v>
       </c>
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>508</v>
       </c>
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>509</v>
       </c>
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>510</v>
       </c>
-      <c r="H53" t="s">
+      <c r="I53" t="s">
         <v>511</v>
       </c>
-      <c r="I53" t="s">
+      <c r="J53" t="s">
         <v>512</v>
       </c>
-      <c r="J53" t="s">
+      <c r="K53" t="s">
         <v>513</v>
       </c>
-      <c r="K53" t="s">
-        <v>514</v>
-      </c>
       <c r="L53" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="M53" t="s">
+        <v>645</v>
+      </c>
+      <c r="N53" t="s">
         <v>646</v>
       </c>
-      <c r="N53" t="s">
+      <c r="O53" t="s">
+        <v>513</v>
+      </c>
+      <c r="P53" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q53" t="s">
         <v>647</v>
       </c>
-      <c r="O53" t="s">
-        <v>514</v>
-      </c>
-      <c r="P53" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q53" t="s">
+      <c r="R53" t="s">
         <v>648</v>
       </c>
-      <c r="R53" t="s">
+      <c r="S53" t="s">
         <v>649</v>
       </c>
-      <c r="S53" t="s">
+      <c r="T53" t="s">
+        <v>113</v>
+      </c>
+      <c r="U53" t="s">
+        <v>558</v>
+      </c>
+      <c r="V53" t="s">
         <v>650</v>
       </c>
-      <c r="T53" t="s">
-        <v>114</v>
-      </c>
-      <c r="U53" t="s">
-        <v>559</v>
-      </c>
-      <c r="V53" t="s">
+      <c r="W53" t="s">
         <v>651</v>
-      </c>
-      <c r="W53" t="s">
-        <v>652</v>
       </c>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.25">
@@ -6148,70 +6145,70 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
+        <v>514</v>
+      </c>
+      <c r="C54" t="s">
         <v>515</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>516</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
         <v>517</v>
       </c>
-      <c r="E54" t="s">
+      <c r="F54" t="s">
+        <v>178</v>
+      </c>
+      <c r="G54" t="s">
         <v>518</v>
       </c>
-      <c r="F54" t="s">
-        <v>179</v>
-      </c>
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>519</v>
       </c>
-      <c r="H54" t="s">
+      <c r="I54" t="s">
         <v>520</v>
       </c>
-      <c r="I54" t="s">
+      <c r="J54" t="s">
+        <v>175</v>
+      </c>
+      <c r="K54" t="s">
+        <v>366</v>
+      </c>
+      <c r="L54" t="s">
         <v>521</v>
       </c>
-      <c r="J54" t="s">
-        <v>176</v>
-      </c>
-      <c r="K54" t="s">
-        <v>367</v>
-      </c>
-      <c r="L54" t="s">
-        <v>522</v>
-      </c>
       <c r="M54" t="s">
+        <v>652</v>
+      </c>
+      <c r="N54" t="s">
+        <v>68</v>
+      </c>
+      <c r="O54" t="s">
         <v>653</v>
       </c>
-      <c r="N54" t="s">
-        <v>69</v>
-      </c>
-      <c r="O54" t="s">
+      <c r="P54" t="s">
         <v>654</v>
       </c>
-      <c r="P54" t="s">
+      <c r="Q54" t="s">
+        <v>282</v>
+      </c>
+      <c r="R54" t="s">
+        <v>187</v>
+      </c>
+      <c r="S54" t="s">
         <v>655</v>
       </c>
-      <c r="Q54" t="s">
-        <v>283</v>
-      </c>
-      <c r="R54" t="s">
-        <v>188</v>
-      </c>
-      <c r="S54" t="s">
+      <c r="T54" t="s">
         <v>656</v>
       </c>
-      <c r="T54" t="s">
+      <c r="U54" t="s">
         <v>657</v>
       </c>
-      <c r="U54" t="s">
+      <c r="V54" t="s">
         <v>658</v>
       </c>
-      <c r="V54" t="s">
-        <v>659</v>
-      </c>
       <c r="W54" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.25">
@@ -6220,70 +6217,70 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C55" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D55" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E55" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F55" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G55" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H55" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="I55" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="J55" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="K55" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="L55" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="M55" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N55" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="O55" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="P55" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="Q55" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="R55" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="S55" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="T55" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="U55" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="V55" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="W55" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.25">
@@ -6292,70 +6289,70 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
+        <v>523</v>
+      </c>
+      <c r="C56" t="s">
         <v>524</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
         <v>525</v>
       </c>
-      <c r="D56" t="s">
+      <c r="E56" t="s">
         <v>526</v>
       </c>
-      <c r="E56" t="s">
+      <c r="F56" t="s">
         <v>527</v>
       </c>
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>528</v>
       </c>
-      <c r="G56" t="s">
+      <c r="H56" t="s">
         <v>529</v>
       </c>
-      <c r="H56" t="s">
+      <c r="I56" t="s">
         <v>530</v>
       </c>
-      <c r="I56" t="s">
+      <c r="J56" t="s">
         <v>531</v>
       </c>
-      <c r="J56" t="s">
+      <c r="K56" t="s">
         <v>532</v>
       </c>
-      <c r="K56" t="s">
+      <c r="L56" t="s">
         <v>533</v>
       </c>
-      <c r="L56" t="s">
-        <v>534</v>
-      </c>
       <c r="M56" t="s">
+        <v>660</v>
+      </c>
+      <c r="N56" t="s">
         <v>661</v>
       </c>
-      <c r="N56" t="s">
+      <c r="O56" t="s">
         <v>662</v>
       </c>
-      <c r="O56" t="s">
+      <c r="P56" t="s">
         <v>663</v>
       </c>
-      <c r="P56" t="s">
+      <c r="Q56" t="s">
         <v>664</v>
       </c>
-      <c r="Q56" t="s">
+      <c r="R56" t="s">
         <v>665</v>
       </c>
-      <c r="R56" t="s">
+      <c r="S56" t="s">
         <v>666</v>
       </c>
-      <c r="S56" t="s">
+      <c r="T56" t="s">
         <v>667</v>
       </c>
-      <c r="T56" t="s">
+      <c r="U56" t="s">
         <v>668</v>
       </c>
-      <c r="U56" t="s">
+      <c r="V56" t="s">
         <v>669</v>
       </c>
-      <c r="V56" t="s">
+      <c r="W56" t="s">
         <v>670</v>
-      </c>
-      <c r="W56" t="s">
-        <v>671</v>
       </c>
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.25">
@@ -6364,70 +6361,70 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C57" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D57" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E57" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F57" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G57" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H57" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="I57" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="J57" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="K57" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="L57" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="M57" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="N57" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="O57" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="P57" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="Q57" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="R57" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="S57" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="T57" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="U57" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="V57" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="W57" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.25">
@@ -6436,7 +6433,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.25">
@@ -6445,70 +6442,70 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C59" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D59" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E59" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F59" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G59" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H59" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="I59" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J59" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K59" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L59" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="M59" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="N59" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O59" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="P59" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="Q59" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="R59" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="S59" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="T59" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="U59" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="V59" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="W59" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="60" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6517,70 +6514,70 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
+        <v>537</v>
+      </c>
+      <c r="C60" t="s">
         <v>538</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
         <v>539</v>
       </c>
-      <c r="D60" t="s">
+      <c r="E60" t="s">
         <v>540</v>
       </c>
-      <c r="E60" t="s">
+      <c r="F60" t="s">
         <v>541</v>
       </c>
-      <c r="F60" t="s">
+      <c r="G60" t="s">
         <v>542</v>
       </c>
-      <c r="G60" t="s">
+      <c r="H60" t="s">
         <v>543</v>
       </c>
-      <c r="H60" t="s">
+      <c r="I60" t="s">
         <v>544</v>
       </c>
-      <c r="I60" t="s">
+      <c r="J60" t="s">
         <v>545</v>
       </c>
-      <c r="J60" t="s">
+      <c r="K60" t="s">
         <v>546</v>
       </c>
-      <c r="K60" t="s">
+      <c r="L60" t="s">
         <v>547</v>
       </c>
-      <c r="L60" t="s">
-        <v>548</v>
-      </c>
       <c r="M60" s="4" t="s">
+        <v>672</v>
+      </c>
+      <c r="N60" s="4" t="s">
         <v>673</v>
       </c>
-      <c r="N60" s="4" t="s">
+      <c r="O60" s="4" t="s">
         <v>674</v>
       </c>
-      <c r="O60" s="4" t="s">
+      <c r="P60" s="4" t="s">
         <v>675</v>
       </c>
-      <c r="P60" s="4" t="s">
+      <c r="Q60" s="4" t="s">
         <v>676</v>
       </c>
-      <c r="Q60" s="4" t="s">
+      <c r="R60" s="4" t="s">
         <v>677</v>
       </c>
-      <c r="R60" s="4" t="s">
+      <c r="S60" s="4" t="s">
         <v>678</v>
       </c>
-      <c r="S60" s="4" t="s">
+      <c r="T60" s="4" t="s">
         <v>679</v>
       </c>
-      <c r="T60" s="4" t="s">
+      <c r="U60" s="4" t="s">
         <v>680</v>
       </c>
-      <c r="U60" s="4" t="s">
+      <c r="V60" s="4" t="s">
         <v>681</v>
       </c>
-      <c r="V60" s="4" t="s">
+      <c r="W60" s="4" t="s">
         <v>682</v>
-      </c>
-      <c r="W60" s="4" t="s">
-        <v>683</v>
       </c>
     </row>
     <row r="61" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6589,37 +6586,37 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
+        <v>683</v>
+      </c>
+      <c r="C61" t="s">
         <v>684</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
         <v>685</v>
       </c>
-      <c r="D61" t="s">
+      <c r="E61" t="s">
         <v>686</v>
       </c>
-      <c r="E61" t="s">
+      <c r="F61" t="s">
         <v>687</v>
       </c>
-      <c r="F61" t="s">
+      <c r="G61" t="s">
         <v>688</v>
       </c>
-      <c r="G61" t="s">
+      <c r="H61" t="s">
         <v>689</v>
       </c>
-      <c r="H61" t="s">
+      <c r="I61" t="s">
         <v>690</v>
       </c>
-      <c r="I61" t="s">
+      <c r="J61" t="s">
         <v>691</v>
       </c>
-      <c r="J61" t="s">
+      <c r="K61" t="s">
         <v>692</v>
       </c>
-      <c r="K61" t="s">
+      <c r="L61" t="s">
         <v>693</v>
-      </c>
-      <c r="L61" t="s">
-        <v>694</v>
       </c>
       <c r="M61" s="5">
         <v>6493.8</v>
@@ -6661,37 +6658,37 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
+        <v>694</v>
+      </c>
+      <c r="C62" t="s">
         <v>695</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
         <v>696</v>
       </c>
-      <c r="D62" t="s">
+      <c r="E62" t="s">
         <v>697</v>
       </c>
-      <c r="E62" t="s">
+      <c r="F62" t="s">
         <v>698</v>
       </c>
-      <c r="F62" t="s">
+      <c r="G62" t="s">
         <v>699</v>
       </c>
-      <c r="G62" t="s">
+      <c r="H62" t="s">
+        <v>426</v>
+      </c>
+      <c r="I62" t="s">
         <v>700</v>
       </c>
-      <c r="H62" t="s">
-        <v>427</v>
-      </c>
-      <c r="I62" t="s">
+      <c r="J62" t="s">
         <v>701</v>
       </c>
-      <c r="J62" t="s">
+      <c r="K62" t="s">
         <v>702</v>
       </c>
-      <c r="K62" t="s">
+      <c r="L62" t="s">
         <v>703</v>
-      </c>
-      <c r="L62" t="s">
-        <v>704</v>
       </c>
       <c r="M62" s="5">
         <v>1596.4</v>
@@ -6703,7 +6700,7 @@
         <v>19179.7</v>
       </c>
       <c r="P62" s="5" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="Q62" s="5">
         <v>1085.8</v>
@@ -6715,7 +6712,7 @@
         <v>604.4</v>
       </c>
       <c r="T62" s="5" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="U62" s="5">
         <v>1598.8</v>
@@ -6733,70 +6730,70 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C63" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D63" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E63" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F63" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="G63" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H63" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="I63" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="J63" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="K63" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="L63" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="M63" s="6" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="N63" s="6" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="O63" s="6" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="P63" s="6" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="Q63" s="6" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="R63" s="6" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="S63" s="6" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="T63" s="6" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="U63" s="6" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="V63" s="6" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="W63" s="6" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="64" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
@@ -6805,37 +6802,37 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
+        <v>705</v>
+      </c>
+      <c r="C64" t="s">
         <v>706</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
         <v>707</v>
       </c>
-      <c r="D64" t="s">
+      <c r="E64" t="s">
         <v>708</v>
       </c>
-      <c r="E64" t="s">
+      <c r="F64" t="s">
         <v>709</v>
       </c>
-      <c r="F64" t="s">
+      <c r="G64" t="s">
         <v>710</v>
       </c>
-      <c r="G64" t="s">
+      <c r="H64" t="s">
         <v>711</v>
       </c>
-      <c r="H64" t="s">
+      <c r="I64" t="s">
         <v>712</v>
       </c>
-      <c r="I64" t="s">
+      <c r="J64" t="s">
         <v>713</v>
       </c>
-      <c r="J64" t="s">
+      <c r="K64" t="s">
         <v>714</v>
       </c>
-      <c r="K64" t="s">
+      <c r="L64" t="s">
         <v>715</v>
-      </c>
-      <c r="L64" t="s">
-        <v>716</v>
       </c>
       <c r="M64" s="7">
         <v>1566.2</v>
@@ -6859,7 +6856,7 @@
         <v>2122.9</v>
       </c>
       <c r="T64" s="7" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="U64" s="7">
         <v>5621.3</v>
@@ -6877,37 +6874,37 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
+        <v>716</v>
+      </c>
+      <c r="C65" t="s">
         <v>717</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
         <v>718</v>
       </c>
-      <c r="D65" t="s">
+      <c r="E65" t="s">
         <v>719</v>
       </c>
-      <c r="E65" t="s">
+      <c r="F65" t="s">
+        <v>285</v>
+      </c>
+      <c r="G65" t="s">
         <v>720</v>
       </c>
-      <c r="F65" t="s">
-        <v>286</v>
-      </c>
-      <c r="G65" t="s">
+      <c r="H65" t="s">
         <v>721</v>
       </c>
-      <c r="H65" t="s">
+      <c r="I65" t="s">
         <v>722</v>
       </c>
-      <c r="I65" t="s">
+      <c r="J65" t="s">
         <v>723</v>
       </c>
-      <c r="J65" t="s">
+      <c r="K65" t="s">
         <v>724</v>
       </c>
-      <c r="K65" t="s">
+      <c r="L65" t="s">
         <v>725</v>
-      </c>
-      <c r="L65" t="s">
-        <v>726</v>
       </c>
       <c r="M65" s="8">
         <v>358.4</v>
@@ -6949,37 +6946,37 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
+        <v>726</v>
+      </c>
+      <c r="C66" t="s">
         <v>727</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
         <v>728</v>
       </c>
-      <c r="D66" t="s">
+      <c r="E66" t="s">
+        <v>728</v>
+      </c>
+      <c r="F66" t="s">
         <v>729</v>
       </c>
-      <c r="E66" t="s">
-        <v>729</v>
-      </c>
-      <c r="F66" t="s">
+      <c r="G66" t="s">
         <v>730</v>
       </c>
-      <c r="G66" t="s">
+      <c r="H66" t="s">
         <v>731</v>
       </c>
-      <c r="H66" t="s">
+      <c r="I66" t="s">
         <v>732</v>
       </c>
-      <c r="I66" t="s">
+      <c r="J66" t="s">
         <v>733</v>
       </c>
-      <c r="J66" t="s">
+      <c r="K66" t="s">
         <v>734</v>
       </c>
-      <c r="K66" t="s">
+      <c r="L66" t="s">
         <v>735</v>
-      </c>
-      <c r="L66" t="s">
-        <v>736</v>
       </c>
       <c r="M66" s="8">
         <v>6722</v>
@@ -7021,7 +7018,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="M67" s="8"/>
       <c r="N67" s="8"/>
@@ -7041,61 +7038,61 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
+        <v>737</v>
+      </c>
+      <c r="C68" t="s">
         <v>738</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
         <v>739</v>
       </c>
-      <c r="D68" t="s">
+      <c r="E68" t="s">
+        <v>293</v>
+      </c>
+      <c r="F68" t="s">
+        <v>293</v>
+      </c>
+      <c r="G68" t="s">
+        <v>293</v>
+      </c>
+      <c r="H68" t="s">
+        <v>293</v>
+      </c>
+      <c r="I68" t="s">
         <v>740</v>
       </c>
-      <c r="E68" t="s">
-        <v>294</v>
-      </c>
-      <c r="F68" t="s">
-        <v>294</v>
-      </c>
-      <c r="G68" t="s">
-        <v>294</v>
-      </c>
-      <c r="H68" t="s">
-        <v>294</v>
-      </c>
-      <c r="I68" t="s">
+      <c r="J68" t="s">
         <v>741</v>
       </c>
-      <c r="J68" t="s">
+      <c r="K68" t="s">
         <v>742</v>
       </c>
-      <c r="K68" t="s">
+      <c r="L68" t="s">
         <v>743</v>
-      </c>
-      <c r="L68" t="s">
-        <v>744</v>
       </c>
       <c r="M68" s="8">
         <v>450</v>
       </c>
       <c r="N68" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O68" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="P68" s="8">
         <v>182</v>
       </c>
       <c r="Q68" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="R68" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="S68" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="T68" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="U68" s="8">
         <v>80</v>
@@ -7104,7 +7101,7 @@
         <v>140</v>
       </c>
       <c r="W68" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.25">
@@ -7113,58 +7110,58 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
+        <v>744</v>
+      </c>
+      <c r="C69" t="s">
         <v>745</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
+        <v>293</v>
+      </c>
+      <c r="E69" t="s">
+        <v>293</v>
+      </c>
+      <c r="F69" t="s">
+        <v>293</v>
+      </c>
+      <c r="G69" t="s">
+        <v>293</v>
+      </c>
+      <c r="H69" t="s">
+        <v>293</v>
+      </c>
+      <c r="I69" t="s">
         <v>746</v>
       </c>
-      <c r="D69" t="s">
-        <v>294</v>
-      </c>
-      <c r="E69" t="s">
-        <v>294</v>
-      </c>
-      <c r="F69" t="s">
-        <v>294</v>
-      </c>
-      <c r="G69" t="s">
-        <v>294</v>
-      </c>
-      <c r="H69" t="s">
-        <v>294</v>
-      </c>
-      <c r="I69" t="s">
+      <c r="J69" t="s">
+        <v>293</v>
+      </c>
+      <c r="K69" t="s">
         <v>747</v>
       </c>
-      <c r="J69" t="s">
-        <v>294</v>
-      </c>
-      <c r="K69" t="s">
-        <v>748</v>
-      </c>
       <c r="L69" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="M69" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="N69" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O69" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="P69" s="8">
         <v>1050</v>
       </c>
       <c r="Q69" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="R69" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="S69" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="T69" s="8">
         <v>600</v>
@@ -7173,10 +7170,10 @@
         <v>2200</v>
       </c>
       <c r="V69" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="W69" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="70" spans="1:23" x14ac:dyDescent="0.25">
@@ -7185,70 +7182,70 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C70" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D70" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E70" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F70" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G70" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H70" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I70" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J70" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K70" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L70" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="M70" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="N70" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O70" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="P70" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="Q70" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="R70" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="S70" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="T70" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="U70" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="V70" s="8">
         <v>63</v>
       </c>
       <c r="W70" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="71" spans="1:23" x14ac:dyDescent="0.25">
@@ -7257,70 +7254,70 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
+        <v>749</v>
+      </c>
+      <c r="C71" t="s">
         <v>750</v>
       </c>
-      <c r="C71" t="s">
-        <v>751</v>
-      </c>
       <c r="D71" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E71" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F71" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G71" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H71" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I71" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J71" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="K71" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L71" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="M71" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="N71" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O71" s="8">
         <v>850</v>
       </c>
       <c r="P71" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="Q71" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="R71" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="S71" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="T71" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="U71" s="8">
         <v>1200</v>
       </c>
       <c r="V71" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="W71" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="72" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7329,37 +7326,37 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C72" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D72" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="E72" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="F72" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="G72" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="H72" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="I72" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="J72" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="K72" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="L72" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="M72" s="6"/>
       <c r="N72" s="6"/>
@@ -7379,37 +7376,37 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
+        <v>752</v>
+      </c>
+      <c r="C73" t="s">
         <v>753</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
         <v>754</v>
       </c>
-      <c r="D73" t="s">
+      <c r="E73" t="s">
         <v>755</v>
       </c>
-      <c r="E73" t="s">
+      <c r="F73" t="s">
         <v>756</v>
       </c>
-      <c r="F73" t="s">
+      <c r="G73" t="s">
         <v>757</v>
       </c>
-      <c r="G73" t="s">
+      <c r="H73" t="s">
         <v>758</v>
       </c>
-      <c r="H73" t="s">
+      <c r="I73" t="s">
         <v>759</v>
       </c>
-      <c r="I73" t="s">
+      <c r="J73" t="s">
         <v>760</v>
       </c>
-      <c r="J73" t="s">
+      <c r="K73" t="s">
         <v>761</v>
       </c>
-      <c r="K73" t="s">
+      <c r="L73" t="s">
         <v>762</v>
-      </c>
-      <c r="L73" t="s">
-        <v>763</v>
       </c>
       <c r="M73" s="7">
         <v>24526.400000000001</v>
@@ -7451,37 +7448,37 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
+        <v>763</v>
+      </c>
+      <c r="C74" t="s">
         <v>764</v>
       </c>
-      <c r="C74" t="s">
+      <c r="D74" t="s">
         <v>765</v>
       </c>
-      <c r="D74" t="s">
+      <c r="E74" t="s">
         <v>766</v>
       </c>
-      <c r="E74" t="s">
+      <c r="F74" t="s">
         <v>767</v>
       </c>
-      <c r="F74" t="s">
+      <c r="G74" t="s">
         <v>768</v>
       </c>
-      <c r="G74" t="s">
+      <c r="H74" t="s">
         <v>769</v>
       </c>
-      <c r="H74" t="s">
+      <c r="I74" t="s">
         <v>770</v>
       </c>
-      <c r="I74" t="s">
+      <c r="J74" t="s">
+        <v>569</v>
+      </c>
+      <c r="K74" t="s">
         <v>771</v>
       </c>
-      <c r="J74" t="s">
-        <v>570</v>
-      </c>
-      <c r="K74" t="s">
+      <c r="L74" t="s">
         <v>772</v>
-      </c>
-      <c r="L74" t="s">
-        <v>773</v>
       </c>
       <c r="M74" s="8">
         <v>112.4</v>
@@ -7523,37 +7520,37 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
+        <v>773</v>
+      </c>
+      <c r="C75" t="s">
         <v>774</v>
       </c>
-      <c r="C75" t="s">
+      <c r="D75" t="s">
         <v>775</v>
       </c>
-      <c r="D75" t="s">
+      <c r="E75" t="s">
         <v>776</v>
       </c>
-      <c r="E75" t="s">
+      <c r="F75" t="s">
         <v>777</v>
       </c>
-      <c r="F75" t="s">
+      <c r="G75" t="s">
         <v>778</v>
       </c>
-      <c r="G75" t="s">
+      <c r="H75" t="s">
         <v>779</v>
       </c>
-      <c r="H75" t="s">
+      <c r="I75" t="s">
         <v>780</v>
-      </c>
-      <c r="I75" t="s">
-        <v>781</v>
       </c>
       <c r="J75">
         <v>1600</v>
       </c>
       <c r="K75" t="s">
+        <v>781</v>
+      </c>
+      <c r="L75" t="s">
         <v>782</v>
-      </c>
-      <c r="L75" t="s">
-        <v>783</v>
       </c>
       <c r="M75" s="8">
         <v>1616.9</v>
@@ -7595,40 +7592,40 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
+        <v>783</v>
+      </c>
+      <c r="C76" t="s">
         <v>784</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
         <v>785</v>
       </c>
-      <c r="D76" t="s">
+      <c r="E76" t="s">
         <v>786</v>
       </c>
-      <c r="E76" t="s">
+      <c r="F76" t="s">
         <v>787</v>
       </c>
-      <c r="F76" t="s">
+      <c r="G76" t="s">
         <v>788</v>
       </c>
-      <c r="G76" t="s">
+      <c r="H76" t="s">
         <v>789</v>
       </c>
-      <c r="H76" t="s">
+      <c r="I76" t="s">
         <v>790</v>
       </c>
-      <c r="I76" t="s">
+      <c r="J76" t="s">
+        <v>426</v>
+      </c>
+      <c r="K76" t="s">
         <v>791</v>
       </c>
-      <c r="J76" t="s">
-        <v>427</v>
-      </c>
-      <c r="K76" t="s">
+      <c r="L76" t="s">
         <v>792</v>
       </c>
-      <c r="L76" t="s">
+      <c r="M76" s="9" t="s">
         <v>793</v>
-      </c>
-      <c r="M76" s="9" t="s">
-        <v>794</v>
       </c>
       <c r="N76" s="9">
         <v>119.3</v>
@@ -7643,7 +7640,7 @@
         <v>114.5</v>
       </c>
       <c r="R76" s="9" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="S76" s="9">
         <v>87.6</v>

--- a/migforecasting/cities17-18/1/d11.xlsx
+++ b/migforecasting/cities17-18/1/d11.xlsx
@@ -699,10 +699,6 @@
     <t>Одинцово</t>
   </si>
   <si>
-    <t>Орехово-
-Зуево</t>
-  </si>
-  <si>
     <t>Подольск</t>
   </si>
   <si>
@@ -726,10 +722,6 @@
   </si>
   <si>
     <t>Щелково</t>
-  </si>
-  <si>
-    <t>Электро-
-сталь</t>
   </si>
   <si>
     <t>137,5</t>
@@ -2480,6 +2472,12 @@
       </rPr>
       <t>8)</t>
     </r>
+  </si>
+  <si>
+    <t>Электросталь</t>
+  </si>
+  <si>
+    <t>Орехово-Зуево</t>
   </si>
 </sst>
 </file>
@@ -2924,7 +2922,7 @@
   <dimension ref="A1:W87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y12" sqref="Y12"/>
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3009,34 +3007,34 @@
         <v>219</v>
       </c>
       <c r="N2" t="s">
+        <v>793</v>
+      </c>
+      <c r="O2" t="s">
         <v>220</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>221</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>222</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>223</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>224</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>225</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>226</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>227</v>
       </c>
-      <c r="V2" t="s">
-        <v>228</v>
-      </c>
       <c r="W2" t="s">
-        <v>229</v>
+        <v>792</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
@@ -3186,37 +3184,37 @@
         <v>21</v>
       </c>
       <c r="M5" t="s">
+        <v>228</v>
+      </c>
+      <c r="N5" t="s">
+        <v>229</v>
+      </c>
+      <c r="O5" t="s">
         <v>230</v>
       </c>
-      <c r="N5" t="s">
+      <c r="P5" t="s">
         <v>231</v>
       </c>
-      <c r="O5" t="s">
+      <c r="Q5" t="s">
         <v>232</v>
       </c>
-      <c r="P5" t="s">
+      <c r="R5" t="s">
         <v>233</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="S5" t="s">
         <v>234</v>
       </c>
-      <c r="R5" t="s">
+      <c r="T5" t="s">
         <v>235</v>
       </c>
-      <c r="S5" t="s">
+      <c r="U5" t="s">
         <v>236</v>
       </c>
-      <c r="T5" t="s">
+      <c r="V5" t="s">
         <v>237</v>
       </c>
-      <c r="U5" t="s">
+      <c r="W5" t="s">
         <v>238</v>
-      </c>
-      <c r="V5" t="s">
-        <v>239</v>
-      </c>
-      <c r="W5" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
@@ -3271,28 +3269,28 @@
         <v>25</v>
       </c>
       <c r="O7" t="s">
+        <v>239</v>
+      </c>
+      <c r="P7" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q7" t="s">
         <v>241</v>
       </c>
-      <c r="P7" t="s">
+      <c r="R7" t="s">
         <v>242</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="S7" t="s">
         <v>243</v>
       </c>
-      <c r="R7" t="s">
+      <c r="T7" t="s">
         <v>244</v>
       </c>
-      <c r="S7" t="s">
+      <c r="U7" t="s">
         <v>245</v>
       </c>
-      <c r="T7" t="s">
+      <c r="V7" t="s">
         <v>246</v>
-      </c>
-      <c r="U7" t="s">
-        <v>247</v>
-      </c>
-      <c r="V7" t="s">
-        <v>248</v>
       </c>
       <c r="W7" t="s">
         <v>57</v>
@@ -3336,13 +3334,13 @@
         <v>43</v>
       </c>
       <c r="M8" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="N8" t="s">
         <v>77</v>
       </c>
       <c r="O8" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="P8" t="s">
         <v>179</v>
@@ -3351,22 +3349,22 @@
         <v>70</v>
       </c>
       <c r="R8" t="s">
+        <v>249</v>
+      </c>
+      <c r="S8" t="s">
+        <v>250</v>
+      </c>
+      <c r="T8" t="s">
         <v>251</v>
       </c>
-      <c r="S8" t="s">
+      <c r="U8" t="s">
+        <v>243</v>
+      </c>
+      <c r="V8" t="s">
         <v>252</v>
       </c>
-      <c r="T8" t="s">
+      <c r="W8" t="s">
         <v>253</v>
-      </c>
-      <c r="U8" t="s">
-        <v>245</v>
-      </c>
-      <c r="V8" t="s">
-        <v>254</v>
-      </c>
-      <c r="W8" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
@@ -3407,37 +3405,37 @@
         <v>54</v>
       </c>
       <c r="M9" t="s">
+        <v>254</v>
+      </c>
+      <c r="N9" t="s">
+        <v>255</v>
+      </c>
+      <c r="O9" t="s">
         <v>256</v>
       </c>
-      <c r="N9" t="s">
+      <c r="P9" t="s">
         <v>257</v>
       </c>
-      <c r="O9" t="s">
+      <c r="Q9" t="s">
         <v>258</v>
       </c>
-      <c r="P9" t="s">
+      <c r="R9" t="s">
         <v>259</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="S9" t="s">
         <v>260</v>
       </c>
-      <c r="R9" t="s">
+      <c r="T9" t="s">
+        <v>258</v>
+      </c>
+      <c r="U9" t="s">
         <v>261</v>
       </c>
-      <c r="S9" t="s">
+      <c r="V9" t="s">
         <v>262</v>
       </c>
-      <c r="T9" t="s">
-        <v>260</v>
-      </c>
-      <c r="U9" t="s">
+      <c r="W9" t="s">
         <v>263</v>
-      </c>
-      <c r="V9" t="s">
-        <v>264</v>
-      </c>
-      <c r="W9" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
@@ -3478,37 +3476,37 @@
         <v>57</v>
       </c>
       <c r="M10" t="s">
+        <v>264</v>
+      </c>
+      <c r="N10" t="s">
+        <v>265</v>
+      </c>
+      <c r="O10" t="s">
         <v>266</v>
       </c>
-      <c r="N10" t="s">
+      <c r="P10" t="s">
         <v>267</v>
       </c>
-      <c r="O10" t="s">
+      <c r="Q10" t="s">
         <v>268</v>
       </c>
-      <c r="P10" t="s">
+      <c r="R10" t="s">
         <v>269</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="S10" t="s">
         <v>270</v>
       </c>
-      <c r="R10" t="s">
+      <c r="T10" t="s">
         <v>271</v>
       </c>
-      <c r="S10" t="s">
+      <c r="U10" t="s">
         <v>272</v>
       </c>
-      <c r="T10" t="s">
+      <c r="V10" t="s">
         <v>273</v>
       </c>
-      <c r="U10" t="s">
-        <v>274</v>
-      </c>
-      <c r="V10" t="s">
-        <v>275</v>
-      </c>
       <c r="W10" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
@@ -3549,37 +3547,37 @@
         <v>74</v>
       </c>
       <c r="M11" t="s">
+        <v>274</v>
+      </c>
+      <c r="N11" t="s">
+        <v>275</v>
+      </c>
+      <c r="O11" t="s">
         <v>276</v>
       </c>
-      <c r="N11" t="s">
+      <c r="P11" t="s">
         <v>277</v>
       </c>
-      <c r="O11" t="s">
-        <v>278</v>
-      </c>
-      <c r="P11" t="s">
-        <v>279</v>
-      </c>
       <c r="Q11" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="R11" t="s">
         <v>38</v>
       </c>
       <c r="S11" t="s">
+        <v>278</v>
+      </c>
+      <c r="T11" t="s">
+        <v>279</v>
+      </c>
+      <c r="U11" t="s">
         <v>280</v>
-      </c>
-      <c r="T11" t="s">
-        <v>281</v>
-      </c>
-      <c r="U11" t="s">
-        <v>282</v>
       </c>
       <c r="V11" t="s">
         <v>27</v>
       </c>
       <c r="W11" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
@@ -3620,25 +3618,25 @@
         <v>82</v>
       </c>
       <c r="M12" t="s">
+        <v>282</v>
+      </c>
+      <c r="N12" t="s">
+        <v>283</v>
+      </c>
+      <c r="O12" t="s">
+        <v>247</v>
+      </c>
+      <c r="P12" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q12" t="s">
         <v>284</v>
       </c>
-      <c r="N12" t="s">
+      <c r="R12" t="s">
+        <v>249</v>
+      </c>
+      <c r="S12" t="s">
         <v>285</v>
-      </c>
-      <c r="O12" t="s">
-        <v>249</v>
-      </c>
-      <c r="P12" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>286</v>
-      </c>
-      <c r="R12" t="s">
-        <v>251</v>
-      </c>
-      <c r="S12" t="s">
-        <v>287</v>
       </c>
       <c r="T12" t="s">
         <v>82</v>
@@ -3647,10 +3645,10 @@
         <v>43</v>
       </c>
       <c r="V12" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="W12" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
@@ -3691,34 +3689,34 @@
         <v>93</v>
       </c>
       <c r="M13" t="s">
+        <v>288</v>
+      </c>
+      <c r="N13" t="s">
+        <v>289</v>
+      </c>
+      <c r="O13" t="s">
         <v>290</v>
       </c>
-      <c r="N13" t="s">
-        <v>291</v>
-      </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q13" t="s">
         <v>292</v>
       </c>
-      <c r="P13" t="s">
+      <c r="R13" t="s">
         <v>293</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>294</v>
-      </c>
-      <c r="R13" t="s">
-        <v>295</v>
       </c>
       <c r="S13" t="s">
         <v>87</v>
       </c>
       <c r="T13" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="U13" t="s">
         <v>89</v>
       </c>
       <c r="V13" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="W13" t="s">
         <v>87</v>
@@ -3762,37 +3760,37 @@
         <v>104</v>
       </c>
       <c r="M14" t="s">
+        <v>294</v>
+      </c>
+      <c r="N14" t="s">
+        <v>295</v>
+      </c>
+      <c r="O14" t="s">
         <v>296</v>
       </c>
-      <c r="N14" t="s">
+      <c r="P14" t="s">
         <v>297</v>
       </c>
-      <c r="O14" t="s">
+      <c r="Q14" t="s">
         <v>298</v>
       </c>
-      <c r="P14" t="s">
+      <c r="R14" t="s">
         <v>299</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="S14" t="s">
         <v>300</v>
       </c>
-      <c r="R14" t="s">
+      <c r="T14" t="s">
         <v>301</v>
       </c>
-      <c r="S14" t="s">
+      <c r="U14" t="s">
         <v>302</v>
       </c>
-      <c r="T14" t="s">
+      <c r="V14" t="s">
         <v>303</v>
       </c>
-      <c r="U14" t="s">
+      <c r="W14" t="s">
         <v>304</v>
-      </c>
-      <c r="V14" t="s">
-        <v>305</v>
-      </c>
-      <c r="W14" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
@@ -3874,34 +3872,34 @@
         <v>26</v>
       </c>
       <c r="N16" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="O16" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="P16" t="s">
         <v>184</v>
       </c>
       <c r="Q16" t="s">
+        <v>307</v>
+      </c>
+      <c r="R16" t="s">
+        <v>285</v>
+      </c>
+      <c r="S16" t="s">
+        <v>308</v>
+      </c>
+      <c r="T16" t="s">
         <v>309</v>
       </c>
-      <c r="R16" t="s">
-        <v>287</v>
-      </c>
-      <c r="S16" t="s">
+      <c r="U16" t="s">
         <v>310</v>
-      </c>
-      <c r="T16" t="s">
-        <v>311</v>
-      </c>
-      <c r="U16" t="s">
-        <v>312</v>
       </c>
       <c r="V16" t="s">
         <v>174</v>
       </c>
       <c r="W16" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
@@ -3945,10 +3943,10 @@
         <v>121</v>
       </c>
       <c r="N17" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="O17" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="P17" t="s">
         <v>121</v>
@@ -3960,19 +3958,19 @@
         <v>121</v>
       </c>
       <c r="S17" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="T17" t="s">
         <v>121</v>
       </c>
       <c r="U17" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="V17" t="s">
         <v>121</v>
       </c>
       <c r="W17" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
@@ -4016,10 +4014,10 @@
         <v>481</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="P18" s="2">
         <v>365</v>
@@ -4031,19 +4029,19 @@
         <v>370</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="T18" s="2">
         <v>437</v>
       </c>
       <c r="U18" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="V18" s="2">
         <v>437</v>
       </c>
       <c r="W18" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
@@ -4084,37 +4082,37 @@
         <v>135</v>
       </c>
       <c r="M19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="N19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="O19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="P19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="Q19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="R19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="S19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="T19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="U19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="V19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="W19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
@@ -4155,37 +4153,37 @@
         <v>146</v>
       </c>
       <c r="M20" t="s">
+        <v>323</v>
+      </c>
+      <c r="N20" t="s">
+        <v>324</v>
+      </c>
+      <c r="O20" t="s">
         <v>325</v>
       </c>
-      <c r="N20" t="s">
+      <c r="P20" t="s">
         <v>326</v>
       </c>
-      <c r="O20" t="s">
+      <c r="Q20" t="s">
         <v>327</v>
       </c>
-      <c r="P20" t="s">
+      <c r="R20" t="s">
         <v>328</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="S20" t="s">
         <v>329</v>
       </c>
-      <c r="R20" t="s">
+      <c r="T20" t="s">
         <v>330</v>
       </c>
-      <c r="S20" t="s">
+      <c r="U20" t="s">
         <v>331</v>
       </c>
-      <c r="T20" t="s">
+      <c r="V20" t="s">
         <v>332</v>
       </c>
-      <c r="U20" t="s">
+      <c r="W20" t="s">
         <v>333</v>
-      </c>
-      <c r="V20" t="s">
-        <v>334</v>
-      </c>
-      <c r="W20" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
@@ -4226,10 +4224,10 @@
         <v>121</v>
       </c>
       <c r="M21" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="N21" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="O21" t="s">
         <v>121</v>
@@ -4244,7 +4242,7 @@
         <v>121</v>
       </c>
       <c r="S21" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T21" t="s">
         <v>121</v>
@@ -4256,7 +4254,7 @@
         <v>121</v>
       </c>
       <c r="W21" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
@@ -4300,34 +4298,34 @@
         <v>130</v>
       </c>
       <c r="N22" t="s">
+        <v>338</v>
+      </c>
+      <c r="O22" t="s">
+        <v>130</v>
+      </c>
+      <c r="P22" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>130</v>
+      </c>
+      <c r="R22" t="s">
+        <v>130</v>
+      </c>
+      <c r="S22" t="s">
+        <v>339</v>
+      </c>
+      <c r="T22" t="s">
+        <v>130</v>
+      </c>
+      <c r="U22" t="s">
+        <v>130</v>
+      </c>
+      <c r="V22" t="s">
+        <v>130</v>
+      </c>
+      <c r="W22" t="s">
         <v>340</v>
-      </c>
-      <c r="O22" t="s">
-        <v>130</v>
-      </c>
-      <c r="P22" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>130</v>
-      </c>
-      <c r="R22" t="s">
-        <v>130</v>
-      </c>
-      <c r="S22" t="s">
-        <v>341</v>
-      </c>
-      <c r="T22" t="s">
-        <v>130</v>
-      </c>
-      <c r="U22" t="s">
-        <v>130</v>
-      </c>
-      <c r="V22" t="s">
-        <v>130</v>
-      </c>
-      <c r="W22" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
@@ -4368,37 +4366,37 @@
         <v>171</v>
       </c>
       <c r="M23" t="s">
+        <v>341</v>
+      </c>
+      <c r="N23" t="s">
+        <v>342</v>
+      </c>
+      <c r="O23" t="s">
         <v>343</v>
       </c>
-      <c r="N23" t="s">
+      <c r="P23" t="s">
         <v>344</v>
       </c>
-      <c r="O23" t="s">
+      <c r="Q23" t="s">
         <v>345</v>
       </c>
-      <c r="P23" t="s">
+      <c r="R23" t="s">
         <v>346</v>
       </c>
-      <c r="Q23" t="s">
+      <c r="S23" t="s">
         <v>347</v>
-      </c>
-      <c r="R23" t="s">
-        <v>348</v>
-      </c>
-      <c r="S23" t="s">
-        <v>349</v>
       </c>
       <c r="T23" t="s">
         <v>110</v>
       </c>
       <c r="U23" t="s">
+        <v>348</v>
+      </c>
+      <c r="V23" t="s">
+        <v>349</v>
+      </c>
+      <c r="W23" t="s">
         <v>350</v>
-      </c>
-      <c r="V23" t="s">
-        <v>351</v>
-      </c>
-      <c r="W23" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
@@ -4439,34 +4437,34 @@
         <v>187</v>
       </c>
       <c r="M24" t="s">
+        <v>358</v>
+      </c>
+      <c r="N24" t="s">
+        <v>359</v>
+      </c>
+      <c r="O24" t="s">
         <v>360</v>
       </c>
-      <c r="N24" t="s">
+      <c r="P24" t="s">
         <v>361</v>
       </c>
-      <c r="O24" t="s">
+      <c r="Q24" t="s">
+        <v>352</v>
+      </c>
+      <c r="R24" t="s">
         <v>362</v>
       </c>
-      <c r="P24" t="s">
+      <c r="S24" t="s">
         <v>363</v>
       </c>
-      <c r="Q24" t="s">
-        <v>354</v>
-      </c>
-      <c r="R24" t="s">
+      <c r="T24" t="s">
+        <v>356</v>
+      </c>
+      <c r="U24" t="s">
         <v>364</v>
       </c>
-      <c r="S24" t="s">
-        <v>365</v>
-      </c>
-      <c r="T24" t="s">
-        <v>358</v>
-      </c>
-      <c r="U24" t="s">
-        <v>366</v>
-      </c>
       <c r="V24" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="W24" t="s">
         <v>177</v>
@@ -4510,28 +4508,28 @@
         <v>182</v>
       </c>
       <c r="M25" t="s">
+        <v>351</v>
+      </c>
+      <c r="N25" t="s">
+        <v>352</v>
+      </c>
+      <c r="O25" t="s">
         <v>353</v>
       </c>
-      <c r="N25" t="s">
+      <c r="P25" t="s">
         <v>354</v>
       </c>
-      <c r="O25" t="s">
+      <c r="Q25" t="s">
         <v>355</v>
-      </c>
-      <c r="P25" t="s">
-        <v>356</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>357</v>
       </c>
       <c r="R25" t="s">
         <v>187</v>
       </c>
       <c r="S25" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="T25" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="U25" t="s">
         <v>72</v>
@@ -4592,10 +4590,10 @@
         <v>121</v>
       </c>
       <c r="N27" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="O27" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="P27" t="s">
         <v>121</v>
@@ -4604,22 +4602,22 @@
         <v>121</v>
       </c>
       <c r="R27" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="S27" t="s">
         <v>121</v>
       </c>
       <c r="T27" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="U27" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="V27" t="s">
         <v>121</v>
       </c>
       <c r="W27" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
@@ -4663,19 +4661,19 @@
         <v>130</v>
       </c>
       <c r="N28" t="s">
+        <v>371</v>
+      </c>
+      <c r="O28" t="s">
+        <v>372</v>
+      </c>
+      <c r="P28" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>130</v>
+      </c>
+      <c r="R28" t="s">
         <v>373</v>
-      </c>
-      <c r="O28" t="s">
-        <v>374</v>
-      </c>
-      <c r="P28" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>130</v>
-      </c>
-      <c r="R28" t="s">
-        <v>375</v>
       </c>
       <c r="S28" t="s">
         <v>130</v>
@@ -4684,13 +4682,13 @@
         <v>202</v>
       </c>
       <c r="U28" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="V28" t="s">
         <v>130</v>
       </c>
       <c r="W28" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
@@ -4742,10 +4740,10 @@
         <v>121</v>
       </c>
       <c r="N30" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="O30" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="P30" t="s">
         <v>121</v>
@@ -4754,22 +4752,22 @@
         <v>121</v>
       </c>
       <c r="R30" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="S30" t="s">
         <v>121</v>
       </c>
       <c r="T30" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="U30" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="V30" t="s">
         <v>121</v>
       </c>
       <c r="W30" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
@@ -4813,10 +4811,10 @@
         <v>130</v>
       </c>
       <c r="N31" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="O31" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="P31" t="s">
         <v>130</v>
@@ -4831,10 +4829,10 @@
         <v>130</v>
       </c>
       <c r="T31" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="U31" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="V31" t="s">
         <v>130</v>
@@ -4919,7 +4917,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
@@ -4927,25 +4925,25 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
+        <v>387</v>
+      </c>
+      <c r="C34" t="s">
+        <v>388</v>
+      </c>
+      <c r="D34" t="s">
         <v>389</v>
       </c>
-      <c r="C34" t="s">
+      <c r="E34" t="s">
         <v>390</v>
       </c>
-      <c r="D34" t="s">
+      <c r="F34" t="s">
         <v>391</v>
       </c>
-      <c r="E34" t="s">
+      <c r="G34" t="s">
         <v>392</v>
       </c>
-      <c r="F34" t="s">
+      <c r="H34" t="s">
         <v>393</v>
-      </c>
-      <c r="G34" t="s">
-        <v>394</v>
-      </c>
-      <c r="H34" t="s">
-        <v>395</v>
       </c>
       <c r="I34" t="s">
         <v>121</v>
@@ -4954,7 +4952,7 @@
         <v>121</v>
       </c>
       <c r="K34" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="L34" t="s">
         <v>121</v>
@@ -4963,10 +4961,10 @@
         <v>121</v>
       </c>
       <c r="N34" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="O34" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="P34" t="s">
         <v>121</v>
@@ -4975,22 +4973,22 @@
         <v>121</v>
       </c>
       <c r="R34" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="S34" t="s">
+        <v>548</v>
+      </c>
+      <c r="T34" t="s">
+        <v>549</v>
+      </c>
+      <c r="U34" t="s">
         <v>550</v>
-      </c>
-      <c r="T34" t="s">
-        <v>551</v>
-      </c>
-      <c r="U34" t="s">
-        <v>552</v>
       </c>
       <c r="V34" t="s">
         <v>121</v>
       </c>
       <c r="W34" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
@@ -4999,35 +4997,35 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
+        <v>394</v>
+      </c>
+      <c r="C35" t="s">
+        <v>395</v>
+      </c>
+      <c r="D35" t="s">
         <v>396</v>
       </c>
-      <c r="C35" t="s">
+      <c r="E35" t="s">
         <v>397</v>
       </c>
-      <c r="D35" t="s">
+      <c r="F35" t="s">
         <v>398</v>
       </c>
-      <c r="E35" t="s">
+      <c r="G35" t="s">
         <v>399</v>
       </c>
-      <c r="F35" t="s">
+      <c r="H35" t="s">
         <v>400</v>
       </c>
-      <c r="G35" t="s">
+      <c r="I35" t="s">
+        <v>130</v>
+      </c>
+      <c r="J35" t="s">
+        <v>130</v>
+      </c>
+      <c r="K35" t="s">
         <v>401</v>
       </c>
-      <c r="H35" t="s">
-        <v>402</v>
-      </c>
-      <c r="I35" t="s">
-        <v>130</v>
-      </c>
-      <c r="J35" t="s">
-        <v>130</v>
-      </c>
-      <c r="K35" t="s">
-        <v>403</v>
-      </c>
       <c r="L35" t="s">
         <v>130</v>
       </c>
@@ -5035,34 +5033,34 @@
         <v>130</v>
       </c>
       <c r="N35" t="s">
+        <v>552</v>
+      </c>
+      <c r="O35" t="s">
+        <v>553</v>
+      </c>
+      <c r="P35" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>130</v>
+      </c>
+      <c r="R35" t="s">
         <v>554</v>
       </c>
-      <c r="O35" t="s">
+      <c r="S35" t="s">
+        <v>130</v>
+      </c>
+      <c r="T35" t="s">
         <v>555</v>
       </c>
-      <c r="P35" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>130</v>
-      </c>
-      <c r="R35" t="s">
+      <c r="U35" t="s">
         <v>556</v>
       </c>
-      <c r="S35" t="s">
-        <v>130</v>
-      </c>
-      <c r="T35" t="s">
+      <c r="V35" t="s">
+        <v>130</v>
+      </c>
+      <c r="W35" t="s">
         <v>557</v>
-      </c>
-      <c r="U35" t="s">
-        <v>558</v>
-      </c>
-      <c r="V35" t="s">
-        <v>130</v>
-      </c>
-      <c r="W35" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
@@ -5071,7 +5069,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C36" t="s">
         <v>130</v>
@@ -5143,7 +5141,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.25">
@@ -5152,25 +5150,25 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C38" t="s">
+        <v>404</v>
+      </c>
+      <c r="D38" t="s">
+        <v>405</v>
+      </c>
+      <c r="E38" t="s">
         <v>406</v>
       </c>
-      <c r="D38" t="s">
+      <c r="F38" t="s">
+        <v>393</v>
+      </c>
+      <c r="G38" t="s">
         <v>407</v>
       </c>
-      <c r="E38" t="s">
+      <c r="H38" t="s">
         <v>408</v>
-      </c>
-      <c r="F38" t="s">
-        <v>395</v>
-      </c>
-      <c r="G38" t="s">
-        <v>409</v>
-      </c>
-      <c r="H38" t="s">
-        <v>410</v>
       </c>
       <c r="I38" t="s">
         <v>121</v>
@@ -5179,7 +5177,7 @@
         <v>121</v>
       </c>
       <c r="K38" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="L38" t="s">
         <v>121</v>
@@ -5188,10 +5186,10 @@
         <v>121</v>
       </c>
       <c r="N38" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="O38" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="P38" t="s">
         <v>121</v>
@@ -5200,22 +5198,22 @@
         <v>121</v>
       </c>
       <c r="R38" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="S38" t="s">
         <v>121</v>
       </c>
       <c r="T38" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="U38" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="V38" t="s">
         <v>121</v>
       </c>
       <c r="W38" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.25">
@@ -5227,32 +5225,32 @@
         <v>197</v>
       </c>
       <c r="C39" t="s">
+        <v>410</v>
+      </c>
+      <c r="D39" t="s">
+        <v>411</v>
+      </c>
+      <c r="E39" t="s">
         <v>412</v>
       </c>
-      <c r="D39" t="s">
+      <c r="F39" t="s">
         <v>413</v>
       </c>
-      <c r="E39" t="s">
+      <c r="G39" t="s">
         <v>414</v>
       </c>
-      <c r="F39" t="s">
+      <c r="H39" t="s">
         <v>415</v>
       </c>
-      <c r="G39" t="s">
+      <c r="I39" t="s">
+        <v>130</v>
+      </c>
+      <c r="J39" t="s">
+        <v>130</v>
+      </c>
+      <c r="K39" t="s">
         <v>416</v>
       </c>
-      <c r="H39" t="s">
-        <v>417</v>
-      </c>
-      <c r="I39" t="s">
-        <v>130</v>
-      </c>
-      <c r="J39" t="s">
-        <v>130</v>
-      </c>
-      <c r="K39" t="s">
-        <v>418</v>
-      </c>
       <c r="L39" t="s">
         <v>130</v>
       </c>
@@ -5260,34 +5258,34 @@
         <v>130</v>
       </c>
       <c r="N39" t="s">
+        <v>563</v>
+      </c>
+      <c r="O39" t="s">
+        <v>564</v>
+      </c>
+      <c r="P39" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>130</v>
+      </c>
+      <c r="R39" t="s">
         <v>565</v>
       </c>
-      <c r="O39" t="s">
+      <c r="S39" t="s">
+        <v>130</v>
+      </c>
+      <c r="T39" t="s">
         <v>566</v>
       </c>
-      <c r="P39" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>130</v>
-      </c>
-      <c r="R39" t="s">
+      <c r="U39" t="s">
         <v>567</v>
       </c>
-      <c r="S39" t="s">
-        <v>130</v>
-      </c>
-      <c r="T39" t="s">
+      <c r="V39" t="s">
+        <v>130</v>
+      </c>
+      <c r="W39" t="s">
         <v>568</v>
-      </c>
-      <c r="U39" t="s">
-        <v>569</v>
-      </c>
-      <c r="V39" t="s">
-        <v>130</v>
-      </c>
-      <c r="W39" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.25">
@@ -5296,70 +5294,70 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
+        <v>417</v>
+      </c>
+      <c r="C40" t="s">
+        <v>418</v>
+      </c>
+      <c r="D40" t="s">
+        <v>291</v>
+      </c>
+      <c r="E40" t="s">
         <v>419</v>
       </c>
-      <c r="C40" t="s">
+      <c r="F40" t="s">
         <v>420</v>
       </c>
-      <c r="D40" t="s">
-        <v>293</v>
-      </c>
-      <c r="E40" t="s">
+      <c r="G40" t="s">
         <v>421</v>
       </c>
-      <c r="F40" t="s">
+      <c r="H40" t="s">
         <v>422</v>
       </c>
-      <c r="G40" t="s">
+      <c r="I40" t="s">
         <v>423</v>
       </c>
-      <c r="H40" t="s">
+      <c r="J40" t="s">
         <v>424</v>
       </c>
-      <c r="I40" t="s">
+      <c r="K40" t="s">
         <v>425</v>
       </c>
-      <c r="J40" t="s">
+      <c r="L40" t="s">
         <v>426</v>
       </c>
-      <c r="K40" t="s">
-        <v>427</v>
-      </c>
-      <c r="L40" t="s">
-        <v>428</v>
-      </c>
       <c r="M40" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="N40" t="s">
+        <v>569</v>
+      </c>
+      <c r="O40" t="s">
+        <v>570</v>
+      </c>
+      <c r="P40" t="s">
         <v>571</v>
       </c>
-      <c r="O40" t="s">
+      <c r="Q40" t="s">
         <v>572</v>
       </c>
-      <c r="P40" t="s">
+      <c r="R40" t="s">
+        <v>424</v>
+      </c>
+      <c r="S40" t="s">
         <v>573</v>
       </c>
-      <c r="Q40" t="s">
+      <c r="T40" t="s">
         <v>574</v>
       </c>
-      <c r="R40" t="s">
-        <v>426</v>
-      </c>
-      <c r="S40" t="s">
+      <c r="U40" t="s">
         <v>575</v>
       </c>
-      <c r="T40" t="s">
+      <c r="V40" t="s">
         <v>576</v>
       </c>
-      <c r="U40" t="s">
+      <c r="W40" t="s">
         <v>577</v>
-      </c>
-      <c r="V40" t="s">
-        <v>578</v>
-      </c>
-      <c r="W40" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.25">
@@ -5368,7 +5366,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.25">
@@ -5377,70 +5375,70 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
+        <v>428</v>
+      </c>
+      <c r="C42" t="s">
+        <v>429</v>
+      </c>
+      <c r="D42" t="s">
+        <v>291</v>
+      </c>
+      <c r="E42" t="s">
         <v>430</v>
       </c>
-      <c r="C42" t="s">
+      <c r="F42" t="s">
         <v>431</v>
       </c>
-      <c r="D42" t="s">
-        <v>293</v>
-      </c>
-      <c r="E42" t="s">
+      <c r="G42" t="s">
         <v>432</v>
       </c>
-      <c r="F42" t="s">
+      <c r="H42" t="s">
         <v>433</v>
       </c>
-      <c r="G42" t="s">
+      <c r="I42" t="s">
         <v>434</v>
       </c>
-      <c r="H42" t="s">
+      <c r="J42" t="s">
+        <v>130</v>
+      </c>
+      <c r="K42" t="s">
         <v>435</v>
       </c>
-      <c r="I42" t="s">
+      <c r="L42" t="s">
         <v>436</v>
       </c>
-      <c r="J42" t="s">
-        <v>130</v>
-      </c>
-      <c r="K42" t="s">
-        <v>437</v>
-      </c>
-      <c r="L42" t="s">
-        <v>438</v>
-      </c>
       <c r="M42" t="s">
         <v>130</v>
       </c>
       <c r="N42" t="s">
+        <v>578</v>
+      </c>
+      <c r="O42" t="s">
+        <v>579</v>
+      </c>
+      <c r="P42" t="s">
         <v>580</v>
       </c>
-      <c r="O42" t="s">
+      <c r="Q42" t="s">
         <v>581</v>
       </c>
-      <c r="P42" t="s">
+      <c r="R42" t="s">
+        <v>130</v>
+      </c>
+      <c r="S42" t="s">
         <v>582</v>
       </c>
-      <c r="Q42" t="s">
+      <c r="T42" t="s">
         <v>583</v>
       </c>
-      <c r="R42" t="s">
-        <v>130</v>
-      </c>
-      <c r="S42" t="s">
+      <c r="U42" t="s">
         <v>584</v>
       </c>
-      <c r="T42" t="s">
+      <c r="V42" t="s">
         <v>585</v>
       </c>
-      <c r="U42" t="s">
+      <c r="W42" t="s">
         <v>586</v>
-      </c>
-      <c r="V42" t="s">
-        <v>587</v>
-      </c>
-      <c r="W42" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.25">
@@ -5449,70 +5447,70 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
+        <v>437</v>
+      </c>
+      <c r="C43" t="s">
+        <v>438</v>
+      </c>
+      <c r="D43" t="s">
+        <v>291</v>
+      </c>
+      <c r="E43" t="s">
         <v>439</v>
       </c>
-      <c r="C43" t="s">
+      <c r="F43" t="s">
         <v>440</v>
       </c>
-      <c r="D43" t="s">
-        <v>293</v>
-      </c>
-      <c r="E43" t="s">
+      <c r="G43" t="s">
         <v>441</v>
       </c>
-      <c r="F43" t="s">
+      <c r="H43" t="s">
         <v>442</v>
       </c>
-      <c r="G43" t="s">
+      <c r="I43" t="s">
         <v>443</v>
       </c>
-      <c r="H43" t="s">
+      <c r="J43" t="s">
+        <v>130</v>
+      </c>
+      <c r="K43" t="s">
         <v>444</v>
       </c>
-      <c r="I43" t="s">
+      <c r="L43" t="s">
         <v>445</v>
       </c>
-      <c r="J43" t="s">
-        <v>130</v>
-      </c>
-      <c r="K43" t="s">
-        <v>446</v>
-      </c>
-      <c r="L43" t="s">
-        <v>447</v>
-      </c>
       <c r="M43" t="s">
         <v>130</v>
       </c>
       <c r="N43" t="s">
+        <v>587</v>
+      </c>
+      <c r="O43" t="s">
+        <v>588</v>
+      </c>
+      <c r="P43" t="s">
+        <v>424</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>424</v>
+      </c>
+      <c r="R43" t="s">
+        <v>130</v>
+      </c>
+      <c r="S43" t="s">
         <v>589</v>
       </c>
-      <c r="O43" t="s">
+      <c r="T43" t="s">
         <v>590</v>
       </c>
-      <c r="P43" t="s">
-        <v>426</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>426</v>
-      </c>
-      <c r="R43" t="s">
-        <v>130</v>
-      </c>
-      <c r="S43" t="s">
+      <c r="U43" t="s">
         <v>591</v>
       </c>
-      <c r="T43" t="s">
+      <c r="V43" t="s">
+        <v>424</v>
+      </c>
+      <c r="W43" t="s">
         <v>592</v>
-      </c>
-      <c r="U43" t="s">
-        <v>593</v>
-      </c>
-      <c r="V43" t="s">
-        <v>426</v>
-      </c>
-      <c r="W43" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
@@ -5521,37 +5519,37 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C44" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D44" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E44" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F44" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G44" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="H44" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="I44" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="J44" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="K44" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="L44" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.25">
@@ -5560,70 +5558,70 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
+        <v>447</v>
+      </c>
+      <c r="C45" t="s">
+        <v>448</v>
+      </c>
+      <c r="D45" t="s">
         <v>449</v>
       </c>
-      <c r="C45" t="s">
+      <c r="E45" t="s">
         <v>450</v>
       </c>
-      <c r="D45" t="s">
+      <c r="F45" t="s">
         <v>451</v>
       </c>
-      <c r="E45" t="s">
+      <c r="G45" t="s">
         <v>452</v>
       </c>
-      <c r="F45" t="s">
+      <c r="H45" t="s">
         <v>453</v>
       </c>
-      <c r="G45" t="s">
+      <c r="I45" t="s">
         <v>454</v>
       </c>
-      <c r="H45" t="s">
+      <c r="J45" t="s">
         <v>455</v>
       </c>
-      <c r="I45" t="s">
+      <c r="K45" t="s">
         <v>456</v>
       </c>
-      <c r="J45" t="s">
+      <c r="L45" t="s">
         <v>457</v>
       </c>
-      <c r="K45" t="s">
-        <v>458</v>
-      </c>
-      <c r="L45" t="s">
-        <v>459</v>
-      </c>
       <c r="M45" t="s">
+        <v>593</v>
+      </c>
+      <c r="N45" t="s">
+        <v>594</v>
+      </c>
+      <c r="O45" t="s">
         <v>595</v>
       </c>
-      <c r="N45" t="s">
+      <c r="P45" t="s">
         <v>596</v>
       </c>
-      <c r="O45" t="s">
+      <c r="Q45" t="s">
         <v>597</v>
       </c>
-      <c r="P45" t="s">
+      <c r="R45" t="s">
         <v>598</v>
       </c>
-      <c r="Q45" t="s">
+      <c r="S45" t="s">
         <v>599</v>
       </c>
-      <c r="R45" t="s">
+      <c r="T45" t="s">
         <v>600</v>
       </c>
-      <c r="S45" t="s">
+      <c r="U45" t="s">
         <v>601</v>
       </c>
-      <c r="T45" t="s">
+      <c r="V45" t="s">
         <v>602</v>
       </c>
-      <c r="U45" t="s">
+      <c r="W45" t="s">
         <v>603</v>
-      </c>
-      <c r="V45" t="s">
-        <v>604</v>
-      </c>
-      <c r="W45" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.25">
@@ -5632,70 +5630,70 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
+        <v>458</v>
+      </c>
+      <c r="C46" t="s">
+        <v>459</v>
+      </c>
+      <c r="D46" t="s">
         <v>460</v>
       </c>
-      <c r="C46" t="s">
+      <c r="E46" t="s">
+        <v>356</v>
+      </c>
+      <c r="F46" t="s">
         <v>461</v>
       </c>
-      <c r="D46" t="s">
+      <c r="G46" t="s">
         <v>462</v>
       </c>
-      <c r="E46" t="s">
-        <v>358</v>
-      </c>
-      <c r="F46" t="s">
-        <v>463</v>
-      </c>
-      <c r="G46" t="s">
-        <v>464</v>
-      </c>
       <c r="H46" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="I46" t="s">
         <v>26</v>
       </c>
       <c r="J46" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K46" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="L46" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="M46" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="N46" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="O46" t="s">
         <v>79</v>
       </c>
       <c r="P46" t="s">
+        <v>605</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>606</v>
+      </c>
+      <c r="R46" t="s">
+        <v>357</v>
+      </c>
+      <c r="S46" t="s">
         <v>607</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>608</v>
-      </c>
-      <c r="R46" t="s">
-        <v>359</v>
-      </c>
-      <c r="S46" t="s">
-        <v>609</v>
       </c>
       <c r="T46" t="s">
         <v>64</v>
       </c>
       <c r="U46" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="V46" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="W46" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.25">
@@ -5704,7 +5702,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.25">
@@ -5713,70 +5711,70 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
+        <v>465</v>
+      </c>
+      <c r="C48" t="s">
+        <v>408</v>
+      </c>
+      <c r="D48" t="s">
+        <v>466</v>
+      </c>
+      <c r="E48" t="s">
+        <v>363</v>
+      </c>
+      <c r="F48" t="s">
         <v>467</v>
       </c>
-      <c r="C48" t="s">
-        <v>410</v>
-      </c>
-      <c r="D48" t="s">
+      <c r="G48" t="s">
         <v>468</v>
       </c>
-      <c r="E48" t="s">
-        <v>365</v>
-      </c>
-      <c r="F48" t="s">
+      <c r="H48" t="s">
         <v>469</v>
       </c>
-      <c r="G48" t="s">
+      <c r="I48" t="s">
+        <v>393</v>
+      </c>
+      <c r="J48" t="s">
         <v>470</v>
       </c>
-      <c r="H48" t="s">
+      <c r="K48" t="s">
         <v>471</v>
-      </c>
-      <c r="I48" t="s">
-        <v>395</v>
-      </c>
-      <c r="J48" t="s">
-        <v>472</v>
-      </c>
-      <c r="K48" t="s">
-        <v>473</v>
       </c>
       <c r="L48" t="s">
         <v>112</v>
       </c>
       <c r="M48" t="s">
+        <v>610</v>
+      </c>
+      <c r="N48" t="s">
+        <v>611</v>
+      </c>
+      <c r="O48" t="s">
+        <v>515</v>
+      </c>
+      <c r="P48" t="s">
         <v>612</v>
       </c>
-      <c r="N48" t="s">
+      <c r="Q48" t="s">
+        <v>291</v>
+      </c>
+      <c r="R48" t="s">
+        <v>475</v>
+      </c>
+      <c r="S48" t="s">
+        <v>462</v>
+      </c>
+      <c r="T48" t="s">
         <v>613</v>
       </c>
-      <c r="O48" t="s">
-        <v>517</v>
-      </c>
-      <c r="P48" t="s">
+      <c r="U48" t="s">
         <v>614</v>
       </c>
-      <c r="Q48" t="s">
-        <v>293</v>
-      </c>
-      <c r="R48" t="s">
-        <v>477</v>
-      </c>
-      <c r="S48" t="s">
-        <v>464</v>
-      </c>
-      <c r="T48" t="s">
-        <v>615</v>
-      </c>
-      <c r="U48" t="s">
-        <v>616</v>
-      </c>
       <c r="V48" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="W48" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.25">
@@ -5785,70 +5783,70 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
+        <v>472</v>
+      </c>
+      <c r="C49" t="s">
+        <v>473</v>
+      </c>
+      <c r="D49" t="s">
         <v>474</v>
       </c>
-      <c r="C49" t="s">
+      <c r="E49" t="s">
         <v>475</v>
       </c>
-      <c r="D49" t="s">
+      <c r="F49" t="s">
+        <v>275</v>
+      </c>
+      <c r="G49" t="s">
         <v>476</v>
       </c>
-      <c r="E49" t="s">
+      <c r="H49" t="s">
+        <v>393</v>
+      </c>
+      <c r="I49" t="s">
         <v>477</v>
       </c>
-      <c r="F49" t="s">
-        <v>277</v>
-      </c>
-      <c r="G49" t="s">
+      <c r="J49" t="s">
         <v>478</v>
       </c>
-      <c r="H49" t="s">
-        <v>395</v>
-      </c>
-      <c r="I49" t="s">
-        <v>479</v>
-      </c>
-      <c r="J49" t="s">
-        <v>480</v>
-      </c>
       <c r="K49" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="L49" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="M49" t="s">
         <v>43</v>
       </c>
       <c r="N49" t="s">
+        <v>615</v>
+      </c>
+      <c r="O49" t="s">
+        <v>616</v>
+      </c>
+      <c r="P49" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q49" t="s">
         <v>617</v>
-      </c>
-      <c r="O49" t="s">
-        <v>618</v>
-      </c>
-      <c r="P49" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>619</v>
       </c>
       <c r="R49" t="s">
         <v>91</v>
       </c>
       <c r="S49" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="T49" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="U49" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="V49" t="s">
         <v>91</v>
       </c>
       <c r="W49" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.25">
@@ -5857,70 +5855,70 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C50" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D50" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E50" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F50" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="G50" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="H50" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="I50" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="J50" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="K50" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="L50" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="M50" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="N50" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="O50" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="P50" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="Q50" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="R50" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="S50" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="T50" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="U50" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="V50" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="W50" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.25">
@@ -5929,70 +5927,70 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
+        <v>480</v>
+      </c>
+      <c r="C51" t="s">
+        <v>481</v>
+      </c>
+      <c r="D51" t="s">
         <v>482</v>
       </c>
-      <c r="C51" t="s">
+      <c r="E51" t="s">
         <v>483</v>
       </c>
-      <c r="D51" t="s">
+      <c r="F51" t="s">
         <v>484</v>
       </c>
-      <c r="E51" t="s">
+      <c r="G51" t="s">
         <v>485</v>
       </c>
-      <c r="F51" t="s">
+      <c r="H51" t="s">
         <v>486</v>
       </c>
-      <c r="G51" t="s">
+      <c r="I51" t="s">
         <v>487</v>
       </c>
-      <c r="H51" t="s">
+      <c r="J51" t="s">
         <v>488</v>
       </c>
-      <c r="I51" t="s">
+      <c r="K51" t="s">
         <v>489</v>
       </c>
-      <c r="J51" t="s">
+      <c r="L51" t="s">
         <v>490</v>
       </c>
-      <c r="K51" t="s">
-        <v>491</v>
-      </c>
-      <c r="L51" t="s">
-        <v>492</v>
-      </c>
       <c r="M51" t="s">
+        <v>621</v>
+      </c>
+      <c r="N51" t="s">
+        <v>622</v>
+      </c>
+      <c r="O51" t="s">
         <v>623</v>
       </c>
-      <c r="N51" t="s">
+      <c r="P51" t="s">
         <v>624</v>
       </c>
-      <c r="O51" t="s">
+      <c r="Q51" t="s">
         <v>625</v>
       </c>
-      <c r="P51" t="s">
+      <c r="R51" t="s">
         <v>626</v>
       </c>
-      <c r="Q51" t="s">
+      <c r="S51" t="s">
         <v>627</v>
       </c>
-      <c r="R51" t="s">
+      <c r="T51" t="s">
         <v>628</v>
       </c>
-      <c r="S51" t="s">
+      <c r="U51" t="s">
         <v>629</v>
       </c>
-      <c r="T51" t="s">
+      <c r="V51" t="s">
         <v>630</v>
       </c>
-      <c r="U51" t="s">
+      <c r="W51" t="s">
         <v>631</v>
-      </c>
-      <c r="V51" t="s">
-        <v>632</v>
-      </c>
-      <c r="W51" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.25">
@@ -6001,70 +5999,70 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
+        <v>491</v>
+      </c>
+      <c r="C52" t="s">
+        <v>492</v>
+      </c>
+      <c r="D52" t="s">
         <v>493</v>
       </c>
-      <c r="C52" t="s">
+      <c r="E52" t="s">
         <v>494</v>
       </c>
-      <c r="D52" t="s">
+      <c r="F52" t="s">
         <v>495</v>
       </c>
-      <c r="E52" t="s">
+      <c r="G52" t="s">
         <v>496</v>
       </c>
-      <c r="F52" t="s">
+      <c r="H52" t="s">
         <v>497</v>
       </c>
-      <c r="G52" t="s">
+      <c r="I52" t="s">
         <v>498</v>
       </c>
-      <c r="H52" t="s">
+      <c r="J52" t="s">
         <v>499</v>
       </c>
-      <c r="I52" t="s">
+      <c r="K52" t="s">
         <v>500</v>
       </c>
-      <c r="J52" t="s">
+      <c r="L52" t="s">
         <v>501</v>
       </c>
-      <c r="K52" t="s">
-        <v>502</v>
-      </c>
-      <c r="L52" t="s">
-        <v>503</v>
-      </c>
       <c r="M52" t="s">
+        <v>632</v>
+      </c>
+      <c r="N52" t="s">
+        <v>633</v>
+      </c>
+      <c r="O52" t="s">
         <v>634</v>
       </c>
-      <c r="N52" t="s">
+      <c r="P52" t="s">
         <v>635</v>
       </c>
-      <c r="O52" t="s">
+      <c r="Q52" t="s">
         <v>636</v>
       </c>
-      <c r="P52" t="s">
+      <c r="R52" t="s">
         <v>637</v>
       </c>
-      <c r="Q52" t="s">
+      <c r="S52" t="s">
         <v>638</v>
       </c>
-      <c r="R52" t="s">
+      <c r="T52" t="s">
         <v>639</v>
       </c>
-      <c r="S52" t="s">
+      <c r="U52" t="s">
         <v>640</v>
       </c>
-      <c r="T52" t="s">
+      <c r="V52" t="s">
         <v>641</v>
       </c>
-      <c r="U52" t="s">
+      <c r="W52" t="s">
         <v>642</v>
-      </c>
-      <c r="V52" t="s">
-        <v>643</v>
-      </c>
-      <c r="W52" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.25">
@@ -6073,70 +6071,70 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
+        <v>502</v>
+      </c>
+      <c r="C53" t="s">
+        <v>503</v>
+      </c>
+      <c r="D53" t="s">
         <v>504</v>
       </c>
-      <c r="C53" t="s">
+      <c r="E53" t="s">
         <v>505</v>
       </c>
-      <c r="D53" t="s">
+      <c r="F53" t="s">
         <v>506</v>
       </c>
-      <c r="E53" t="s">
+      <c r="G53" t="s">
         <v>507</v>
       </c>
-      <c r="F53" t="s">
+      <c r="H53" t="s">
         <v>508</v>
       </c>
-      <c r="G53" t="s">
+      <c r="I53" t="s">
         <v>509</v>
       </c>
-      <c r="H53" t="s">
+      <c r="J53" t="s">
         <v>510</v>
       </c>
-      <c r="I53" t="s">
+      <c r="K53" t="s">
         <v>511</v>
       </c>
-      <c r="J53" t="s">
-        <v>512</v>
-      </c>
-      <c r="K53" t="s">
-        <v>513</v>
-      </c>
       <c r="L53" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="M53" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="N53" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="O53" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="P53" t="s">
         <v>29</v>
       </c>
       <c r="Q53" t="s">
+        <v>645</v>
+      </c>
+      <c r="R53" t="s">
+        <v>646</v>
+      </c>
+      <c r="S53" t="s">
         <v>647</v>
-      </c>
-      <c r="R53" t="s">
-        <v>648</v>
-      </c>
-      <c r="S53" t="s">
-        <v>649</v>
       </c>
       <c r="T53" t="s">
         <v>113</v>
       </c>
       <c r="U53" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="V53" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="W53" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.25">
@@ -6145,70 +6143,70 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
+        <v>512</v>
+      </c>
+      <c r="C54" t="s">
+        <v>513</v>
+      </c>
+      <c r="D54" t="s">
         <v>514</v>
       </c>
-      <c r="C54" t="s">
+      <c r="E54" t="s">
         <v>515</v>
-      </c>
-      <c r="D54" t="s">
-        <v>516</v>
-      </c>
-      <c r="E54" t="s">
-        <v>517</v>
       </c>
       <c r="F54" t="s">
         <v>178</v>
       </c>
       <c r="G54" t="s">
+        <v>516</v>
+      </c>
+      <c r="H54" t="s">
+        <v>517</v>
+      </c>
+      <c r="I54" t="s">
         <v>518</v>
-      </c>
-      <c r="H54" t="s">
-        <v>519</v>
-      </c>
-      <c r="I54" t="s">
-        <v>520</v>
       </c>
       <c r="J54" t="s">
         <v>175</v>
       </c>
       <c r="K54" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="L54" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="M54" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="N54" t="s">
         <v>68</v>
       </c>
       <c r="O54" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="P54" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="Q54" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="R54" t="s">
         <v>187</v>
       </c>
       <c r="S54" t="s">
+        <v>653</v>
+      </c>
+      <c r="T54" t="s">
+        <v>654</v>
+      </c>
+      <c r="U54" t="s">
         <v>655</v>
       </c>
-      <c r="T54" t="s">
+      <c r="V54" t="s">
         <v>656</v>
       </c>
-      <c r="U54" t="s">
-        <v>657</v>
-      </c>
-      <c r="V54" t="s">
-        <v>658</v>
-      </c>
       <c r="W54" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.25">
@@ -6217,70 +6215,70 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C55" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D55" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="E55" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="F55" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="G55" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="H55" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="I55" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="J55" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="K55" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="L55" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="M55" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="N55" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="O55" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="P55" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="Q55" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="R55" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="S55" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="T55" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="U55" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="V55" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="W55" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.25">
@@ -6289,70 +6287,70 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
+        <v>521</v>
+      </c>
+      <c r="C56" t="s">
+        <v>522</v>
+      </c>
+      <c r="D56" t="s">
         <v>523</v>
       </c>
-      <c r="C56" t="s">
+      <c r="E56" t="s">
         <v>524</v>
       </c>
-      <c r="D56" t="s">
+      <c r="F56" t="s">
         <v>525</v>
       </c>
-      <c r="E56" t="s">
+      <c r="G56" t="s">
         <v>526</v>
       </c>
-      <c r="F56" t="s">
+      <c r="H56" t="s">
         <v>527</v>
       </c>
-      <c r="G56" t="s">
+      <c r="I56" t="s">
         <v>528</v>
       </c>
-      <c r="H56" t="s">
+      <c r="J56" t="s">
         <v>529</v>
       </c>
-      <c r="I56" t="s">
+      <c r="K56" t="s">
         <v>530</v>
       </c>
-      <c r="J56" t="s">
+      <c r="L56" t="s">
         <v>531</v>
       </c>
-      <c r="K56" t="s">
-        <v>532</v>
-      </c>
-      <c r="L56" t="s">
-        <v>533</v>
-      </c>
       <c r="M56" t="s">
+        <v>658</v>
+      </c>
+      <c r="N56" t="s">
+        <v>659</v>
+      </c>
+      <c r="O56" t="s">
         <v>660</v>
       </c>
-      <c r="N56" t="s">
+      <c r="P56" t="s">
         <v>661</v>
       </c>
-      <c r="O56" t="s">
+      <c r="Q56" t="s">
         <v>662</v>
       </c>
-      <c r="P56" t="s">
+      <c r="R56" t="s">
         <v>663</v>
       </c>
-      <c r="Q56" t="s">
+      <c r="S56" t="s">
         <v>664</v>
       </c>
-      <c r="R56" t="s">
+      <c r="T56" t="s">
         <v>665</v>
       </c>
-      <c r="S56" t="s">
+      <c r="U56" t="s">
         <v>666</v>
       </c>
-      <c r="T56" t="s">
+      <c r="V56" t="s">
         <v>667</v>
       </c>
-      <c r="U56" t="s">
+      <c r="W56" t="s">
         <v>668</v>
-      </c>
-      <c r="V56" t="s">
-        <v>669</v>
-      </c>
-      <c r="W56" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.25">
@@ -6361,70 +6359,70 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C57" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D57" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E57" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="F57" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G57" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="H57" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="I57" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="J57" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="K57" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="L57" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="M57" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="N57" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="O57" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="P57" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="Q57" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="R57" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="S57" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="T57" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="U57" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="V57" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="W57" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.25">
@@ -6433,7 +6431,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.25">
@@ -6442,70 +6440,70 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C59" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D59" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E59" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F59" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G59" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H59" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="I59" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="J59" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K59" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="L59" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M59" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="N59" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="O59" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="P59" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="Q59" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="R59" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="S59" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="T59" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="U59" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="V59" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="W59" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="60" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6514,70 +6512,70 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
+        <v>535</v>
+      </c>
+      <c r="C60" t="s">
+        <v>536</v>
+      </c>
+      <c r="D60" t="s">
         <v>537</v>
       </c>
-      <c r="C60" t="s">
+      <c r="E60" t="s">
         <v>538</v>
       </c>
-      <c r="D60" t="s">
+      <c r="F60" t="s">
         <v>539</v>
       </c>
-      <c r="E60" t="s">
+      <c r="G60" t="s">
         <v>540</v>
       </c>
-      <c r="F60" t="s">
+      <c r="H60" t="s">
         <v>541</v>
       </c>
-      <c r="G60" t="s">
+      <c r="I60" t="s">
         <v>542</v>
       </c>
-      <c r="H60" t="s">
+      <c r="J60" t="s">
         <v>543</v>
       </c>
-      <c r="I60" t="s">
+      <c r="K60" t="s">
         <v>544</v>
       </c>
-      <c r="J60" t="s">
+      <c r="L60" t="s">
         <v>545</v>
       </c>
-      <c r="K60" t="s">
-        <v>546</v>
-      </c>
-      <c r="L60" t="s">
-        <v>547</v>
-      </c>
       <c r="M60" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="N60" s="4" t="s">
+        <v>671</v>
+      </c>
+      <c r="O60" s="4" t="s">
         <v>672</v>
       </c>
-      <c r="N60" s="4" t="s">
+      <c r="P60" s="4" t="s">
         <v>673</v>
       </c>
-      <c r="O60" s="4" t="s">
+      <c r="Q60" s="4" t="s">
         <v>674</v>
       </c>
-      <c r="P60" s="4" t="s">
+      <c r="R60" s="4" t="s">
         <v>675</v>
       </c>
-      <c r="Q60" s="4" t="s">
+      <c r="S60" s="4" t="s">
         <v>676</v>
       </c>
-      <c r="R60" s="4" t="s">
+      <c r="T60" s="4" t="s">
         <v>677</v>
       </c>
-      <c r="S60" s="4" t="s">
+      <c r="U60" s="4" t="s">
         <v>678</v>
       </c>
-      <c r="T60" s="4" t="s">
+      <c r="V60" s="4" t="s">
         <v>679</v>
       </c>
-      <c r="U60" s="4" t="s">
+      <c r="W60" s="4" t="s">
         <v>680</v>
-      </c>
-      <c r="V60" s="4" t="s">
-        <v>681</v>
-      </c>
-      <c r="W60" s="4" t="s">
-        <v>682</v>
       </c>
     </row>
     <row r="61" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6586,37 +6584,37 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
+        <v>681</v>
+      </c>
+      <c r="C61" t="s">
+        <v>682</v>
+      </c>
+      <c r="D61" t="s">
         <v>683</v>
       </c>
-      <c r="C61" t="s">
+      <c r="E61" t="s">
         <v>684</v>
       </c>
-      <c r="D61" t="s">
+      <c r="F61" t="s">
         <v>685</v>
       </c>
-      <c r="E61" t="s">
+      <c r="G61" t="s">
         <v>686</v>
       </c>
-      <c r="F61" t="s">
+      <c r="H61" t="s">
         <v>687</v>
       </c>
-      <c r="G61" t="s">
+      <c r="I61" t="s">
         <v>688</v>
       </c>
-      <c r="H61" t="s">
+      <c r="J61" t="s">
         <v>689</v>
       </c>
-      <c r="I61" t="s">
+      <c r="K61" t="s">
         <v>690</v>
       </c>
-      <c r="J61" t="s">
+      <c r="L61" t="s">
         <v>691</v>
-      </c>
-      <c r="K61" t="s">
-        <v>692</v>
-      </c>
-      <c r="L61" t="s">
-        <v>693</v>
       </c>
       <c r="M61" s="5">
         <v>6493.8</v>
@@ -6658,37 +6656,37 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
+        <v>692</v>
+      </c>
+      <c r="C62" t="s">
+        <v>693</v>
+      </c>
+      <c r="D62" t="s">
         <v>694</v>
       </c>
-      <c r="C62" t="s">
+      <c r="E62" t="s">
         <v>695</v>
       </c>
-      <c r="D62" t="s">
+      <c r="F62" t="s">
         <v>696</v>
       </c>
-      <c r="E62" t="s">
+      <c r="G62" t="s">
         <v>697</v>
       </c>
-      <c r="F62" t="s">
+      <c r="H62" t="s">
+        <v>424</v>
+      </c>
+      <c r="I62" t="s">
         <v>698</v>
       </c>
-      <c r="G62" t="s">
+      <c r="J62" t="s">
         <v>699</v>
       </c>
-      <c r="H62" t="s">
-        <v>426</v>
-      </c>
-      <c r="I62" t="s">
+      <c r="K62" t="s">
         <v>700</v>
       </c>
-      <c r="J62" t="s">
+      <c r="L62" t="s">
         <v>701</v>
-      </c>
-      <c r="K62" t="s">
-        <v>702</v>
-      </c>
-      <c r="L62" t="s">
-        <v>703</v>
       </c>
       <c r="M62" s="5">
         <v>1596.4</v>
@@ -6700,7 +6698,7 @@
         <v>19179.7</v>
       </c>
       <c r="P62" s="5" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="Q62" s="5">
         <v>1085.8</v>
@@ -6712,7 +6710,7 @@
         <v>604.4</v>
       </c>
       <c r="T62" s="5" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="U62" s="5">
         <v>1598.8</v>
@@ -6730,70 +6728,70 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C63" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="D63" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E63" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="F63" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="G63" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="H63" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="I63" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="J63" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="K63" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="L63" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="M63" s="6" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="N63" s="6" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="O63" s="6" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="P63" s="6" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="Q63" s="6" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="R63" s="6" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="S63" s="6" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="T63" s="6" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="U63" s="6" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="V63" s="6" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="W63" s="6" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="64" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
@@ -6802,37 +6800,37 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
+        <v>703</v>
+      </c>
+      <c r="C64" t="s">
+        <v>704</v>
+      </c>
+      <c r="D64" t="s">
         <v>705</v>
       </c>
-      <c r="C64" t="s">
+      <c r="E64" t="s">
         <v>706</v>
       </c>
-      <c r="D64" t="s">
+      <c r="F64" t="s">
         <v>707</v>
       </c>
-      <c r="E64" t="s">
+      <c r="G64" t="s">
         <v>708</v>
       </c>
-      <c r="F64" t="s">
+      <c r="H64" t="s">
         <v>709</v>
       </c>
-      <c r="G64" t="s">
+      <c r="I64" t="s">
         <v>710</v>
       </c>
-      <c r="H64" t="s">
+      <c r="J64" t="s">
         <v>711</v>
       </c>
-      <c r="I64" t="s">
+      <c r="K64" t="s">
         <v>712</v>
       </c>
-      <c r="J64" t="s">
+      <c r="L64" t="s">
         <v>713</v>
-      </c>
-      <c r="K64" t="s">
-        <v>714</v>
-      </c>
-      <c r="L64" t="s">
-        <v>715</v>
       </c>
       <c r="M64" s="7">
         <v>1566.2</v>
@@ -6856,7 +6854,7 @@
         <v>2122.9</v>
       </c>
       <c r="T64" s="7" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="U64" s="7">
         <v>5621.3</v>
@@ -6874,37 +6872,37 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
+        <v>714</v>
+      </c>
+      <c r="C65" t="s">
+        <v>715</v>
+      </c>
+      <c r="D65" t="s">
         <v>716</v>
       </c>
-      <c r="C65" t="s">
+      <c r="E65" t="s">
         <v>717</v>
       </c>
-      <c r="D65" t="s">
+      <c r="F65" t="s">
+        <v>283</v>
+      </c>
+      <c r="G65" t="s">
         <v>718</v>
       </c>
-      <c r="E65" t="s">
+      <c r="H65" t="s">
         <v>719</v>
       </c>
-      <c r="F65" t="s">
-        <v>285</v>
-      </c>
-      <c r="G65" t="s">
+      <c r="I65" t="s">
         <v>720</v>
       </c>
-      <c r="H65" t="s">
+      <c r="J65" t="s">
         <v>721</v>
       </c>
-      <c r="I65" t="s">
+      <c r="K65" t="s">
         <v>722</v>
       </c>
-      <c r="J65" t="s">
+      <c r="L65" t="s">
         <v>723</v>
-      </c>
-      <c r="K65" t="s">
-        <v>724</v>
-      </c>
-      <c r="L65" t="s">
-        <v>725</v>
       </c>
       <c r="M65" s="8">
         <v>358.4</v>
@@ -6946,37 +6944,37 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
+        <v>724</v>
+      </c>
+      <c r="C66" t="s">
+        <v>725</v>
+      </c>
+      <c r="D66" t="s">
         <v>726</v>
       </c>
-      <c r="C66" t="s">
+      <c r="E66" t="s">
+        <v>726</v>
+      </c>
+      <c r="F66" t="s">
         <v>727</v>
       </c>
-      <c r="D66" t="s">
+      <c r="G66" t="s">
         <v>728</v>
       </c>
-      <c r="E66" t="s">
-        <v>728</v>
-      </c>
-      <c r="F66" t="s">
+      <c r="H66" t="s">
         <v>729</v>
       </c>
-      <c r="G66" t="s">
+      <c r="I66" t="s">
         <v>730</v>
       </c>
-      <c r="H66" t="s">
+      <c r="J66" t="s">
         <v>731</v>
       </c>
-      <c r="I66" t="s">
+      <c r="K66" t="s">
         <v>732</v>
       </c>
-      <c r="J66" t="s">
+      <c r="L66" t="s">
         <v>733</v>
-      </c>
-      <c r="K66" t="s">
-        <v>734</v>
-      </c>
-      <c r="L66" t="s">
-        <v>735</v>
       </c>
       <c r="M66" s="8">
         <v>6722</v>
@@ -7018,7 +7016,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="M67" s="8"/>
       <c r="N67" s="8"/>
@@ -7038,61 +7036,61 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
+        <v>735</v>
+      </c>
+      <c r="C68" t="s">
+        <v>736</v>
+      </c>
+      <c r="D68" t="s">
         <v>737</v>
       </c>
-      <c r="C68" t="s">
+      <c r="E68" t="s">
+        <v>291</v>
+      </c>
+      <c r="F68" t="s">
+        <v>291</v>
+      </c>
+      <c r="G68" t="s">
+        <v>291</v>
+      </c>
+      <c r="H68" t="s">
+        <v>291</v>
+      </c>
+      <c r="I68" t="s">
         <v>738</v>
       </c>
-      <c r="D68" t="s">
+      <c r="J68" t="s">
         <v>739</v>
       </c>
-      <c r="E68" t="s">
-        <v>293</v>
-      </c>
-      <c r="F68" t="s">
-        <v>293</v>
-      </c>
-      <c r="G68" t="s">
-        <v>293</v>
-      </c>
-      <c r="H68" t="s">
-        <v>293</v>
-      </c>
-      <c r="I68" t="s">
+      <c r="K68" t="s">
         <v>740</v>
       </c>
-      <c r="J68" t="s">
+      <c r="L68" t="s">
         <v>741</v>
-      </c>
-      <c r="K68" t="s">
-        <v>742</v>
-      </c>
-      <c r="L68" t="s">
-        <v>743</v>
       </c>
       <c r="M68" s="8">
         <v>450</v>
       </c>
       <c r="N68" s="8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="O68" s="8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="P68" s="8">
         <v>182</v>
       </c>
       <c r="Q68" s="8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="R68" s="8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="S68" s="8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="T68" s="8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="U68" s="8">
         <v>80</v>
@@ -7101,7 +7099,7 @@
         <v>140</v>
       </c>
       <c r="W68" s="8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.25">
@@ -7110,58 +7108,58 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
+        <v>742</v>
+      </c>
+      <c r="C69" t="s">
+        <v>743</v>
+      </c>
+      <c r="D69" t="s">
+        <v>291</v>
+      </c>
+      <c r="E69" t="s">
+        <v>291</v>
+      </c>
+      <c r="F69" t="s">
+        <v>291</v>
+      </c>
+      <c r="G69" t="s">
+        <v>291</v>
+      </c>
+      <c r="H69" t="s">
+        <v>291</v>
+      </c>
+      <c r="I69" t="s">
         <v>744</v>
       </c>
-      <c r="C69" t="s">
+      <c r="J69" t="s">
+        <v>291</v>
+      </c>
+      <c r="K69" t="s">
         <v>745</v>
       </c>
-      <c r="D69" t="s">
-        <v>293</v>
-      </c>
-      <c r="E69" t="s">
-        <v>293</v>
-      </c>
-      <c r="F69" t="s">
-        <v>293</v>
-      </c>
-      <c r="G69" t="s">
-        <v>293</v>
-      </c>
-      <c r="H69" t="s">
-        <v>293</v>
-      </c>
-      <c r="I69" t="s">
-        <v>746</v>
-      </c>
-      <c r="J69" t="s">
-        <v>293</v>
-      </c>
-      <c r="K69" t="s">
-        <v>747</v>
-      </c>
       <c r="L69" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M69" s="8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="N69" s="8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="O69" s="8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="P69" s="8">
         <v>1050</v>
       </c>
       <c r="Q69" s="8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="R69" s="8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="S69" s="8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="T69" s="8">
         <v>600</v>
@@ -7170,10 +7168,10 @@
         <v>2200</v>
       </c>
       <c r="V69" s="8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="W69" s="8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="70" spans="1:23" x14ac:dyDescent="0.25">
@@ -7182,70 +7180,70 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C70" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D70" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E70" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F70" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G70" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H70" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="I70" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="J70" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K70" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="L70" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M70" s="8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="N70" s="8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="O70" s="8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="P70" s="8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="Q70" s="8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="R70" s="8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="S70" s="8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="T70" s="8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="U70" s="8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="V70" s="8">
         <v>63</v>
       </c>
       <c r="W70" s="8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="71" spans="1:23" x14ac:dyDescent="0.25">
@@ -7254,19 +7252,19 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="C71" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="D71" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E71" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F71" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G71" t="s">
         <v>172</v>
@@ -7275,49 +7273,49 @@
         <v>172</v>
       </c>
       <c r="I71" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="J71" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="K71" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="L71" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M71" s="8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="N71" s="8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="O71" s="8">
         <v>850</v>
       </c>
       <c r="P71" s="8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="Q71" s="8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="R71" s="8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="S71" s="8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="T71" s="8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="U71" s="8">
         <v>1200</v>
       </c>
       <c r="V71" s="8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="W71" s="8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="72" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7326,37 +7324,37 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C72" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="D72" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="E72" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="F72" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="G72" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="H72" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="I72" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="J72" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="K72" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="L72" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="M72" s="6"/>
       <c r="N72" s="6"/>
@@ -7376,37 +7374,37 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
+        <v>750</v>
+      </c>
+      <c r="C73" t="s">
+        <v>751</v>
+      </c>
+      <c r="D73" t="s">
         <v>752</v>
       </c>
-      <c r="C73" t="s">
+      <c r="E73" t="s">
         <v>753</v>
       </c>
-      <c r="D73" t="s">
+      <c r="F73" t="s">
         <v>754</v>
       </c>
-      <c r="E73" t="s">
+      <c r="G73" t="s">
         <v>755</v>
       </c>
-      <c r="F73" t="s">
+      <c r="H73" t="s">
         <v>756</v>
       </c>
-      <c r="G73" t="s">
+      <c r="I73" t="s">
         <v>757</v>
       </c>
-      <c r="H73" t="s">
+      <c r="J73" t="s">
         <v>758</v>
       </c>
-      <c r="I73" t="s">
+      <c r="K73" t="s">
         <v>759</v>
       </c>
-      <c r="J73" t="s">
+      <c r="L73" t="s">
         <v>760</v>
-      </c>
-      <c r="K73" t="s">
-        <v>761</v>
-      </c>
-      <c r="L73" t="s">
-        <v>762</v>
       </c>
       <c r="M73" s="7">
         <v>24526.400000000001</v>
@@ -7448,37 +7446,37 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
+        <v>761</v>
+      </c>
+      <c r="C74" t="s">
+        <v>762</v>
+      </c>
+      <c r="D74" t="s">
         <v>763</v>
       </c>
-      <c r="C74" t="s">
+      <c r="E74" t="s">
         <v>764</v>
       </c>
-      <c r="D74" t="s">
+      <c r="F74" t="s">
         <v>765</v>
       </c>
-      <c r="E74" t="s">
+      <c r="G74" t="s">
         <v>766</v>
       </c>
-      <c r="F74" t="s">
+      <c r="H74" t="s">
         <v>767</v>
       </c>
-      <c r="G74" t="s">
+      <c r="I74" t="s">
         <v>768</v>
       </c>
-      <c r="H74" t="s">
+      <c r="J74" t="s">
+        <v>567</v>
+      </c>
+      <c r="K74" t="s">
         <v>769</v>
       </c>
-      <c r="I74" t="s">
+      <c r="L74" t="s">
         <v>770</v>
-      </c>
-      <c r="J74" t="s">
-        <v>569</v>
-      </c>
-      <c r="K74" t="s">
-        <v>771</v>
-      </c>
-      <c r="L74" t="s">
-        <v>772</v>
       </c>
       <c r="M74" s="8">
         <v>112.4</v>
@@ -7520,37 +7518,37 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
+        <v>771</v>
+      </c>
+      <c r="C75" t="s">
+        <v>772</v>
+      </c>
+      <c r="D75" t="s">
         <v>773</v>
       </c>
-      <c r="C75" t="s">
+      <c r="E75" t="s">
         <v>774</v>
       </c>
-      <c r="D75" t="s">
+      <c r="F75" t="s">
         <v>775</v>
       </c>
-      <c r="E75" t="s">
+      <c r="G75" t="s">
         <v>776</v>
       </c>
-      <c r="F75" t="s">
+      <c r="H75" t="s">
         <v>777</v>
       </c>
-      <c r="G75" t="s">
+      <c r="I75" t="s">
         <v>778</v>
-      </c>
-      <c r="H75" t="s">
-        <v>779</v>
-      </c>
-      <c r="I75" t="s">
-        <v>780</v>
       </c>
       <c r="J75">
         <v>1600</v>
       </c>
       <c r="K75" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="L75" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="M75" s="8">
         <v>1616.9</v>
@@ -7592,40 +7590,40 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
+        <v>781</v>
+      </c>
+      <c r="C76" t="s">
+        <v>782</v>
+      </c>
+      <c r="D76" t="s">
         <v>783</v>
       </c>
-      <c r="C76" t="s">
+      <c r="E76" t="s">
         <v>784</v>
       </c>
-      <c r="D76" t="s">
+      <c r="F76" t="s">
         <v>785</v>
       </c>
-      <c r="E76" t="s">
+      <c r="G76" t="s">
         <v>786</v>
       </c>
-      <c r="F76" t="s">
+      <c r="H76" t="s">
         <v>787</v>
       </c>
-      <c r="G76" t="s">
+      <c r="I76" t="s">
         <v>788</v>
       </c>
-      <c r="H76" t="s">
+      <c r="J76" t="s">
+        <v>424</v>
+      </c>
+      <c r="K76" t="s">
         <v>789</v>
       </c>
-      <c r="I76" t="s">
+      <c r="L76" t="s">
         <v>790</v>
       </c>
-      <c r="J76" t="s">
-        <v>426</v>
-      </c>
-      <c r="K76" t="s">
+      <c r="M76" s="9" t="s">
         <v>791</v>
-      </c>
-      <c r="L76" t="s">
-        <v>792</v>
-      </c>
-      <c r="M76" s="9" t="s">
-        <v>793</v>
       </c>
       <c r="N76" s="9">
         <v>119.3</v>
@@ -7640,7 +7638,7 @@
         <v>114.5</v>
       </c>
       <c r="R76" s="9" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="S76" s="9">
         <v>87.6</v>

--- a/migforecasting/cities17-18/1/d11.xlsx
+++ b/migforecasting/cities17-18/1/d11.xlsx
@@ -711,10 +711,6 @@
     <t>Реутов</t>
   </si>
   <si>
-    <t>Сергиев 
-Посад</t>
-  </si>
-  <si>
     <t>Серпухов</t>
   </si>
   <si>
@@ -2478,6 +2474,9 @@
   </si>
   <si>
     <t>Орехово-Зуево</t>
+  </si>
+  <si>
+    <t>Сергиев Посад</t>
   </si>
 </sst>
 </file>
@@ -2922,7 +2921,7 @@
   <dimension ref="A1:W87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3007,7 +3006,7 @@
         <v>219</v>
       </c>
       <c r="N2" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="O2" t="s">
         <v>220</v>
@@ -3022,19 +3021,19 @@
         <v>223</v>
       </c>
       <c r="S2" t="s">
+        <v>793</v>
+      </c>
+      <c r="T2" t="s">
         <v>224</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>225</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>226</v>
       </c>
-      <c r="V2" t="s">
-        <v>227</v>
-      </c>
       <c r="W2" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
@@ -3184,37 +3183,37 @@
         <v>21</v>
       </c>
       <c r="M5" t="s">
+        <v>227</v>
+      </c>
+      <c r="N5" t="s">
         <v>228</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>229</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>230</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>231</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>232</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>233</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>234</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>235</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>236</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>237</v>
-      </c>
-      <c r="W5" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
@@ -3269,28 +3268,28 @@
         <v>25</v>
       </c>
       <c r="O7" t="s">
+        <v>238</v>
+      </c>
+      <c r="P7" t="s">
         <v>239</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>240</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>241</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>242</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>243</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>244</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>245</v>
-      </c>
-      <c r="V7" t="s">
-        <v>246</v>
       </c>
       <c r="W7" t="s">
         <v>57</v>
@@ -3334,13 +3333,13 @@
         <v>43</v>
       </c>
       <c r="M8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N8" t="s">
         <v>77</v>
       </c>
       <c r="O8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="P8" t="s">
         <v>179</v>
@@ -3349,22 +3348,22 @@
         <v>70</v>
       </c>
       <c r="R8" t="s">
+        <v>248</v>
+      </c>
+      <c r="S8" t="s">
         <v>249</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>250</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
+        <v>242</v>
+      </c>
+      <c r="V8" t="s">
         <v>251</v>
       </c>
-      <c r="U8" t="s">
-        <v>243</v>
-      </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>252</v>
-      </c>
-      <c r="W8" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
@@ -3405,37 +3404,37 @@
         <v>54</v>
       </c>
       <c r="M9" t="s">
+        <v>253</v>
+      </c>
+      <c r="N9" t="s">
         <v>254</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>255</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>256</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>257</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>258</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>259</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
+        <v>257</v>
+      </c>
+      <c r="U9" t="s">
         <v>260</v>
       </c>
-      <c r="T9" t="s">
-        <v>258</v>
-      </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>261</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>262</v>
-      </c>
-      <c r="W9" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
@@ -3476,37 +3475,37 @@
         <v>57</v>
       </c>
       <c r="M10" t="s">
+        <v>263</v>
+      </c>
+      <c r="N10" t="s">
         <v>264</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>265</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>266</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>267</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>268</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>269</v>
       </c>
-      <c r="S10" t="s">
+      <c r="T10" t="s">
         <v>270</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
         <v>271</v>
       </c>
-      <c r="U10" t="s">
+      <c r="V10" t="s">
         <v>272</v>
       </c>
-      <c r="V10" t="s">
-        <v>273</v>
-      </c>
       <c r="W10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
@@ -3547,37 +3546,37 @@
         <v>74</v>
       </c>
       <c r="M11" t="s">
+        <v>273</v>
+      </c>
+      <c r="N11" t="s">
         <v>274</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>275</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>276</v>
       </c>
-      <c r="P11" t="s">
-        <v>277</v>
-      </c>
       <c r="Q11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="R11" t="s">
         <v>38</v>
       </c>
       <c r="S11" t="s">
+        <v>277</v>
+      </c>
+      <c r="T11" t="s">
         <v>278</v>
       </c>
-      <c r="T11" t="s">
+      <c r="U11" t="s">
         <v>279</v>
-      </c>
-      <c r="U11" t="s">
-        <v>280</v>
       </c>
       <c r="V11" t="s">
         <v>27</v>
       </c>
       <c r="W11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
@@ -3618,25 +3617,25 @@
         <v>82</v>
       </c>
       <c r="M12" t="s">
+        <v>281</v>
+      </c>
+      <c r="N12" t="s">
         <v>282</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
+        <v>246</v>
+      </c>
+      <c r="P12" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q12" t="s">
         <v>283</v>
       </c>
-      <c r="O12" t="s">
-        <v>247</v>
-      </c>
-      <c r="P12" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
+        <v>248</v>
+      </c>
+      <c r="S12" t="s">
         <v>284</v>
-      </c>
-      <c r="R12" t="s">
-        <v>249</v>
-      </c>
-      <c r="S12" t="s">
-        <v>285</v>
       </c>
       <c r="T12" t="s">
         <v>82</v>
@@ -3645,10 +3644,10 @@
         <v>43</v>
       </c>
       <c r="V12" t="s">
+        <v>285</v>
+      </c>
+      <c r="W12" t="s">
         <v>286</v>
-      </c>
-      <c r="W12" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
@@ -3689,34 +3688,34 @@
         <v>93</v>
       </c>
       <c r="M13" t="s">
+        <v>287</v>
+      </c>
+      <c r="N13" t="s">
         <v>288</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>289</v>
       </c>
-      <c r="O13" t="s">
-        <v>290</v>
-      </c>
       <c r="P13" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q13" t="s">
         <v>291</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>292</v>
-      </c>
-      <c r="R13" t="s">
-        <v>293</v>
       </c>
       <c r="S13" t="s">
         <v>87</v>
       </c>
       <c r="T13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="U13" t="s">
         <v>89</v>
       </c>
       <c r="V13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="W13" t="s">
         <v>87</v>
@@ -3760,37 +3759,37 @@
         <v>104</v>
       </c>
       <c r="M14" t="s">
+        <v>293</v>
+      </c>
+      <c r="N14" t="s">
         <v>294</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>295</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>296</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>297</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>298</v>
       </c>
-      <c r="R14" t="s">
+      <c r="S14" t="s">
         <v>299</v>
       </c>
-      <c r="S14" t="s">
+      <c r="T14" t="s">
         <v>300</v>
       </c>
-      <c r="T14" t="s">
+      <c r="U14" t="s">
         <v>301</v>
       </c>
-      <c r="U14" t="s">
+      <c r="V14" t="s">
         <v>302</v>
       </c>
-      <c r="V14" t="s">
+      <c r="W14" t="s">
         <v>303</v>
-      </c>
-      <c r="W14" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
@@ -3872,34 +3871,34 @@
         <v>26</v>
       </c>
       <c r="N16" t="s">
+        <v>304</v>
+      </c>
+      <c r="O16" t="s">
         <v>305</v>
-      </c>
-      <c r="O16" t="s">
-        <v>306</v>
       </c>
       <c r="P16" t="s">
         <v>184</v>
       </c>
       <c r="Q16" t="s">
+        <v>306</v>
+      </c>
+      <c r="R16" t="s">
+        <v>284</v>
+      </c>
+      <c r="S16" t="s">
         <v>307</v>
       </c>
-      <c r="R16" t="s">
-        <v>285</v>
-      </c>
-      <c r="S16" t="s">
+      <c r="T16" t="s">
         <v>308</v>
       </c>
-      <c r="T16" t="s">
+      <c r="U16" t="s">
         <v>309</v>
-      </c>
-      <c r="U16" t="s">
-        <v>310</v>
       </c>
       <c r="V16" t="s">
         <v>174</v>
       </c>
       <c r="W16" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
@@ -3943,10 +3942,10 @@
         <v>121</v>
       </c>
       <c r="N17" t="s">
+        <v>311</v>
+      </c>
+      <c r="O17" t="s">
         <v>312</v>
-      </c>
-      <c r="O17" t="s">
-        <v>313</v>
       </c>
       <c r="P17" t="s">
         <v>121</v>
@@ -3958,19 +3957,19 @@
         <v>121</v>
       </c>
       <c r="S17" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="T17" t="s">
         <v>121</v>
       </c>
       <c r="U17" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="V17" t="s">
         <v>121</v>
       </c>
       <c r="W17" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
@@ -4014,10 +4013,10 @@
         <v>481</v>
       </c>
       <c r="N18" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="O18" s="2" t="s">
         <v>317</v>
-      </c>
-      <c r="O18" s="2" t="s">
-        <v>318</v>
       </c>
       <c r="P18" s="2">
         <v>365</v>
@@ -4029,19 +4028,19 @@
         <v>370</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="T18" s="2">
         <v>437</v>
       </c>
       <c r="U18" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="V18" s="2">
         <v>437</v>
       </c>
       <c r="W18" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
@@ -4082,37 +4081,37 @@
         <v>135</v>
       </c>
       <c r="M19" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="N19" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="O19" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="P19" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="Q19" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="R19" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="S19" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="T19" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="U19" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="V19" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="W19" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
@@ -4153,37 +4152,37 @@
         <v>146</v>
       </c>
       <c r="M20" t="s">
+        <v>322</v>
+      </c>
+      <c r="N20" t="s">
         <v>323</v>
       </c>
-      <c r="N20" t="s">
+      <c r="O20" t="s">
         <v>324</v>
       </c>
-      <c r="O20" t="s">
+      <c r="P20" t="s">
         <v>325</v>
       </c>
-      <c r="P20" t="s">
+      <c r="Q20" t="s">
         <v>326</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="R20" t="s">
         <v>327</v>
       </c>
-      <c r="R20" t="s">
+      <c r="S20" t="s">
         <v>328</v>
       </c>
-      <c r="S20" t="s">
+      <c r="T20" t="s">
         <v>329</v>
       </c>
-      <c r="T20" t="s">
+      <c r="U20" t="s">
         <v>330</v>
       </c>
-      <c r="U20" t="s">
+      <c r="V20" t="s">
         <v>331</v>
       </c>
-      <c r="V20" t="s">
+      <c r="W20" t="s">
         <v>332</v>
-      </c>
-      <c r="W20" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
@@ -4224,10 +4223,10 @@
         <v>121</v>
       </c>
       <c r="M21" t="s">
+        <v>333</v>
+      </c>
+      <c r="N21" t="s">
         <v>334</v>
-      </c>
-      <c r="N21" t="s">
-        <v>335</v>
       </c>
       <c r="O21" t="s">
         <v>121</v>
@@ -4242,7 +4241,7 @@
         <v>121</v>
       </c>
       <c r="S21" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="T21" t="s">
         <v>121</v>
@@ -4254,7 +4253,7 @@
         <v>121</v>
       </c>
       <c r="W21" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
@@ -4298,34 +4297,34 @@
         <v>130</v>
       </c>
       <c r="N22" t="s">
+        <v>337</v>
+      </c>
+      <c r="O22" t="s">
+        <v>130</v>
+      </c>
+      <c r="P22" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>130</v>
+      </c>
+      <c r="R22" t="s">
+        <v>130</v>
+      </c>
+      <c r="S22" t="s">
         <v>338</v>
       </c>
-      <c r="O22" t="s">
-        <v>130</v>
-      </c>
-      <c r="P22" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>130</v>
-      </c>
-      <c r="R22" t="s">
-        <v>130</v>
-      </c>
-      <c r="S22" t="s">
+      <c r="T22" t="s">
+        <v>130</v>
+      </c>
+      <c r="U22" t="s">
+        <v>130</v>
+      </c>
+      <c r="V22" t="s">
+        <v>130</v>
+      </c>
+      <c r="W22" t="s">
         <v>339</v>
-      </c>
-      <c r="T22" t="s">
-        <v>130</v>
-      </c>
-      <c r="U22" t="s">
-        <v>130</v>
-      </c>
-      <c r="V22" t="s">
-        <v>130</v>
-      </c>
-      <c r="W22" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
@@ -4366,37 +4365,37 @@
         <v>171</v>
       </c>
       <c r="M23" t="s">
+        <v>340</v>
+      </c>
+      <c r="N23" t="s">
         <v>341</v>
       </c>
-      <c r="N23" t="s">
+      <c r="O23" t="s">
         <v>342</v>
       </c>
-      <c r="O23" t="s">
+      <c r="P23" t="s">
         <v>343</v>
       </c>
-      <c r="P23" t="s">
+      <c r="Q23" t="s">
         <v>344</v>
       </c>
-      <c r="Q23" t="s">
+      <c r="R23" t="s">
         <v>345</v>
       </c>
-      <c r="R23" t="s">
+      <c r="S23" t="s">
         <v>346</v>
-      </c>
-      <c r="S23" t="s">
-        <v>347</v>
       </c>
       <c r="T23" t="s">
         <v>110</v>
       </c>
       <c r="U23" t="s">
+        <v>347</v>
+      </c>
+      <c r="V23" t="s">
         <v>348</v>
       </c>
-      <c r="V23" t="s">
+      <c r="W23" t="s">
         <v>349</v>
-      </c>
-      <c r="W23" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
@@ -4437,34 +4436,34 @@
         <v>187</v>
       </c>
       <c r="M24" t="s">
+        <v>357</v>
+      </c>
+      <c r="N24" t="s">
         <v>358</v>
       </c>
-      <c r="N24" t="s">
+      <c r="O24" t="s">
         <v>359</v>
       </c>
-      <c r="O24" t="s">
+      <c r="P24" t="s">
         <v>360</v>
       </c>
-      <c r="P24" t="s">
+      <c r="Q24" t="s">
+        <v>351</v>
+      </c>
+      <c r="R24" t="s">
         <v>361</v>
       </c>
-      <c r="Q24" t="s">
-        <v>352</v>
-      </c>
-      <c r="R24" t="s">
+      <c r="S24" t="s">
         <v>362</v>
       </c>
-      <c r="S24" t="s">
+      <c r="T24" t="s">
+        <v>355</v>
+      </c>
+      <c r="U24" t="s">
         <v>363</v>
       </c>
-      <c r="T24" t="s">
-        <v>356</v>
-      </c>
-      <c r="U24" t="s">
-        <v>364</v>
-      </c>
       <c r="V24" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="W24" t="s">
         <v>177</v>
@@ -4508,28 +4507,28 @@
         <v>182</v>
       </c>
       <c r="M25" t="s">
+        <v>350</v>
+      </c>
+      <c r="N25" t="s">
         <v>351</v>
       </c>
-      <c r="N25" t="s">
+      <c r="O25" t="s">
         <v>352</v>
       </c>
-      <c r="O25" t="s">
+      <c r="P25" t="s">
         <v>353</v>
       </c>
-      <c r="P25" t="s">
+      <c r="Q25" t="s">
         <v>354</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>355</v>
       </c>
       <c r="R25" t="s">
         <v>187</v>
       </c>
       <c r="S25" t="s">
+        <v>355</v>
+      </c>
+      <c r="T25" t="s">
         <v>356</v>
-      </c>
-      <c r="T25" t="s">
-        <v>357</v>
       </c>
       <c r="U25" t="s">
         <v>72</v>
@@ -4590,10 +4589,10 @@
         <v>121</v>
       </c>
       <c r="N27" t="s">
+        <v>364</v>
+      </c>
+      <c r="O27" t="s">
         <v>365</v>
-      </c>
-      <c r="O27" t="s">
-        <v>366</v>
       </c>
       <c r="P27" t="s">
         <v>121</v>
@@ -4602,22 +4601,22 @@
         <v>121</v>
       </c>
       <c r="R27" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="S27" t="s">
         <v>121</v>
       </c>
       <c r="T27" t="s">
+        <v>367</v>
+      </c>
+      <c r="U27" t="s">
         <v>368</v>
-      </c>
-      <c r="U27" t="s">
-        <v>369</v>
       </c>
       <c r="V27" t="s">
         <v>121</v>
       </c>
       <c r="W27" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
@@ -4661,19 +4660,19 @@
         <v>130</v>
       </c>
       <c r="N28" t="s">
+        <v>370</v>
+      </c>
+      <c r="O28" t="s">
         <v>371</v>
       </c>
-      <c r="O28" t="s">
+      <c r="P28" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>130</v>
+      </c>
+      <c r="R28" t="s">
         <v>372</v>
-      </c>
-      <c r="P28" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>130</v>
-      </c>
-      <c r="R28" t="s">
-        <v>373</v>
       </c>
       <c r="S28" t="s">
         <v>130</v>
@@ -4682,13 +4681,13 @@
         <v>202</v>
       </c>
       <c r="U28" t="s">
+        <v>373</v>
+      </c>
+      <c r="V28" t="s">
+        <v>130</v>
+      </c>
+      <c r="W28" t="s">
         <v>374</v>
-      </c>
-      <c r="V28" t="s">
-        <v>130</v>
-      </c>
-      <c r="W28" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
@@ -4740,10 +4739,10 @@
         <v>121</v>
       </c>
       <c r="N30" t="s">
+        <v>375</v>
+      </c>
+      <c r="O30" t="s">
         <v>376</v>
-      </c>
-      <c r="O30" t="s">
-        <v>377</v>
       </c>
       <c r="P30" t="s">
         <v>121</v>
@@ -4752,22 +4751,22 @@
         <v>121</v>
       </c>
       <c r="R30" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="S30" t="s">
         <v>121</v>
       </c>
       <c r="T30" t="s">
+        <v>378</v>
+      </c>
+      <c r="U30" t="s">
         <v>379</v>
-      </c>
-      <c r="U30" t="s">
-        <v>380</v>
       </c>
       <c r="V30" t="s">
         <v>121</v>
       </c>
       <c r="W30" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
@@ -4811,10 +4810,10 @@
         <v>130</v>
       </c>
       <c r="N31" t="s">
+        <v>381</v>
+      </c>
+      <c r="O31" t="s">
         <v>382</v>
-      </c>
-      <c r="O31" t="s">
-        <v>383</v>
       </c>
       <c r="P31" t="s">
         <v>130</v>
@@ -4829,10 +4828,10 @@
         <v>130</v>
       </c>
       <c r="T31" t="s">
+        <v>383</v>
+      </c>
+      <c r="U31" t="s">
         <v>384</v>
-      </c>
-      <c r="U31" t="s">
-        <v>385</v>
       </c>
       <c r="V31" t="s">
         <v>130</v>
@@ -4917,7 +4916,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
@@ -4925,25 +4924,25 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
+        <v>386</v>
+      </c>
+      <c r="C34" t="s">
         <v>387</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>388</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>389</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>390</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>391</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>392</v>
-      </c>
-      <c r="H34" t="s">
-        <v>393</v>
       </c>
       <c r="I34" t="s">
         <v>121</v>
@@ -4952,7 +4951,7 @@
         <v>121</v>
       </c>
       <c r="K34" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="L34" t="s">
         <v>121</v>
@@ -4961,10 +4960,10 @@
         <v>121</v>
       </c>
       <c r="N34" t="s">
+        <v>545</v>
+      </c>
+      <c r="O34" t="s">
         <v>546</v>
-      </c>
-      <c r="O34" t="s">
-        <v>547</v>
       </c>
       <c r="P34" t="s">
         <v>121</v>
@@ -4973,22 +4972,22 @@
         <v>121</v>
       </c>
       <c r="R34" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="S34" t="s">
+        <v>547</v>
+      </c>
+      <c r="T34" t="s">
         <v>548</v>
       </c>
-      <c r="T34" t="s">
+      <c r="U34" t="s">
         <v>549</v>
-      </c>
-      <c r="U34" t="s">
-        <v>550</v>
       </c>
       <c r="V34" t="s">
         <v>121</v>
       </c>
       <c r="W34" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
@@ -4997,35 +4996,35 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
+        <v>393</v>
+      </c>
+      <c r="C35" t="s">
         <v>394</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>395</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>396</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>397</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>398</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>399</v>
       </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
+        <v>130</v>
+      </c>
+      <c r="J35" t="s">
+        <v>130</v>
+      </c>
+      <c r="K35" t="s">
         <v>400</v>
       </c>
-      <c r="I35" t="s">
-        <v>130</v>
-      </c>
-      <c r="J35" t="s">
-        <v>130</v>
-      </c>
-      <c r="K35" t="s">
-        <v>401</v>
-      </c>
       <c r="L35" t="s">
         <v>130</v>
       </c>
@@ -5033,34 +5032,34 @@
         <v>130</v>
       </c>
       <c r="N35" t="s">
+        <v>551</v>
+      </c>
+      <c r="O35" t="s">
         <v>552</v>
       </c>
-      <c r="O35" t="s">
+      <c r="P35" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>130</v>
+      </c>
+      <c r="R35" t="s">
         <v>553</v>
       </c>
-      <c r="P35" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>130</v>
-      </c>
-      <c r="R35" t="s">
+      <c r="S35" t="s">
+        <v>130</v>
+      </c>
+      <c r="T35" t="s">
         <v>554</v>
       </c>
-      <c r="S35" t="s">
-        <v>130</v>
-      </c>
-      <c r="T35" t="s">
+      <c r="U35" t="s">
         <v>555</v>
       </c>
-      <c r="U35" t="s">
+      <c r="V35" t="s">
+        <v>130</v>
+      </c>
+      <c r="W35" t="s">
         <v>556</v>
-      </c>
-      <c r="V35" t="s">
-        <v>130</v>
-      </c>
-      <c r="W35" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
@@ -5069,7 +5068,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C36" t="s">
         <v>130</v>
@@ -5141,7 +5140,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.25">
@@ -5150,25 +5149,25 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C38" t="s">
+        <v>403</v>
+      </c>
+      <c r="D38" t="s">
         <v>404</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>405</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
+        <v>392</v>
+      </c>
+      <c r="G38" t="s">
         <v>406</v>
       </c>
-      <c r="F38" t="s">
-        <v>393</v>
-      </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>407</v>
-      </c>
-      <c r="H38" t="s">
-        <v>408</v>
       </c>
       <c r="I38" t="s">
         <v>121</v>
@@ -5177,7 +5176,7 @@
         <v>121</v>
       </c>
       <c r="K38" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="L38" t="s">
         <v>121</v>
@@ -5186,10 +5185,10 @@
         <v>121</v>
       </c>
       <c r="N38" t="s">
+        <v>557</v>
+      </c>
+      <c r="O38" t="s">
         <v>558</v>
-      </c>
-      <c r="O38" t="s">
-        <v>559</v>
       </c>
       <c r="P38" t="s">
         <v>121</v>
@@ -5198,22 +5197,22 @@
         <v>121</v>
       </c>
       <c r="R38" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="S38" t="s">
         <v>121</v>
       </c>
       <c r="T38" t="s">
+        <v>560</v>
+      </c>
+      <c r="U38" t="s">
         <v>561</v>
-      </c>
-      <c r="U38" t="s">
-        <v>562</v>
       </c>
       <c r="V38" t="s">
         <v>121</v>
       </c>
       <c r="W38" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.25">
@@ -5225,32 +5224,32 @@
         <v>197</v>
       </c>
       <c r="C39" t="s">
+        <v>409</v>
+      </c>
+      <c r="D39" t="s">
         <v>410</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>411</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>412</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>413</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>414</v>
       </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
+        <v>130</v>
+      </c>
+      <c r="J39" t="s">
+        <v>130</v>
+      </c>
+      <c r="K39" t="s">
         <v>415</v>
       </c>
-      <c r="I39" t="s">
-        <v>130</v>
-      </c>
-      <c r="J39" t="s">
-        <v>130</v>
-      </c>
-      <c r="K39" t="s">
-        <v>416</v>
-      </c>
       <c r="L39" t="s">
         <v>130</v>
       </c>
@@ -5258,34 +5257,34 @@
         <v>130</v>
       </c>
       <c r="N39" t="s">
+        <v>562</v>
+      </c>
+      <c r="O39" t="s">
         <v>563</v>
       </c>
-      <c r="O39" t="s">
+      <c r="P39" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>130</v>
+      </c>
+      <c r="R39" t="s">
         <v>564</v>
       </c>
-      <c r="P39" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>130</v>
-      </c>
-      <c r="R39" t="s">
+      <c r="S39" t="s">
+        <v>130</v>
+      </c>
+      <c r="T39" t="s">
         <v>565</v>
       </c>
-      <c r="S39" t="s">
-        <v>130</v>
-      </c>
-      <c r="T39" t="s">
+      <c r="U39" t="s">
         <v>566</v>
       </c>
-      <c r="U39" t="s">
+      <c r="V39" t="s">
+        <v>130</v>
+      </c>
+      <c r="W39" t="s">
         <v>567</v>
-      </c>
-      <c r="V39" t="s">
-        <v>130</v>
-      </c>
-      <c r="W39" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.25">
@@ -5294,70 +5293,70 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
+        <v>416</v>
+      </c>
+      <c r="C40" t="s">
         <v>417</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
+        <v>290</v>
+      </c>
+      <c r="E40" t="s">
         <v>418</v>
       </c>
-      <c r="D40" t="s">
-        <v>291</v>
-      </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>419</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>420</v>
       </c>
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>421</v>
       </c>
-      <c r="H40" t="s">
+      <c r="I40" t="s">
         <v>422</v>
       </c>
-      <c r="I40" t="s">
+      <c r="J40" t="s">
         <v>423</v>
       </c>
-      <c r="J40" t="s">
+      <c r="K40" t="s">
         <v>424</v>
       </c>
-      <c r="K40" t="s">
+      <c r="L40" t="s">
         <v>425</v>
       </c>
-      <c r="L40" t="s">
-        <v>426</v>
-      </c>
       <c r="M40" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="N40" t="s">
+        <v>568</v>
+      </c>
+      <c r="O40" t="s">
         <v>569</v>
       </c>
-      <c r="O40" t="s">
+      <c r="P40" t="s">
         <v>570</v>
       </c>
-      <c r="P40" t="s">
+      <c r="Q40" t="s">
         <v>571</v>
       </c>
-      <c r="Q40" t="s">
+      <c r="R40" t="s">
+        <v>423</v>
+      </c>
+      <c r="S40" t="s">
         <v>572</v>
       </c>
-      <c r="R40" t="s">
-        <v>424</v>
-      </c>
-      <c r="S40" t="s">
+      <c r="T40" t="s">
         <v>573</v>
       </c>
-      <c r="T40" t="s">
+      <c r="U40" t="s">
         <v>574</v>
       </c>
-      <c r="U40" t="s">
+      <c r="V40" t="s">
         <v>575</v>
       </c>
-      <c r="V40" t="s">
+      <c r="W40" t="s">
         <v>576</v>
-      </c>
-      <c r="W40" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.25">
@@ -5366,7 +5365,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.25">
@@ -5375,70 +5374,70 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
+        <v>427</v>
+      </c>
+      <c r="C42" t="s">
         <v>428</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
+        <v>290</v>
+      </c>
+      <c r="E42" t="s">
         <v>429</v>
       </c>
-      <c r="D42" t="s">
-        <v>291</v>
-      </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>430</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>431</v>
       </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>432</v>
       </c>
-      <c r="H42" t="s">
+      <c r="I42" t="s">
         <v>433</v>
       </c>
-      <c r="I42" t="s">
+      <c r="J42" t="s">
+        <v>130</v>
+      </c>
+      <c r="K42" t="s">
         <v>434</v>
       </c>
-      <c r="J42" t="s">
-        <v>130</v>
-      </c>
-      <c r="K42" t="s">
+      <c r="L42" t="s">
         <v>435</v>
       </c>
-      <c r="L42" t="s">
-        <v>436</v>
-      </c>
       <c r="M42" t="s">
         <v>130</v>
       </c>
       <c r="N42" t="s">
+        <v>577</v>
+      </c>
+      <c r="O42" t="s">
         <v>578</v>
       </c>
-      <c r="O42" t="s">
+      <c r="P42" t="s">
         <v>579</v>
       </c>
-      <c r="P42" t="s">
+      <c r="Q42" t="s">
         <v>580</v>
       </c>
-      <c r="Q42" t="s">
+      <c r="R42" t="s">
+        <v>130</v>
+      </c>
+      <c r="S42" t="s">
         <v>581</v>
       </c>
-      <c r="R42" t="s">
-        <v>130</v>
-      </c>
-      <c r="S42" t="s">
+      <c r="T42" t="s">
         <v>582</v>
       </c>
-      <c r="T42" t="s">
+      <c r="U42" t="s">
         <v>583</v>
       </c>
-      <c r="U42" t="s">
+      <c r="V42" t="s">
         <v>584</v>
       </c>
-      <c r="V42" t="s">
+      <c r="W42" t="s">
         <v>585</v>
-      </c>
-      <c r="W42" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.25">
@@ -5447,70 +5446,70 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
+        <v>436</v>
+      </c>
+      <c r="C43" t="s">
         <v>437</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
+        <v>290</v>
+      </c>
+      <c r="E43" t="s">
         <v>438</v>
       </c>
-      <c r="D43" t="s">
-        <v>291</v>
-      </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>439</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>440</v>
       </c>
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>441</v>
       </c>
-      <c r="H43" t="s">
+      <c r="I43" t="s">
         <v>442</v>
       </c>
-      <c r="I43" t="s">
+      <c r="J43" t="s">
+        <v>130</v>
+      </c>
+      <c r="K43" t="s">
         <v>443</v>
       </c>
-      <c r="J43" t="s">
-        <v>130</v>
-      </c>
-      <c r="K43" t="s">
+      <c r="L43" t="s">
         <v>444</v>
       </c>
-      <c r="L43" t="s">
-        <v>445</v>
-      </c>
       <c r="M43" t="s">
         <v>130</v>
       </c>
       <c r="N43" t="s">
+        <v>586</v>
+      </c>
+      <c r="O43" t="s">
         <v>587</v>
       </c>
-      <c r="O43" t="s">
+      <c r="P43" t="s">
+        <v>423</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>423</v>
+      </c>
+      <c r="R43" t="s">
+        <v>130</v>
+      </c>
+      <c r="S43" t="s">
         <v>588</v>
       </c>
-      <c r="P43" t="s">
-        <v>424</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>424</v>
-      </c>
-      <c r="R43" t="s">
-        <v>130</v>
-      </c>
-      <c r="S43" t="s">
+      <c r="T43" t="s">
         <v>589</v>
       </c>
-      <c r="T43" t="s">
+      <c r="U43" t="s">
         <v>590</v>
       </c>
-      <c r="U43" t="s">
+      <c r="V43" t="s">
+        <v>423</v>
+      </c>
+      <c r="W43" t="s">
         <v>591</v>
-      </c>
-      <c r="V43" t="s">
-        <v>424</v>
-      </c>
-      <c r="W43" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
@@ -5519,37 +5518,37 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C44" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D44" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E44" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F44" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G44" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H44" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="I44" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J44" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="K44" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="L44" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.25">
@@ -5558,70 +5557,70 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
+        <v>446</v>
+      </c>
+      <c r="C45" t="s">
         <v>447</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>448</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>449</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>450</v>
       </c>
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>451</v>
       </c>
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>452</v>
       </c>
-      <c r="H45" t="s">
+      <c r="I45" t="s">
         <v>453</v>
       </c>
-      <c r="I45" t="s">
+      <c r="J45" t="s">
         <v>454</v>
       </c>
-      <c r="J45" t="s">
+      <c r="K45" t="s">
         <v>455</v>
       </c>
-      <c r="K45" t="s">
+      <c r="L45" t="s">
         <v>456</v>
       </c>
-      <c r="L45" t="s">
-        <v>457</v>
-      </c>
       <c r="M45" t="s">
+        <v>592</v>
+      </c>
+      <c r="N45" t="s">
         <v>593</v>
       </c>
-      <c r="N45" t="s">
+      <c r="O45" t="s">
         <v>594</v>
       </c>
-      <c r="O45" t="s">
+      <c r="P45" t="s">
         <v>595</v>
       </c>
-      <c r="P45" t="s">
+      <c r="Q45" t="s">
         <v>596</v>
       </c>
-      <c r="Q45" t="s">
+      <c r="R45" t="s">
         <v>597</v>
       </c>
-      <c r="R45" t="s">
+      <c r="S45" t="s">
         <v>598</v>
       </c>
-      <c r="S45" t="s">
+      <c r="T45" t="s">
         <v>599</v>
       </c>
-      <c r="T45" t="s">
+      <c r="U45" t="s">
         <v>600</v>
       </c>
-      <c r="U45" t="s">
+      <c r="V45" t="s">
         <v>601</v>
       </c>
-      <c r="V45" t="s">
+      <c r="W45" t="s">
         <v>602</v>
-      </c>
-      <c r="W45" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.25">
@@ -5630,70 +5629,70 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
+        <v>457</v>
+      </c>
+      <c r="C46" t="s">
         <v>458</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>459</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
+        <v>355</v>
+      </c>
+      <c r="F46" t="s">
         <v>460</v>
       </c>
-      <c r="E46" t="s">
-        <v>356</v>
-      </c>
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>461</v>
       </c>
-      <c r="G46" t="s">
-        <v>462</v>
-      </c>
       <c r="H46" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I46" t="s">
         <v>26</v>
       </c>
       <c r="J46" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K46" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L46" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M46" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="N46" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="O46" t="s">
         <v>79</v>
       </c>
       <c r="P46" t="s">
+        <v>604</v>
+      </c>
+      <c r="Q46" t="s">
         <v>605</v>
       </c>
-      <c r="Q46" t="s">
+      <c r="R46" t="s">
+        <v>356</v>
+      </c>
+      <c r="S46" t="s">
         <v>606</v>
-      </c>
-      <c r="R46" t="s">
-        <v>357</v>
-      </c>
-      <c r="S46" t="s">
-        <v>607</v>
       </c>
       <c r="T46" t="s">
         <v>64</v>
       </c>
       <c r="U46" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="V46" t="s">
+        <v>607</v>
+      </c>
+      <c r="W46" t="s">
         <v>608</v>
-      </c>
-      <c r="W46" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.25">
@@ -5702,7 +5701,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.25">
@@ -5711,70 +5710,70 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
+        <v>464</v>
+      </c>
+      <c r="C48" t="s">
+        <v>407</v>
+      </c>
+      <c r="D48" t="s">
         <v>465</v>
       </c>
-      <c r="C48" t="s">
-        <v>408</v>
-      </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
+        <v>362</v>
+      </c>
+      <c r="F48" t="s">
         <v>466</v>
       </c>
-      <c r="E48" t="s">
-        <v>363</v>
-      </c>
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>467</v>
       </c>
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>468</v>
       </c>
-      <c r="H48" t="s">
+      <c r="I48" t="s">
+        <v>392</v>
+      </c>
+      <c r="J48" t="s">
         <v>469</v>
       </c>
-      <c r="I48" t="s">
-        <v>393</v>
-      </c>
-      <c r="J48" t="s">
+      <c r="K48" t="s">
         <v>470</v>
-      </c>
-      <c r="K48" t="s">
-        <v>471</v>
       </c>
       <c r="L48" t="s">
         <v>112</v>
       </c>
       <c r="M48" t="s">
+        <v>609</v>
+      </c>
+      <c r="N48" t="s">
         <v>610</v>
       </c>
-      <c r="N48" t="s">
+      <c r="O48" t="s">
+        <v>514</v>
+      </c>
+      <c r="P48" t="s">
         <v>611</v>
       </c>
-      <c r="O48" t="s">
-        <v>515</v>
-      </c>
-      <c r="P48" t="s">
+      <c r="Q48" t="s">
+        <v>290</v>
+      </c>
+      <c r="R48" t="s">
+        <v>474</v>
+      </c>
+      <c r="S48" t="s">
+        <v>461</v>
+      </c>
+      <c r="T48" t="s">
         <v>612</v>
       </c>
-      <c r="Q48" t="s">
-        <v>291</v>
-      </c>
-      <c r="R48" t="s">
-        <v>475</v>
-      </c>
-      <c r="S48" t="s">
-        <v>462</v>
-      </c>
-      <c r="T48" t="s">
+      <c r="U48" t="s">
         <v>613</v>
       </c>
-      <c r="U48" t="s">
-        <v>614</v>
-      </c>
       <c r="V48" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="W48" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.25">
@@ -5783,70 +5782,70 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
+        <v>471</v>
+      </c>
+      <c r="C49" t="s">
         <v>472</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>473</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>474</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
+        <v>274</v>
+      </c>
+      <c r="G49" t="s">
         <v>475</v>
       </c>
-      <c r="F49" t="s">
-        <v>275</v>
-      </c>
-      <c r="G49" t="s">
+      <c r="H49" t="s">
+        <v>392</v>
+      </c>
+      <c r="I49" t="s">
         <v>476</v>
       </c>
-      <c r="H49" t="s">
-        <v>393</v>
-      </c>
-      <c r="I49" t="s">
+      <c r="J49" t="s">
         <v>477</v>
       </c>
-      <c r="J49" t="s">
-        <v>478</v>
-      </c>
       <c r="K49" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="L49" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="M49" t="s">
         <v>43</v>
       </c>
       <c r="N49" t="s">
+        <v>614</v>
+      </c>
+      <c r="O49" t="s">
         <v>615</v>
       </c>
-      <c r="O49" t="s">
+      <c r="P49" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q49" t="s">
         <v>616</v>
-      </c>
-      <c r="P49" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>617</v>
       </c>
       <c r="R49" t="s">
         <v>91</v>
       </c>
       <c r="S49" t="s">
+        <v>617</v>
+      </c>
+      <c r="T49" t="s">
         <v>618</v>
       </c>
-      <c r="T49" t="s">
-        <v>619</v>
-      </c>
       <c r="U49" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="V49" t="s">
         <v>91</v>
       </c>
       <c r="W49" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.25">
@@ -5855,70 +5854,70 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C50" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D50" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E50" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F50" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G50" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H50" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="I50" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="J50" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="K50" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="L50" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="M50" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="N50" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="O50" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="P50" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="Q50" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="R50" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="S50" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="T50" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="U50" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="V50" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="W50" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.25">
@@ -5927,70 +5926,70 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
+        <v>479</v>
+      </c>
+      <c r="C51" t="s">
         <v>480</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>481</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>482</v>
       </c>
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>483</v>
       </c>
-      <c r="F51" t="s">
+      <c r="G51" t="s">
         <v>484</v>
       </c>
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>485</v>
       </c>
-      <c r="H51" t="s">
+      <c r="I51" t="s">
         <v>486</v>
       </c>
-      <c r="I51" t="s">
+      <c r="J51" t="s">
         <v>487</v>
       </c>
-      <c r="J51" t="s">
+      <c r="K51" t="s">
         <v>488</v>
       </c>
-      <c r="K51" t="s">
+      <c r="L51" t="s">
         <v>489</v>
       </c>
-      <c r="L51" t="s">
-        <v>490</v>
-      </c>
       <c r="M51" t="s">
+        <v>620</v>
+      </c>
+      <c r="N51" t="s">
         <v>621</v>
       </c>
-      <c r="N51" t="s">
+      <c r="O51" t="s">
         <v>622</v>
       </c>
-      <c r="O51" t="s">
+      <c r="P51" t="s">
         <v>623</v>
       </c>
-      <c r="P51" t="s">
+      <c r="Q51" t="s">
         <v>624</v>
       </c>
-      <c r="Q51" t="s">
+      <c r="R51" t="s">
         <v>625</v>
       </c>
-      <c r="R51" t="s">
+      <c r="S51" t="s">
         <v>626</v>
       </c>
-      <c r="S51" t="s">
+      <c r="T51" t="s">
         <v>627</v>
       </c>
-      <c r="T51" t="s">
+      <c r="U51" t="s">
         <v>628</v>
       </c>
-      <c r="U51" t="s">
+      <c r="V51" t="s">
         <v>629</v>
       </c>
-      <c r="V51" t="s">
+      <c r="W51" t="s">
         <v>630</v>
-      </c>
-      <c r="W51" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.25">
@@ -5999,70 +5998,70 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
+        <v>490</v>
+      </c>
+      <c r="C52" t="s">
         <v>491</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>492</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
         <v>493</v>
       </c>
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>494</v>
       </c>
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>495</v>
       </c>
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>496</v>
       </c>
-      <c r="H52" t="s">
+      <c r="I52" t="s">
         <v>497</v>
       </c>
-      <c r="I52" t="s">
+      <c r="J52" t="s">
         <v>498</v>
       </c>
-      <c r="J52" t="s">
+      <c r="K52" t="s">
         <v>499</v>
       </c>
-      <c r="K52" t="s">
+      <c r="L52" t="s">
         <v>500</v>
       </c>
-      <c r="L52" t="s">
-        <v>501</v>
-      </c>
       <c r="M52" t="s">
+        <v>631</v>
+      </c>
+      <c r="N52" t="s">
         <v>632</v>
       </c>
-      <c r="N52" t="s">
+      <c r="O52" t="s">
         <v>633</v>
       </c>
-      <c r="O52" t="s">
+      <c r="P52" t="s">
         <v>634</v>
       </c>
-      <c r="P52" t="s">
+      <c r="Q52" t="s">
         <v>635</v>
       </c>
-      <c r="Q52" t="s">
+      <c r="R52" t="s">
         <v>636</v>
       </c>
-      <c r="R52" t="s">
+      <c r="S52" t="s">
         <v>637</v>
       </c>
-      <c r="S52" t="s">
+      <c r="T52" t="s">
         <v>638</v>
       </c>
-      <c r="T52" t="s">
+      <c r="U52" t="s">
         <v>639</v>
       </c>
-      <c r="U52" t="s">
+      <c r="V52" t="s">
         <v>640</v>
       </c>
-      <c r="V52" t="s">
+      <c r="W52" t="s">
         <v>641</v>
-      </c>
-      <c r="W52" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.25">
@@ -6071,70 +6070,70 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
+        <v>501</v>
+      </c>
+      <c r="C53" t="s">
         <v>502</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>503</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
         <v>504</v>
       </c>
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>505</v>
       </c>
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>506</v>
       </c>
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>507</v>
       </c>
-      <c r="H53" t="s">
+      <c r="I53" t="s">
         <v>508</v>
       </c>
-      <c r="I53" t="s">
+      <c r="J53" t="s">
         <v>509</v>
       </c>
-      <c r="J53" t="s">
+      <c r="K53" t="s">
         <v>510</v>
       </c>
-      <c r="K53" t="s">
-        <v>511</v>
-      </c>
       <c r="L53" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="M53" t="s">
+        <v>642</v>
+      </c>
+      <c r="N53" t="s">
         <v>643</v>
       </c>
-      <c r="N53" t="s">
-        <v>644</v>
-      </c>
       <c r="O53" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="P53" t="s">
         <v>29</v>
       </c>
       <c r="Q53" t="s">
+        <v>644</v>
+      </c>
+      <c r="R53" t="s">
         <v>645</v>
       </c>
-      <c r="R53" t="s">
+      <c r="S53" t="s">
         <v>646</v>
-      </c>
-      <c r="S53" t="s">
-        <v>647</v>
       </c>
       <c r="T53" t="s">
         <v>113</v>
       </c>
       <c r="U53" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="V53" t="s">
+        <v>647</v>
+      </c>
+      <c r="W53" t="s">
         <v>648</v>
-      </c>
-      <c r="W53" t="s">
-        <v>649</v>
       </c>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.25">
@@ -6143,70 +6142,70 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
+        <v>511</v>
+      </c>
+      <c r="C54" t="s">
         <v>512</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>513</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
         <v>514</v>
-      </c>
-      <c r="E54" t="s">
-        <v>515</v>
       </c>
       <c r="F54" t="s">
         <v>178</v>
       </c>
       <c r="G54" t="s">
+        <v>515</v>
+      </c>
+      <c r="H54" t="s">
         <v>516</v>
       </c>
-      <c r="H54" t="s">
+      <c r="I54" t="s">
         <v>517</v>
-      </c>
-      <c r="I54" t="s">
-        <v>518</v>
       </c>
       <c r="J54" t="s">
         <v>175</v>
       </c>
       <c r="K54" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="L54" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="M54" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="N54" t="s">
         <v>68</v>
       </c>
       <c r="O54" t="s">
+        <v>650</v>
+      </c>
+      <c r="P54" t="s">
         <v>651</v>
       </c>
-      <c r="P54" t="s">
-        <v>652</v>
-      </c>
       <c r="Q54" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="R54" t="s">
         <v>187</v>
       </c>
       <c r="S54" t="s">
+        <v>652</v>
+      </c>
+      <c r="T54" t="s">
         <v>653</v>
       </c>
-      <c r="T54" t="s">
+      <c r="U54" t="s">
         <v>654</v>
       </c>
-      <c r="U54" t="s">
+      <c r="V54" t="s">
         <v>655</v>
       </c>
-      <c r="V54" t="s">
-        <v>656</v>
-      </c>
       <c r="W54" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.25">
@@ -6215,70 +6214,70 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C55" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D55" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E55" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F55" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="G55" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H55" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="I55" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="J55" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="K55" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="L55" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="M55" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="N55" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="O55" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="P55" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="Q55" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="R55" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="S55" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="T55" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="U55" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="V55" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="W55" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.25">
@@ -6287,70 +6286,70 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
+        <v>520</v>
+      </c>
+      <c r="C56" t="s">
         <v>521</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
         <v>522</v>
       </c>
-      <c r="D56" t="s">
+      <c r="E56" t="s">
         <v>523</v>
       </c>
-      <c r="E56" t="s">
+      <c r="F56" t="s">
         <v>524</v>
       </c>
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>525</v>
       </c>
-      <c r="G56" t="s">
+      <c r="H56" t="s">
         <v>526</v>
       </c>
-      <c r="H56" t="s">
+      <c r="I56" t="s">
         <v>527</v>
       </c>
-      <c r="I56" t="s">
+      <c r="J56" t="s">
         <v>528</v>
       </c>
-      <c r="J56" t="s">
+      <c r="K56" t="s">
         <v>529</v>
       </c>
-      <c r="K56" t="s">
+      <c r="L56" t="s">
         <v>530</v>
       </c>
-      <c r="L56" t="s">
-        <v>531</v>
-      </c>
       <c r="M56" t="s">
+        <v>657</v>
+      </c>
+      <c r="N56" t="s">
         <v>658</v>
       </c>
-      <c r="N56" t="s">
+      <c r="O56" t="s">
         <v>659</v>
       </c>
-      <c r="O56" t="s">
+      <c r="P56" t="s">
         <v>660</v>
       </c>
-      <c r="P56" t="s">
+      <c r="Q56" t="s">
         <v>661</v>
       </c>
-      <c r="Q56" t="s">
+      <c r="R56" t="s">
         <v>662</v>
       </c>
-      <c r="R56" t="s">
+      <c r="S56" t="s">
         <v>663</v>
       </c>
-      <c r="S56" t="s">
+      <c r="T56" t="s">
         <v>664</v>
       </c>
-      <c r="T56" t="s">
+      <c r="U56" t="s">
         <v>665</v>
       </c>
-      <c r="U56" t="s">
+      <c r="V56" t="s">
         <v>666</v>
       </c>
-      <c r="V56" t="s">
+      <c r="W56" t="s">
         <v>667</v>
-      </c>
-      <c r="W56" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.25">
@@ -6359,70 +6358,70 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C57" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D57" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E57" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F57" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G57" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H57" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I57" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="J57" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="K57" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="L57" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="M57" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N57" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="O57" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="P57" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="Q57" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="R57" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="S57" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="T57" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="U57" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="V57" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="W57" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.25">
@@ -6431,7 +6430,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.25">
@@ -6440,70 +6439,70 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C59" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D59" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E59" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F59" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G59" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H59" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I59" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J59" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K59" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L59" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="M59" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="N59" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O59" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="P59" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="Q59" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="R59" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="S59" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="T59" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="U59" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="V59" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="W59" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="60" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6512,70 +6511,70 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
+        <v>534</v>
+      </c>
+      <c r="C60" t="s">
         <v>535</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
         <v>536</v>
       </c>
-      <c r="D60" t="s">
+      <c r="E60" t="s">
         <v>537</v>
       </c>
-      <c r="E60" t="s">
+      <c r="F60" t="s">
         <v>538</v>
       </c>
-      <c r="F60" t="s">
+      <c r="G60" t="s">
         <v>539</v>
       </c>
-      <c r="G60" t="s">
+      <c r="H60" t="s">
         <v>540</v>
       </c>
-      <c r="H60" t="s">
+      <c r="I60" t="s">
         <v>541</v>
       </c>
-      <c r="I60" t="s">
+      <c r="J60" t="s">
         <v>542</v>
       </c>
-      <c r="J60" t="s">
+      <c r="K60" t="s">
         <v>543</v>
       </c>
-      <c r="K60" t="s">
+      <c r="L60" t="s">
         <v>544</v>
       </c>
-      <c r="L60" t="s">
-        <v>545</v>
-      </c>
       <c r="M60" s="4" t="s">
+        <v>669</v>
+      </c>
+      <c r="N60" s="4" t="s">
         <v>670</v>
       </c>
-      <c r="N60" s="4" t="s">
+      <c r="O60" s="4" t="s">
         <v>671</v>
       </c>
-      <c r="O60" s="4" t="s">
+      <c r="P60" s="4" t="s">
         <v>672</v>
       </c>
-      <c r="P60" s="4" t="s">
+      <c r="Q60" s="4" t="s">
         <v>673</v>
       </c>
-      <c r="Q60" s="4" t="s">
+      <c r="R60" s="4" t="s">
         <v>674</v>
       </c>
-      <c r="R60" s="4" t="s">
+      <c r="S60" s="4" t="s">
         <v>675</v>
       </c>
-      <c r="S60" s="4" t="s">
+      <c r="T60" s="4" t="s">
         <v>676</v>
       </c>
-      <c r="T60" s="4" t="s">
+      <c r="U60" s="4" t="s">
         <v>677</v>
       </c>
-      <c r="U60" s="4" t="s">
+      <c r="V60" s="4" t="s">
         <v>678</v>
       </c>
-      <c r="V60" s="4" t="s">
+      <c r="W60" s="4" t="s">
         <v>679</v>
-      </c>
-      <c r="W60" s="4" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="61" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6584,37 +6583,37 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
+        <v>680</v>
+      </c>
+      <c r="C61" t="s">
         <v>681</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
         <v>682</v>
       </c>
-      <c r="D61" t="s">
+      <c r="E61" t="s">
         <v>683</v>
       </c>
-      <c r="E61" t="s">
+      <c r="F61" t="s">
         <v>684</v>
       </c>
-      <c r="F61" t="s">
+      <c r="G61" t="s">
         <v>685</v>
       </c>
-      <c r="G61" t="s">
+      <c r="H61" t="s">
         <v>686</v>
       </c>
-      <c r="H61" t="s">
+      <c r="I61" t="s">
         <v>687</v>
       </c>
-      <c r="I61" t="s">
+      <c r="J61" t="s">
         <v>688</v>
       </c>
-      <c r="J61" t="s">
+      <c r="K61" t="s">
         <v>689</v>
       </c>
-      <c r="K61" t="s">
+      <c r="L61" t="s">
         <v>690</v>
-      </c>
-      <c r="L61" t="s">
-        <v>691</v>
       </c>
       <c r="M61" s="5">
         <v>6493.8</v>
@@ -6656,37 +6655,37 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
+        <v>691</v>
+      </c>
+      <c r="C62" t="s">
         <v>692</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
         <v>693</v>
       </c>
-      <c r="D62" t="s">
+      <c r="E62" t="s">
         <v>694</v>
       </c>
-      <c r="E62" t="s">
+      <c r="F62" t="s">
         <v>695</v>
       </c>
-      <c r="F62" t="s">
+      <c r="G62" t="s">
         <v>696</v>
       </c>
-      <c r="G62" t="s">
+      <c r="H62" t="s">
+        <v>423</v>
+      </c>
+      <c r="I62" t="s">
         <v>697</v>
       </c>
-      <c r="H62" t="s">
-        <v>424</v>
-      </c>
-      <c r="I62" t="s">
+      <c r="J62" t="s">
         <v>698</v>
       </c>
-      <c r="J62" t="s">
+      <c r="K62" t="s">
         <v>699</v>
       </c>
-      <c r="K62" t="s">
+      <c r="L62" t="s">
         <v>700</v>
-      </c>
-      <c r="L62" t="s">
-        <v>701</v>
       </c>
       <c r="M62" s="5">
         <v>1596.4</v>
@@ -6698,7 +6697,7 @@
         <v>19179.7</v>
       </c>
       <c r="P62" s="5" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="Q62" s="5">
         <v>1085.8</v>
@@ -6710,7 +6709,7 @@
         <v>604.4</v>
       </c>
       <c r="T62" s="5" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="U62" s="5">
         <v>1598.8</v>
@@ -6728,70 +6727,70 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C63" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D63" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E63" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="F63" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="G63" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="H63" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="I63" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="J63" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="K63" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="L63" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="M63" s="6" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="N63" s="6" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="O63" s="6" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="P63" s="6" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="Q63" s="6" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="R63" s="6" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="S63" s="6" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="T63" s="6" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="U63" s="6" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="V63" s="6" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="W63" s="6" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="64" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
@@ -6800,37 +6799,37 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
+        <v>702</v>
+      </c>
+      <c r="C64" t="s">
         <v>703</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
         <v>704</v>
       </c>
-      <c r="D64" t="s">
+      <c r="E64" t="s">
         <v>705</v>
       </c>
-      <c r="E64" t="s">
+      <c r="F64" t="s">
         <v>706</v>
       </c>
-      <c r="F64" t="s">
+      <c r="G64" t="s">
         <v>707</v>
       </c>
-      <c r="G64" t="s">
+      <c r="H64" t="s">
         <v>708</v>
       </c>
-      <c r="H64" t="s">
+      <c r="I64" t="s">
         <v>709</v>
       </c>
-      <c r="I64" t="s">
+      <c r="J64" t="s">
         <v>710</v>
       </c>
-      <c r="J64" t="s">
+      <c r="K64" t="s">
         <v>711</v>
       </c>
-      <c r="K64" t="s">
+      <c r="L64" t="s">
         <v>712</v>
-      </c>
-      <c r="L64" t="s">
-        <v>713</v>
       </c>
       <c r="M64" s="7">
         <v>1566.2</v>
@@ -6854,7 +6853,7 @@
         <v>2122.9</v>
       </c>
       <c r="T64" s="7" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="U64" s="7">
         <v>5621.3</v>
@@ -6872,37 +6871,37 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
+        <v>713</v>
+      </c>
+      <c r="C65" t="s">
         <v>714</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
         <v>715</v>
       </c>
-      <c r="D65" t="s">
+      <c r="E65" t="s">
         <v>716</v>
       </c>
-      <c r="E65" t="s">
+      <c r="F65" t="s">
+        <v>282</v>
+      </c>
+      <c r="G65" t="s">
         <v>717</v>
       </c>
-      <c r="F65" t="s">
-        <v>283</v>
-      </c>
-      <c r="G65" t="s">
+      <c r="H65" t="s">
         <v>718</v>
       </c>
-      <c r="H65" t="s">
+      <c r="I65" t="s">
         <v>719</v>
       </c>
-      <c r="I65" t="s">
+      <c r="J65" t="s">
         <v>720</v>
       </c>
-      <c r="J65" t="s">
+      <c r="K65" t="s">
         <v>721</v>
       </c>
-      <c r="K65" t="s">
+      <c r="L65" t="s">
         <v>722</v>
-      </c>
-      <c r="L65" t="s">
-        <v>723</v>
       </c>
       <c r="M65" s="8">
         <v>358.4</v>
@@ -6944,37 +6943,37 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
+        <v>723</v>
+      </c>
+      <c r="C66" t="s">
         <v>724</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
         <v>725</v>
       </c>
-      <c r="D66" t="s">
+      <c r="E66" t="s">
+        <v>725</v>
+      </c>
+      <c r="F66" t="s">
         <v>726</v>
       </c>
-      <c r="E66" t="s">
-        <v>726</v>
-      </c>
-      <c r="F66" t="s">
+      <c r="G66" t="s">
         <v>727</v>
       </c>
-      <c r="G66" t="s">
+      <c r="H66" t="s">
         <v>728</v>
       </c>
-      <c r="H66" t="s">
+      <c r="I66" t="s">
         <v>729</v>
       </c>
-      <c r="I66" t="s">
+      <c r="J66" t="s">
         <v>730</v>
       </c>
-      <c r="J66" t="s">
+      <c r="K66" t="s">
         <v>731</v>
       </c>
-      <c r="K66" t="s">
+      <c r="L66" t="s">
         <v>732</v>
-      </c>
-      <c r="L66" t="s">
-        <v>733</v>
       </c>
       <c r="M66" s="8">
         <v>6722</v>
@@ -7016,7 +7015,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="M67" s="8"/>
       <c r="N67" s="8"/>
@@ -7036,61 +7035,61 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
+        <v>734</v>
+      </c>
+      <c r="C68" t="s">
         <v>735</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
         <v>736</v>
       </c>
-      <c r="D68" t="s">
+      <c r="E68" t="s">
+        <v>290</v>
+      </c>
+      <c r="F68" t="s">
+        <v>290</v>
+      </c>
+      <c r="G68" t="s">
+        <v>290</v>
+      </c>
+      <c r="H68" t="s">
+        <v>290</v>
+      </c>
+      <c r="I68" t="s">
         <v>737</v>
       </c>
-      <c r="E68" t="s">
-        <v>291</v>
-      </c>
-      <c r="F68" t="s">
-        <v>291</v>
-      </c>
-      <c r="G68" t="s">
-        <v>291</v>
-      </c>
-      <c r="H68" t="s">
-        <v>291</v>
-      </c>
-      <c r="I68" t="s">
+      <c r="J68" t="s">
         <v>738</v>
       </c>
-      <c r="J68" t="s">
+      <c r="K68" t="s">
         <v>739</v>
       </c>
-      <c r="K68" t="s">
+      <c r="L68" t="s">
         <v>740</v>
-      </c>
-      <c r="L68" t="s">
-        <v>741</v>
       </c>
       <c r="M68" s="8">
         <v>450</v>
       </c>
       <c r="N68" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O68" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="P68" s="8">
         <v>182</v>
       </c>
       <c r="Q68" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="R68" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="S68" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="T68" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="U68" s="8">
         <v>80</v>
@@ -7099,7 +7098,7 @@
         <v>140</v>
       </c>
       <c r="W68" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.25">
@@ -7108,58 +7107,58 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
+        <v>741</v>
+      </c>
+      <c r="C69" t="s">
         <v>742</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
+        <v>290</v>
+      </c>
+      <c r="E69" t="s">
+        <v>290</v>
+      </c>
+      <c r="F69" t="s">
+        <v>290</v>
+      </c>
+      <c r="G69" t="s">
+        <v>290</v>
+      </c>
+      <c r="H69" t="s">
+        <v>290</v>
+      </c>
+      <c r="I69" t="s">
         <v>743</v>
       </c>
-      <c r="D69" t="s">
-        <v>291</v>
-      </c>
-      <c r="E69" t="s">
-        <v>291</v>
-      </c>
-      <c r="F69" t="s">
-        <v>291</v>
-      </c>
-      <c r="G69" t="s">
-        <v>291</v>
-      </c>
-      <c r="H69" t="s">
-        <v>291</v>
-      </c>
-      <c r="I69" t="s">
+      <c r="J69" t="s">
+        <v>290</v>
+      </c>
+      <c r="K69" t="s">
         <v>744</v>
       </c>
-      <c r="J69" t="s">
-        <v>291</v>
-      </c>
-      <c r="K69" t="s">
-        <v>745</v>
-      </c>
       <c r="L69" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="M69" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="N69" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O69" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="P69" s="8">
         <v>1050</v>
       </c>
       <c r="Q69" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="R69" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="S69" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="T69" s="8">
         <v>600</v>
@@ -7168,10 +7167,10 @@
         <v>2200</v>
       </c>
       <c r="V69" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="W69" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="70" spans="1:23" x14ac:dyDescent="0.25">
@@ -7180,70 +7179,70 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C70" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D70" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E70" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F70" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G70" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H70" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I70" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J70" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K70" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L70" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="M70" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="N70" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O70" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="P70" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="Q70" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="R70" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="S70" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="T70" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="U70" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="V70" s="8">
         <v>63</v>
       </c>
       <c r="W70" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="71" spans="1:23" x14ac:dyDescent="0.25">
@@ -7252,19 +7251,19 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
+        <v>746</v>
+      </c>
+      <c r="C71" t="s">
         <v>747</v>
       </c>
-      <c r="C71" t="s">
-        <v>748</v>
-      </c>
       <c r="D71" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E71" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F71" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G71" t="s">
         <v>172</v>
@@ -7273,49 +7272,49 @@
         <v>172</v>
       </c>
       <c r="I71" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J71" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="K71" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L71" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="M71" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="N71" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O71" s="8">
         <v>850</v>
       </c>
       <c r="P71" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="Q71" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="R71" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="S71" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="T71" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="U71" s="8">
         <v>1200</v>
       </c>
       <c r="V71" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="W71" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="72" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7324,37 +7323,37 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C72" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D72" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E72" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="F72" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="G72" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="H72" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="I72" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J72" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="K72" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="L72" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="M72" s="6"/>
       <c r="N72" s="6"/>
@@ -7374,37 +7373,37 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
+        <v>749</v>
+      </c>
+      <c r="C73" t="s">
         <v>750</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
         <v>751</v>
       </c>
-      <c r="D73" t="s">
+      <c r="E73" t="s">
         <v>752</v>
       </c>
-      <c r="E73" t="s">
+      <c r="F73" t="s">
         <v>753</v>
       </c>
-      <c r="F73" t="s">
+      <c r="G73" t="s">
         <v>754</v>
       </c>
-      <c r="G73" t="s">
+      <c r="H73" t="s">
         <v>755</v>
       </c>
-      <c r="H73" t="s">
+      <c r="I73" t="s">
         <v>756</v>
       </c>
-      <c r="I73" t="s">
+      <c r="J73" t="s">
         <v>757</v>
       </c>
-      <c r="J73" t="s">
+      <c r="K73" t="s">
         <v>758</v>
       </c>
-      <c r="K73" t="s">
+      <c r="L73" t="s">
         <v>759</v>
-      </c>
-      <c r="L73" t="s">
-        <v>760</v>
       </c>
       <c r="M73" s="7">
         <v>24526.400000000001</v>
@@ -7446,37 +7445,37 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
+        <v>760</v>
+      </c>
+      <c r="C74" t="s">
         <v>761</v>
       </c>
-      <c r="C74" t="s">
+      <c r="D74" t="s">
         <v>762</v>
       </c>
-      <c r="D74" t="s">
+      <c r="E74" t="s">
         <v>763</v>
       </c>
-      <c r="E74" t="s">
+      <c r="F74" t="s">
         <v>764</v>
       </c>
-      <c r="F74" t="s">
+      <c r="G74" t="s">
         <v>765</v>
       </c>
-      <c r="G74" t="s">
+      <c r="H74" t="s">
         <v>766</v>
       </c>
-      <c r="H74" t="s">
+      <c r="I74" t="s">
         <v>767</v>
       </c>
-      <c r="I74" t="s">
+      <c r="J74" t="s">
+        <v>566</v>
+      </c>
+      <c r="K74" t="s">
         <v>768</v>
       </c>
-      <c r="J74" t="s">
-        <v>567</v>
-      </c>
-      <c r="K74" t="s">
+      <c r="L74" t="s">
         <v>769</v>
-      </c>
-      <c r="L74" t="s">
-        <v>770</v>
       </c>
       <c r="M74" s="8">
         <v>112.4</v>
@@ -7518,37 +7517,37 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
+        <v>770</v>
+      </c>
+      <c r="C75" t="s">
         <v>771</v>
       </c>
-      <c r="C75" t="s">
+      <c r="D75" t="s">
         <v>772</v>
       </c>
-      <c r="D75" t="s">
+      <c r="E75" t="s">
         <v>773</v>
       </c>
-      <c r="E75" t="s">
+      <c r="F75" t="s">
         <v>774</v>
       </c>
-      <c r="F75" t="s">
+      <c r="G75" t="s">
         <v>775</v>
       </c>
-      <c r="G75" t="s">
+      <c r="H75" t="s">
         <v>776</v>
       </c>
-      <c r="H75" t="s">
+      <c r="I75" t="s">
         <v>777</v>
-      </c>
-      <c r="I75" t="s">
-        <v>778</v>
       </c>
       <c r="J75">
         <v>1600</v>
       </c>
       <c r="K75" t="s">
+        <v>778</v>
+      </c>
+      <c r="L75" t="s">
         <v>779</v>
-      </c>
-      <c r="L75" t="s">
-        <v>780</v>
       </c>
       <c r="M75" s="8">
         <v>1616.9</v>
@@ -7590,40 +7589,40 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
+        <v>780</v>
+      </c>
+      <c r="C76" t="s">
         <v>781</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
         <v>782</v>
       </c>
-      <c r="D76" t="s">
+      <c r="E76" t="s">
         <v>783</v>
       </c>
-      <c r="E76" t="s">
+      <c r="F76" t="s">
         <v>784</v>
       </c>
-      <c r="F76" t="s">
+      <c r="G76" t="s">
         <v>785</v>
       </c>
-      <c r="G76" t="s">
+      <c r="H76" t="s">
         <v>786</v>
       </c>
-      <c r="H76" t="s">
+      <c r="I76" t="s">
         <v>787</v>
       </c>
-      <c r="I76" t="s">
+      <c r="J76" t="s">
+        <v>423</v>
+      </c>
+      <c r="K76" t="s">
         <v>788</v>
       </c>
-      <c r="J76" t="s">
-        <v>424</v>
-      </c>
-      <c r="K76" t="s">
+      <c r="L76" t="s">
         <v>789</v>
       </c>
-      <c r="L76" t="s">
+      <c r="M76" s="9" t="s">
         <v>790</v>
-      </c>
-      <c r="M76" s="9" t="s">
-        <v>791</v>
       </c>
       <c r="N76" s="9">
         <v>119.3</v>
@@ -7638,7 +7637,7 @@
         <v>114.5</v>
       </c>
       <c r="R76" s="9" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="S76" s="9">
         <v>87.6</v>
